--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htfil\OneDrive\Documents\GitHub\PSPL_Rocket_4_Sizing\data\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D3179-DA4E-47DB-8526-65FFCF56FEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
-    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
-    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
-    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
+    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
+    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
+    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>COPV name</t>
   </si>
   <si>
-    <t>COPV volume (in^3)</t>
-  </si>
-  <si>
-    <t>COPV pressure (psi)</t>
-  </si>
-  <si>
-    <t>COPV mass (lbm)</t>
-  </si>
-  <si>
-    <t>COPV length (in)</t>
-  </si>
-  <si>
-    <t>COPV diameter (in)</t>
-  </si>
-  <si>
     <t>COPV 1</t>
   </si>
   <si>
@@ -104,13 +95,28 @@
   </si>
   <si>
     <t>Step</t>
+  </si>
+  <si>
+    <t>Length (in)</t>
+  </si>
+  <si>
+    <t>Mass (lbm)</t>
+  </si>
+  <si>
+    <t>Pressure (psi)</t>
+  </si>
+  <si>
+    <t>Volume (liters)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,50 +166,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -214,10 +226,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -255,71 +267,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,7 +359,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -370,11 +382,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -383,13 +395,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -399,7 +411,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -408,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -425,10 +437,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -493,67 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="11" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10"/>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
         <v>500</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -561,82 +572,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="6">
         <v>3.5</v>
       </c>
-      <c r="F3" s="8">
-        <v>0.25</v>
+      <c r="F3" s="6">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -645,53 +658,135 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
         <v>6.625</v>
       </c>
-      <c r="C2" s="8">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C2" s="10">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
+      <c r="B3" s="10">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
         <v>0.125</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -699,82 +794,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="12">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
-        <v>500</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B3" s="12">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>700</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>4000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>60</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="12">
         <v>30</v>
       </c>
-      <c r="F3" s="4">
-        <v>7</v>
+      <c r="F3" s="12">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htfil\OneDrive\Documents\GitHub\PSPL_Rocket_4_Sizing\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D3179-DA4E-47DB-8526-65FFCF56FEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE16149-0C16-418F-A83A-4CBB69E50DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12673" yWindow="33" windowWidth="19200" windowHeight="11154" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>COPV name</t>
   </si>
   <si>
+    <t>Volume (liters)</t>
+  </si>
+  <si>
+    <t>Pressure (psi)</t>
+  </si>
+  <si>
+    <t>Mass (lbm)</t>
+  </si>
+  <si>
+    <t>Length (in)</t>
+  </si>
+  <si>
+    <t>Outer diameter (in)</t>
+  </si>
+  <si>
     <t>COPV 1</t>
   </si>
   <si>
@@ -37,9 +52,6 @@
     <t>Tank wall name</t>
   </si>
   <si>
-    <t>Outer diameter (in)</t>
-  </si>
-  <si>
     <t>Wall thickness (in)</t>
   </si>
   <si>
@@ -70,16 +82,10 @@
     <t>Methalox</t>
   </si>
   <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>methane</t>
-  </si>
-  <si>
     <t>Kerolox</t>
   </si>
   <si>
-    <t>jet-A</t>
+    <t>Ethalox</t>
   </si>
   <si>
     <t>Chamber pressure (psi)</t>
@@ -97,27 +103,26 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Length (in)</t>
-  </si>
-  <si>
-    <t>Mass (lbm)</t>
-  </si>
-  <si>
-    <t>Pressure (psi)</t>
-  </si>
-  <si>
-    <t>Volume (liters)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>n-Dodecane</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +140,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -166,26 +177,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -194,15 +223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,58 +531,56 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1171875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.41015625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="14"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8">
         <v>500</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8">
         <v>100</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -576,79 +594,99 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1171875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.87890625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8">
         <v>2.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>3.5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
         <v>0.5</v>
       </c>
     </row>
@@ -664,129 +702,127 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
         <v>6.625</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="3">
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="C3" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,76 +836,74 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="3">
         <v>5000</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="3">
         <v>4000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="3">
         <v>60</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="3">
         <v>30</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="3">
         <v>6.5</v>
       </c>
     </row>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE16149-0C16-418F-A83A-4CBB69E50DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12673" yWindow="33" windowWidth="19200" windowHeight="11154" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
-    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
-    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
+    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
+    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
+    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,12 +76,24 @@
     <t>Methalox</t>
   </si>
   <si>
+    <t>O2(L)</t>
+  </si>
+  <si>
+    <t>CH4(L)</t>
+  </si>
+  <si>
     <t>Kerolox</t>
   </si>
   <si>
+    <t>Jet-A(L)</t>
+  </si>
+  <si>
     <t>Ethalox</t>
   </si>
   <si>
+    <t>C2H5OH(L)</t>
+  </si>
+  <si>
     <t>Chamber pressure (psi)</t>
   </si>
   <si>
@@ -101,24 +107,12 @@
   </si>
   <si>
     <t>Step</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>Methane</t>
-  </si>
-  <si>
-    <t>n-Dodecane</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -177,65 +171,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,10 +243,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -287,71 +284,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,7 +376,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -402,11 +399,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -415,13 +412,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -431,7 +428,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -440,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -449,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -457,10 +454,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -525,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -533,56 +530,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1171875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5859375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.41015625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="17" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14"/>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="16"/>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10">
         <v>100</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10">
         <v>500</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10">
         <v>100</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>0.5</v>
       </c>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,27 +590,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1171875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -620,73 +618,73 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10">
         <v>2.5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>3.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>0.5</v>
       </c>
     </row>
@@ -696,7 +694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -704,14 +702,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -722,107 +720,127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>6.625</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="C2" s="4">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -830,24 +848,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,43 +886,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>5000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>40</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>4000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>60</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>30</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>6.5</v>
       </c>
     </row>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE16149-0C16-418F-A83A-4CBB69E50DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8CE16149-0C16-418F-A83A-4CBB69E50DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27092EF7-7A98-4762-A17B-F2913B32093F}"/>
   <bookViews>
-    <workbookView xWindow="12673" yWindow="33" windowWidth="19200" windowHeight="11154" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,10 @@
     <t>Methane</t>
   </si>
   <si>
-    <t>n-Dodecane</t>
-  </si>
-  <si>
     <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Jet-A</t>
   </si>
 </sst>
 </file>
@@ -533,15 +533,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.1171875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5859375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.41015625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -597,20 +597,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1171875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -630,12 +630,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -650,15 +650,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="8">
         <v>2.5</v>
@@ -670,12 +670,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -704,14 +704,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -722,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -733,7 +733,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -744,83 +744,83 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
@@ -838,16 +838,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47F898-1B0B-46D8-A7F9-D4847E65F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="2133" yWindow="3013" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
-    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
-    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
-    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
+    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
+    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
+    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>COPV name</t>
   </si>
@@ -58,10 +64,16 @@
     <t>Propellant combination</t>
   </si>
   <si>
-    <t>Oxidizer</t>
-  </si>
-  <si>
-    <t>Fuel</t>
+    <t>Oxidizer CEA</t>
+  </si>
+  <si>
+    <t>Fuel CEA</t>
+  </si>
+  <si>
+    <t>Oxidizer CoolProp</t>
+  </si>
+  <si>
+    <t>Fuel CoolProp</t>
   </si>
   <si>
     <t>O:F start (mass)</t>
@@ -82,16 +94,28 @@
     <t>CH4(L)</t>
   </si>
   <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
     <t>Kerolox</t>
   </si>
   <si>
     <t>Jet-A(L)</t>
   </si>
   <si>
+    <t>Jet-A</t>
+  </si>
+  <si>
     <t>Ethalox</t>
   </si>
   <si>
     <t>C2H5OH(L)</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
   </si>
   <si>
     <t>Chamber pressure (psi)</t>
@@ -112,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -165,59 +189,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,10 +249,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -269,71 +290,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,7 +382,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -384,11 +405,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -397,13 +418,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +434,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -422,7 +443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,7 +452,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -439,10 +460,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -507,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -515,59 +536,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="14" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6.1171875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5859375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.41015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="13"/>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7">
         <v>100</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7">
         <v>500</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>0.5</v>
       </c>
-      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,25 +593,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.87890625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -603,73 +624,97 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="H2" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7">
         <v>2.5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G3" s="8">
         <v>3.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H3" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="H4" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -679,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -687,14 +732,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -705,127 +750,107 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>6.625</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -841,17 +866,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,43 +895,43 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>4000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>60</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>30</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>6.5</v>
       </c>
     </row>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47F898-1B0B-46D8-A7F9-D4847E65F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364BDA6-08C1-4D50-B218-EA8FF50680B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2133" yWindow="3013" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>Fuel CEA</t>
   </si>
   <si>
-    <t>Oxidizer CoolProp</t>
-  </si>
-  <si>
-    <t>Fuel CoolProp</t>
-  </si>
-  <si>
     <t>O:F start (mass)</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Oxygen</t>
   </si>
   <si>
-    <t>Methane</t>
-  </si>
-  <si>
     <t>Kerolox</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Step</t>
+  </si>
+  <si>
+    <t>Oxidizer</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Methanol</t>
   </si>
 </sst>
 </file>
@@ -547,16 +547,16 @@
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7">
         <v>500</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7">
         <v>100</v>
@@ -600,15 +600,15 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="14.1171875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.87890625" style="10" bestFit="1" customWidth="1"/>
@@ -619,42 +619,42 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -668,19 +668,19 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="7">
         <v>2.5</v>
@@ -694,19 +694,19 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364BDA6-08C1-4D50-B218-EA8FF50680B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3CDA3-27D7-44E1-85A1-FF727E1E94F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2133" yWindow="3013" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="4180" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -88,27 +88,18 @@
     <t>CH4(L)</t>
   </si>
   <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
     <t>Kerolox</t>
   </si>
   <si>
     <t>Jet-A(L)</t>
   </si>
   <si>
-    <t>Jet-A</t>
-  </si>
-  <si>
     <t>Ethalox</t>
   </si>
   <si>
     <t>C2H5OH(L)</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
     <t>Chamber pressure (psi)</t>
   </si>
   <si>
@@ -130,7 +121,16 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>Methanol</t>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>ethane</t>
+  </si>
+  <si>
+    <t>jet-a</t>
+  </si>
+  <si>
+    <t>oxygen</t>
   </si>
 </sst>
 </file>
@@ -547,16 +547,16 @@
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7">
         <v>500</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7">
         <v>100</v>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -619,10 +619,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -645,10 +645,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -668,19 +668,19 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7">
         <v>2.5</v>
@@ -694,19 +694,19 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3CDA3-27D7-44E1-85A1-FF727E1E94F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BFE9A-EE50-460A-8F3B-76B93ADB85FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="4180" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>COPV name</t>
   </si>
@@ -64,12 +64,6 @@
     <t>Propellant combination</t>
   </si>
   <si>
-    <t>Oxidizer CEA</t>
-  </si>
-  <si>
-    <t>Fuel CEA</t>
-  </si>
-  <si>
     <t>O:F start (mass)</t>
   </si>
   <si>
@@ -82,22 +76,10 @@
     <t>Methalox</t>
   </si>
   <si>
-    <t>O2(L)</t>
-  </si>
-  <si>
-    <t>CH4(L)</t>
-  </si>
-  <si>
     <t>Kerolox</t>
   </si>
   <si>
-    <t>Jet-A(L)</t>
-  </si>
-  <si>
     <t>Ethalox</t>
-  </si>
-  <si>
-    <t>C2H5OH(L)</t>
   </si>
   <si>
     <t>Chamber pressure (psi)</t>
@@ -547,16 +529,16 @@
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -567,7 +549,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7">
         <v>500</v>
@@ -578,7 +560,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7">
         <v>100</v>
@@ -597,10 +579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -608,113 +590,88 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.1171875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.87890625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.87890625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="F4" s="8">
         <v>0.5</v>
       </c>
     </row>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BFE9A-EE50-460A-8F3B-76B93ADB85FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF8139-2595-4529-80F0-B17F8749EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="12960" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>COPV name</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>oxygen</t>
+  </si>
+  <si>
+    <t>Exit pressure (psi)</t>
   </si>
 </sst>
 </file>
@@ -514,29 +517,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="6.1171875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5859375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.41015625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5859375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.41015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -544,10 +553,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -555,10 +567,13 @@
         <v>500</v>
       </c>
       <c r="C3" s="7">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -566,6 +581,9 @@
         <v>100</v>
       </c>
       <c r="C4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -581,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF8139-2595-4529-80F0-B17F8749EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE0FB31-9849-4907-89BE-FB9567B3F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="12960" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -553,7 +553,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>500</v>
       </c>
       <c r="C3" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>5</v>
@@ -581,7 +581,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
         <v>0.5</v>
@@ -600,7 +600,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE0FB31-9849-4907-89BE-FB9567B3F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2CD18-7166-4132-85F6-2A5BDE71860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>methane</t>
   </si>
   <si>
-    <t>ethane</t>
-  </si>
-  <si>
     <t>jet-a</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Exit pressure (psi)</t>
+  </si>
+  <si>
+    <t>ethanol</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -538,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>20</v>
@@ -599,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -658,10 +658,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7">
         <v>2.5</v>
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2CD18-7166-4132-85F6-2A5BDE71860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B395CE-3C00-4A05-8D56-55D2A67E2362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="987" yWindow="4100" windowWidth="19200" windowHeight="11180" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>COPV name</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Outer diameter (in)</t>
   </si>
   <si>
-    <t>COPV 1</t>
-  </si>
-  <si>
-    <t>COPV 2</t>
-  </si>
-  <si>
     <t>Tank wall name</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>Online Metals 6" Schedule 10 Pipe</t>
   </si>
   <si>
-    <t>Online Metals 7" Tube</t>
-  </si>
-  <si>
     <t>Propellant combination</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t>Methalox</t>
   </si>
   <si>
-    <t>Kerolox</t>
-  </si>
-  <si>
-    <t>Ethalox</t>
-  </si>
-  <si>
     <t>Chamber pressure (psi)</t>
   </si>
   <si>
@@ -106,16 +91,13 @@
     <t>methane</t>
   </si>
   <si>
-    <t>jet-a</t>
-  </si>
-  <si>
     <t>oxygen</t>
   </si>
   <si>
     <t>Exit pressure (psi)</t>
   </si>
   <si>
-    <t>ethanol</t>
+    <t>CMS COPV</t>
   </si>
 </sst>
 </file>
@@ -520,7 +502,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -535,56 +517,56 @@
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7">
-        <v>100</v>
-      </c>
-      <c r="C2" s="7">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="8">
+        <v>200</v>
+      </c>
+      <c r="C2" s="8">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5.18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7">
-        <v>500</v>
-      </c>
-      <c r="C3" s="7">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="8">
+        <v>200</v>
+      </c>
+      <c r="C3" s="8">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -599,8 +581,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -615,83 +597,53 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2.7</v>
       </c>
       <c r="F2" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,7 +657,9 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -716,18 +670,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>6.625</v>
@@ -737,15 +691,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.125</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
@@ -839,7 +786,9 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -872,43 +821,30 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>9.0128900000000005</v>
       </c>
       <c r="C2" s="3">
-        <v>5000</v>
+        <v>4945</v>
       </c>
       <c r="D2" s="3">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="E2" s="3">
-        <v>20</v>
+        <v>31.9</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6.5</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B395CE-3C00-4A05-8D56-55D2A67E2362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE0FB31-9849-4907-89BE-FB9567B3F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="987" yWindow="4100" windowWidth="19200" windowHeight="11180" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>COPV name</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Outer diameter (in)</t>
   </si>
   <si>
+    <t>COPV 1</t>
+  </si>
+  <si>
+    <t>COPV 2</t>
+  </si>
+  <si>
     <t>Tank wall name</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t>Online Metals 6" Schedule 10 Pipe</t>
   </si>
   <si>
+    <t>Online Metals 7" Tube</t>
+  </si>
+  <si>
     <t>Propellant combination</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>Methalox</t>
   </si>
   <si>
+    <t>Kerolox</t>
+  </si>
+  <si>
+    <t>Ethalox</t>
+  </si>
+  <si>
     <t>Chamber pressure (psi)</t>
   </si>
   <si>
@@ -91,13 +106,16 @@
     <t>methane</t>
   </si>
   <si>
+    <t>ethane</t>
+  </si>
+  <si>
+    <t>jet-a</t>
+  </si>
+  <si>
     <t>oxygen</t>
   </si>
   <si>
     <t>Exit pressure (psi)</t>
-  </si>
-  <si>
-    <t>CMS COPV</t>
   </si>
 </sst>
 </file>
@@ -501,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -517,56 +535,56 @@
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8">
-        <v>200</v>
-      </c>
-      <c r="C2" s="8">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5.18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8">
-        <v>200</v>
-      </c>
-      <c r="C3" s="8">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5.18</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="7">
+        <v>500</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +600,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -597,53 +615,83 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2.7</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
       </c>
       <c r="F2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,9 +705,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -670,18 +716,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>6.625</v>
@@ -691,8 +737,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
@@ -786,9 +839,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -821,30 +872,43 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0128900000000005</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>4945</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="3">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
-        <v>31.9</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE0FB31-9849-4907-89BE-FB9567B3F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
-    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
-    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
+    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
+    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
+    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>COPV name</t>
   </si>
@@ -43,10 +37,7 @@
     <t>Outer diameter (in)</t>
   </si>
   <si>
-    <t>COPV 1</t>
-  </si>
-  <si>
-    <t>COPV 2</t>
+    <t>CMS COPV</t>
   </si>
   <si>
     <t>Tank wall name</t>
@@ -58,12 +49,15 @@
     <t>Online Metals 6" Schedule 10 Pipe</t>
   </si>
   <si>
-    <t>Online Metals 7" Tube</t>
-  </si>
-  <si>
     <t>Propellant combination</t>
   </si>
   <si>
+    <t>Oxidizer</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
     <t>O:F start (mass)</t>
   </si>
   <si>
@@ -76,15 +70,18 @@
     <t>Methalox</t>
   </si>
   <si>
-    <t>Kerolox</t>
-  </si>
-  <si>
-    <t>Ethalox</t>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>methane</t>
   </si>
   <si>
     <t>Chamber pressure (psi)</t>
   </si>
   <si>
+    <t>Exit pressure (psi)</t>
+  </si>
+  <si>
     <t>Thrust-to-Weight ratio</t>
   </si>
   <si>
@@ -95,33 +92,12 @@
   </si>
   <si>
     <t>Step</t>
-  </si>
-  <si>
-    <t>Oxidizer</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>methane</t>
-  </si>
-  <si>
-    <t>ethane</t>
-  </si>
-  <si>
-    <t>jet-a</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>Exit pressure (psi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -175,55 +151,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -234,10 +207,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -275,71 +248,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,7 +340,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -390,11 +363,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -403,13 +376,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -419,7 +392,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -428,7 +401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -445,10 +418,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -513,79 +486,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1171875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5859375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5859375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.41015625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="11"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7">
-        <v>100</v>
-      </c>
-      <c r="C2" s="7">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8">
+        <v>200</v>
+      </c>
+      <c r="C2" s="8">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5.18</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7">
-        <v>500</v>
-      </c>
-      <c r="C3" s="7">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8">
+        <v>300</v>
+      </c>
+      <c r="C3" s="8">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.18</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.01</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -593,105 +567,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1171875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.87890625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2.7</v>
       </c>
       <c r="F2" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.5</v>
-      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -699,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -707,125 +655,139 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>6.625</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C2" s="4">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -841,16 +803,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,45 +833,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6.5</v>
-      </c>
+      <c r="B2" s="4">
+        <v>9.01289</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4945</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -536,7 +536,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8">
         <v>11</v>
@@ -551,7 +551,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="8">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C58A26-4FDD-41EC-876B-984E027933FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="2073" yWindow="4000" windowWidth="19200" windowHeight="11180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
-    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
-    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
-    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
+    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
+    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
+    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
+    <sheet name="Limits" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>COPV name</t>
   </si>
@@ -92,16 +99,25 @@
   </si>
   <si>
     <t>Step</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Height (ft)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +137,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,53 +174,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -207,10 +229,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -248,71 +270,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -340,7 +362,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -363,11 +385,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -376,13 +398,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -392,7 +414,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -401,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,10 +440,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -486,80 +508,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="12" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6.1171875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5859375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.41015625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="11"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="9"/>
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>200</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>11</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>5.18</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>200</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>5.18</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -575,17 +593,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1171875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.87890625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -595,51 +613,45 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>2.7</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>2.7</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -647,22 +659,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -673,121 +687,100 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>6.625</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C2" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -803,17 +796,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,35 +825,72 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
-        <v>9.01289</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
+        <v>9.0128900000000005</v>
+      </c>
+      <c r="C2" s="3">
         <v>4945</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>12.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>31.9</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745E527-C9D9-49DB-AE90-F780F12EF05C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="16.234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C58A26-4FDD-41EC-876B-984E027933FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{44C58A26-4FDD-41EC-876B-984E027933FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F11DA4-E2AF-42A9-AA86-7EF14C38BC22}"/>
   <bookViews>
-    <workbookView xWindow="2073" yWindow="4000" windowWidth="19200" windowHeight="11180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -65,15 +65,6 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>O:F start (mass)</t>
-  </si>
-  <si>
-    <t>O:F stop (mass)</t>
-  </si>
-  <si>
-    <t>O:F step (mass)</t>
-  </si>
-  <si>
     <t>Methalox</t>
   </si>
   <si>
@@ -108,6 +99,15 @@
   </si>
   <si>
     <t>Height (ft)</t>
+  </si>
+  <si>
+    <t>Core O:F start (mass)</t>
+  </si>
+  <si>
+    <t>Core O:F stop (mass)</t>
+  </si>
+  <si>
+    <t>Core O:F step (mass)</t>
   </si>
 </sst>
 </file>
@@ -514,32 +514,34 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.1171875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5859375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.41015625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>200</v>
@@ -551,9 +553,9 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6">
         <v>200</v>
@@ -565,9 +567,9 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6">
         <v>100</v>
@@ -591,19 +593,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1171875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.87890625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -614,24 +618,24 @@
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="6">
         <v>2.7</v>
@@ -643,12 +647,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -669,14 +673,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -698,87 +702,87 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
@@ -796,16 +800,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.41015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -845,7 +849,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -861,32 +865,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745E527-C9D9-49DB-AE90-F780F12EF05C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.234375" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{44C58A26-4FDD-41EC-876B-984E027933FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F11DA4-E2AF-42A9-AA86-7EF14C38BC22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F9B46E-2359-464D-8AF5-61FF4B00667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="11180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>COPV name</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Core O:F step (mass)</t>
+  </si>
+  <si>
+    <t>Thrust (lbf)</t>
   </si>
 </sst>
 </file>
@@ -518,15 +521,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.05859375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.52734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9"/>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -539,7 +542,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -553,7 +556,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -567,7 +570,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -593,21 +596,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.52734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.64453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.29296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -627,7 +630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -647,12 +650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -673,14 +676,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -702,87 +705,87 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
@@ -800,16 +803,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -849,7 +852,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -865,32 +868,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745E527-C9D9-49DB-AE90-F780F12EF05C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2500</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\PSPL_Rocket_4_Sizing\data\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F9B46E-2359-464D-8AF5-61FF4B00667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="11180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
-    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
-    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
-    <sheet name="Limits" sheetId="5" r:id="rId5"/>
+    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
+    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
+    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
+    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
+    <sheet r:id="rId5" sheetId="5" name="Limits"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
+    <t>Thrust (lbf)</t>
+  </si>
+  <si>
+    <t>Height (ft)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
     <t>COPV name</t>
   </si>
   <si>
@@ -65,6 +71,15 @@
     <t>Fuel</t>
   </si>
   <si>
+    <t>Core O:F start (mass)</t>
+  </si>
+  <si>
+    <t>Core O:F stop (mass)</t>
+  </si>
+  <si>
+    <t>Core O:F step (mass)</t>
+  </si>
+  <si>
     <t>Methalox</t>
   </si>
   <si>
@@ -90,33 +105,12 @@
   </si>
   <si>
     <t>Step</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Height (ft)</t>
-  </si>
-  <si>
-    <t>Core O:F start (mass)</t>
-  </si>
-  <si>
-    <t>Core O:F stop (mass)</t>
-  </si>
-  <si>
-    <t>Core O:F step (mass)</t>
-  </si>
-  <si>
-    <t>Thrust (lbf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -137,17 +131,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,51 +169,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,10 +235,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -273,71 +276,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,7 +368,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -388,11 +391,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -401,13 +404,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,7 +420,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -426,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -435,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,10 +446,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -511,78 +514,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.05859375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.52734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="15" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9"/>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11">
         <v>200</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="11">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="11">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11">
         <v>200</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="11">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11">
         <v>100</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,75 +595,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.64453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.29296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
         <v>2.7</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="11">
         <v>2.7</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -666,128 +675,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.05859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
         <v>6.625</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C2" s="8">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -803,61 +831,63 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.29296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>9.0128900000000005</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9.01289</v>
+      </c>
+      <c r="C2" s="8">
         <v>4945</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>12.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>31.9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -865,51 +895,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745E527-C9D9-49DB-AE90-F780F12EF05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.29296875" customWidth="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>2500</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -114,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,12 +126,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -169,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -181,7 +175,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -192,8 +186,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -201,19 +198,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -524,22 +515,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="6.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="14"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1"/>
@@ -548,13 +539,13 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>200</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>11</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>5.18</v>
       </c>
       <c r="E2" s="7"/>
@@ -563,13 +554,13 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>200</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>11</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>5.18</v>
       </c>
       <c r="E3" s="7"/>
@@ -578,13 +569,13 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>100</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="7"/>
@@ -605,9 +596,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="17.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="13" width="18.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
@@ -623,13 +614,13 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -643,13 +634,13 @@
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>2.7</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>2.7</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
     </row>
@@ -657,17 +648,17 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,9 +676,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -833,12 +824,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
@@ -511,7 +511,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C3" s="12">
         <v>11</v>
@@ -570,7 +570,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -892,7 +892,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_43C237E33E762F1388A0889AAFBE2A7C1B3494E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
-    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
-    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
-    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
-    <sheet r:id="rId5" sheetId="5" name="Limits"/>
+    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
+    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
+    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
+    <sheet name="Limits" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -110,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -163,59 +169,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -226,10 +229,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -267,71 +270,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,7 +362,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -382,11 +385,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -395,13 +398,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -411,7 +414,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -420,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -429,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,10 +440,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -505,80 +508,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="14"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12"/>
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>200</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>11</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>5.18</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>300</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>11</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>5.18</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>0.1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -586,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -594,17 +595,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -614,51 +614,45 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>2.7</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>2.7</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -666,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -674,14 +668,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="9" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -692,121 +686,100 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>6.625</v>
       </c>
-      <c r="C2" s="8">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="C2" s="7">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -814,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -822,17 +795,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,33 +824,32 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8">
-        <v>9.01289</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="7">
+        <v>9.0128900000000005</v>
+      </c>
+      <c r="C2" s="7">
         <v>4945</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>12.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>31.9</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,22 +857,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -910,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -921,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_43C237E33E762F1388A0889AAFBE2A7C1B3494E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Propellant Combinations" sheetId="2" r:id="rId2"/>
-    <sheet name="Tank Walls" sheetId="3" r:id="rId3"/>
-    <sheet name="COPVs" sheetId="4" r:id="rId4"/>
-    <sheet name="Limits" sheetId="5" r:id="rId5"/>
+    <sheet r:id="rId1" sheetId="1" name="Continuous Inputs"/>
+    <sheet r:id="rId2" sheetId="2" name="Propellant Combinations"/>
+    <sheet r:id="rId3" sheetId="3" name="Tank Walls"/>
+    <sheet r:id="rId4" sheetId="4" name="COPVs"/>
+    <sheet r:id="rId5" sheetId="5" name="Limits"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -116,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -169,56 +163,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -229,10 +226,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -270,71 +267,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,7 +359,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -385,11 +382,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -398,13 +395,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -414,7 +411,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -423,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -432,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -440,10 +437,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -508,78 +505,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12"/>
-      <c r="B1" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="14"/>
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="12">
         <v>200</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>11</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="12">
         <v>300</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="12">
         <v>11</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -595,16 +594,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -614,45 +614,51 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>2.7</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>2.7</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -668,14 +674,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -686,100 +692,121 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>6.625</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="C2" s="8">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -787,7 +814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -795,16 +822,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,32 +852,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
-        <v>9.0128900000000005</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="8">
+        <v>9.01289</v>
+      </c>
+      <c r="C2" s="8">
         <v>4945</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>12.5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>31.9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -857,24 +886,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -883,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -894,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Thrust (lbf)</t>
   </si>
@@ -137,13 +137,13 @@
     <t>Core O:F step (mass)</t>
   </si>
   <si>
-    <t>Methalox</t>
+    <t>Ethalox</t>
   </si>
   <si>
     <t>oxygen</t>
   </si>
   <si>
-    <t>methane</t>
+    <t>ethanol</t>
   </si>
   <si>
     <t>Chamber pressure (psi)</t>
@@ -163,6 +163,9 @@
   <si>
     <t>Step</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -240,8 +249,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -643,175 +652,177 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7670,10 +7681,10 @@
         <v>41</v>
       </c>
       <c r="D2" s="5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
         <v>0.1</v>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Propulsion\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745735D5-6F55-4EBA-A137-4E96892277F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6B755-2B72-4B10-B71A-3C168DE14A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_833B7F5E8EAB49EC0F7FCFFE2BC93964CA0BE476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DC4734-5CB2-4E43-B0EA-821A68391488}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_833B7F5E8EAB49EC0F7FCFFE2BC93964CA0BE476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209E45CE-7DF2-4762-9220-72B6FD947F0F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27195,7 +27195,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ab8326e43f711ef/Documents/GitHub/PSPL_Rocket_4_Sizing/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_833B7F5E8EAB49EC0F7FCFFE2BC93964CA0BE476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209E45CE-7DF2-4762-9220-72B6FD947F0F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_833B7F5E8EAB49EC0F7FCFFE2BC93964CA0BE476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F702C3D8-0C90-4525-9D9F-0422FBE9E991}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -19644,7 +19644,9 @@
   </sheetPr>
   <dimension ref="A1:F938"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19683,16 +19685,16 @@
         <v>18.100000000000001</v>
       </c>
       <c r="C2" s="14">
-        <v>4931.28</v>
+        <v>4935</v>
       </c>
       <c r="D2" s="14">
-        <v>15.83</v>
+        <v>22.5</v>
       </c>
       <c r="E2" s="14">
-        <v>8.11</v>
+        <v>31.3</v>
       </c>
       <c r="F2" s="14">
-        <v>8.11</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caleb\Documents\Coding\GitHub\PSPL_Rocket_4_Sizing\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Propulsion\PSPL_Rocket_4_Sizing\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D1BDB-C170-4384-8A80-87B7D96A30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646FC7F5-3225-4D0C-9B48-75224D82FA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuous Inputs" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,22 +611,22 @@
         <v>35</v>
       </c>
       <c r="B2" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C2" s="7">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E2" s="13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F2" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="15">
-        <v>2.5000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="7">
         <v>3</v>
@@ -637,25 +637,25 @@
         <v>36</v>
       </c>
       <c r="B3" s="7">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C3" s="7">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7">
         <v>5.5</v>
       </c>
       <c r="E3" s="7">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="15">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="H3" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -663,22 +663,22 @@
         <v>37</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G4" s="13">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7668,7 +7668,9 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7710,13 +7712,13 @@
         <v>28</v>
       </c>
       <c r="D2" s="7">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E2" s="7">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -249,8 +255,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>

--- a/data/inputs/rocket_defining_inputs.xlsx
+++ b/data/inputs/rocket_defining_inputs.xlsx
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,12 +165,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -202,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,14 +249,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,11 +564,11 @@
     <col min="2" max="2" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="27.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -615,7 +603,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="7">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="7">
         <v>14.7</v>
@@ -636,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="7">
-        <v>300</v>
+        <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -644,7 +632,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="7">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="7">
         <v>14.7</v>
@@ -665,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="7">
-        <v>500</v>
+        <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -706,7 +694,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="9"/>
@@ -717,7 +705,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="15"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="9"/>
@@ -728,7 +716,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="9"/>
@@ -739,7 +727,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9"/>
@@ -750,7 +738,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="15"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="9"/>
@@ -761,7 +749,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="15"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="9"/>
@@ -772,7 +760,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="15"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="9"/>
@@ -783,7 +771,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="9"/>
@@ -794,7 +782,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="15"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="9"/>
@@ -805,7 +793,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="15"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="9"/>
@@ -816,7 +804,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="9"/>
@@ -827,7 +815,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="15"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="9"/>
@@ -838,7 +826,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="15"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="9"/>
@@ -849,7 +837,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="15"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="9"/>
@@ -860,7 +848,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="15"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="9"/>
@@ -871,7 +859,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="15"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="9"/>
@@ -882,7 +870,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="15"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="9"/>
@@ -893,7 +881,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="15"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="9"/>
@@ -904,7 +892,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="15"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="9"/>
@@ -915,7 +903,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="15"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="9"/>
@@ -926,7 +914,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="15"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="9"/>
@@ -937,7 +925,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="15"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="9"/>
@@ -948,7 +936,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="15"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="9"/>
@@ -959,7 +947,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="15"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="9"/>
@@ -970,7 +958,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="15"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
       <c r="A30" s="9"/>
@@ -981,7 +969,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="15"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
       <c r="A31" s="9"/>
@@ -992,7 +980,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="15"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="18"/>
+      <c r="I31" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
       <c r="A32" s="9"/>
@@ -1003,7 +991,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="15"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="18"/>
+      <c r="I32" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
       <c r="A33" s="9"/>
@@ -1014,7 +1002,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="15"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
       <c r="A34" s="9"/>
@@ -1025,7 +1013,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="15"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
       <c r="A35" s="9"/>
@@ -1036,7 +1024,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="15"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="18"/>
+      <c r="I35" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
       <c r="A36" s="9"/>
@@ -1047,7 +1035,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="15"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
       <c r="A37" s="9"/>
@@ -1058,7 +1046,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="15"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
       <c r="A38" s="9"/>
@@ -1069,7 +1057,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="15"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
       <c r="A39" s="9"/>
@@ -1080,7 +1068,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="15"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
       <c r="A40" s="9"/>
@@ -1091,7 +1079,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="15"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
       <c r="A41" s="9"/>
@@ -1102,7 +1090,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="15"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
       <c r="A42" s="9"/>
@@ -1113,7 +1101,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="15"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
       <c r="A43" s="9"/>
@@ -1124,7 +1112,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="15"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="9"/>
@@ -1135,7 +1123,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="15"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="18"/>
+      <c r="I44" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
       <c r="A45" s="9"/>
@@ -1146,7 +1134,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="15"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="18"/>
+      <c r="I45" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
       <c r="A46" s="9"/>
@@ -1157,7 +1145,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="15"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="18"/>
+      <c r="I46" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="9"/>
@@ -1168,7 +1156,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="15"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
       <c r="A48" s="9"/>
@@ -1179,7 +1167,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="15"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="9"/>
@@ -1190,7 +1178,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="18"/>
+      <c r="I49" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
       <c r="A50" s="9"/>
@@ -1201,7 +1189,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="18"/>
+      <c r="I50" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
       <c r="A51" s="9"/>
@@ -1212,7 +1200,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="15"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="18"/>
+      <c r="I51" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
       <c r="A52" s="9"/>
@@ -1223,7 +1211,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="15"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="18"/>
+      <c r="I52" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
       <c r="A53" s="9"/>
@@ -1234,7 +1222,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
       <c r="A54" s="9"/>
@@ -1245,7 +1233,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="15"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
       <c r="A55" s="9"/>
@@ -1256,7 +1244,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="15"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
       <c r="A56" s="9"/>
@@ -1267,7 +1255,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="15"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="18"/>
+      <c r="I56" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
       <c r="A57" s="9"/>
@@ -1278,7 +1266,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="15"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="18"/>
+      <c r="I57" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
       <c r="A58" s="9"/>
@@ -1289,7 +1277,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="18"/>
+      <c r="I58" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
       <c r="A59" s="9"/>
@@ -1300,7 +1288,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="15"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="18"/>
+      <c r="I59" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
       <c r="A60" s="9"/>
@@ -1311,7 +1299,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="15"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="18"/>
+      <c r="I60" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
       <c r="A61" s="9"/>
@@ -1322,7 +1310,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="15"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="18"/>
+      <c r="I61" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
       <c r="A62" s="9"/>
@@ -1333,7 +1321,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="15"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="18"/>
+      <c r="I62" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
       <c r="A63" s="9"/>
@@ -1344,7 +1332,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="18"/>
+      <c r="I63" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
       <c r="A64" s="9"/>
@@ -1355,7 +1343,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="15"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
       <c r="A65" s="9"/>
@@ -1366,7 +1354,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="18"/>
+      <c r="I65" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
       <c r="A66" s="9"/>
@@ -1377,7 +1365,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="15"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
       <c r="A67" s="9"/>
@@ -1388,7 +1376,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="15"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="18"/>
+      <c r="I67" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
       <c r="A68" s="9"/>
@@ -1399,7 +1387,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="18"/>
+      <c r="I68" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
       <c r="A69" s="9"/>
@@ -1410,7 +1398,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="15"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="18"/>
+      <c r="I69" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
       <c r="A70" s="9"/>
@@ -1421,7 +1409,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="15"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="18"/>
+      <c r="I70" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75">
       <c r="A71" s="9"/>
@@ -1432,7 +1420,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="18"/>
+      <c r="I71" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75">
       <c r="A72" s="9"/>
@@ -1443,7 +1431,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="18"/>
+      <c r="I72" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75">
       <c r="A73" s="9"/>
@@ -1454,7 +1442,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="18"/>
+      <c r="I73" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75">
       <c r="A74" s="9"/>
@@ -1465,7 +1453,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="15"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="18"/>
+      <c r="I74" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75">
       <c r="A75" s="9"/>
@@ -1476,7 +1464,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="18"/>
+      <c r="I75" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75">
       <c r="A76" s="9"/>
@@ -1487,7 +1475,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="15"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="18"/>
+      <c r="I76" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75">
       <c r="A77" s="9"/>
@@ -1498,7 +1486,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="15"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="18"/>
+      <c r="I77" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75">
       <c r="A78" s="9"/>
@@ -1509,7 +1497,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="15"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="18"/>
+      <c r="I78" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75">
       <c r="A79" s="9"/>
@@ -1520,7 +1508,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="18"/>
+      <c r="I79" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75">
       <c r="A80" s="9"/>
@@ -1531,7 +1519,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="15"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="18"/>
+      <c r="I80" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75">
       <c r="A81" s="9"/>
@@ -1542,7 +1530,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="18"/>
+      <c r="I81" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
       <c r="A82" s="9"/>
@@ -1553,7 +1541,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="15"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
       <c r="A83" s="9"/>
@@ -1564,7 +1552,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="15"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="18"/>
+      <c r="I83" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
       <c r="A84" s="9"/>
@@ -1575,7 +1563,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="18"/>
+      <c r="I84" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75">
       <c r="A85" s="9"/>
@@ -1586,7 +1574,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="18"/>
+      <c r="I85" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
       <c r="A86" s="9"/>
@@ -1597,7 +1585,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="15"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="18"/>
+      <c r="I86" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75">
       <c r="A87" s="9"/>
@@ -1608,7 +1596,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="15"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="18"/>
+      <c r="I87" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
       <c r="A88" s="9"/>
@@ -1619,7 +1607,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="18"/>
+      <c r="I88" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
       <c r="A89" s="9"/>
@@ -1630,7 +1618,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="15"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="18"/>
+      <c r="I89" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
       <c r="A90" s="9"/>
@@ -1641,7 +1629,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="18"/>
+      <c r="I90" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
       <c r="A91" s="9"/>
@@ -1652,7 +1640,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="18"/>
+      <c r="I91" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
       <c r="A92" s="9"/>
@@ -1663,7 +1651,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="15"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="18"/>
+      <c r="I92" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
       <c r="A93" s="9"/>
@@ -1674,7 +1662,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="15"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="18"/>
+      <c r="I93" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
       <c r="A94" s="9"/>
@@ -1685,7 +1673,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="18"/>
+      <c r="I94" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75">
       <c r="A95" s="9"/>
@@ -1696,7 +1684,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="18"/>
+      <c r="I95" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75">
       <c r="A96" s="9"/>
@@ -1707,7 +1695,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="15"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="18"/>
+      <c r="I96" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75">
       <c r="A97" s="9"/>
@@ -1718,7 +1706,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="15"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="18"/>
+      <c r="I97" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75">
       <c r="A98" s="9"/>
@@ -1729,7 +1717,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="18"/>
+      <c r="I98" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75">
       <c r="A99" s="9"/>
@@ -1740,7 +1728,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="15"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="18"/>
+      <c r="I99" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75">
       <c r="A100" s="9"/>
@@ -1751,7 +1739,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="15"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="18"/>
+      <c r="I100" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75">
       <c r="A101" s="9"/>
@@ -1762,7 +1750,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="18"/>
+      <c r="I101" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75">
       <c r="A102" s="9"/>
@@ -1773,7 +1761,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="18"/>
+      <c r="I102" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75">
       <c r="A103" s="9"/>
@@ -1784,7 +1772,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="15"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="18"/>
+      <c r="I103" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75">
       <c r="A104" s="9"/>
@@ -1795,7 +1783,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="18"/>
+      <c r="I104" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75">
       <c r="A105" s="9"/>
@@ -1806,7 +1794,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="15"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="18"/>
+      <c r="I105" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75">
       <c r="A106" s="9"/>
@@ -1817,7 +1805,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="18"/>
+      <c r="I106" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75">
       <c r="A107" s="9"/>
@@ -1828,7 +1816,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="18"/>
+      <c r="I107" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75">
       <c r="A108" s="9"/>
@@ -1839,7 +1827,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="15"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="18"/>
+      <c r="I108" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75">
       <c r="A109" s="9"/>
@@ -1850,7 +1838,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="15"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="18"/>
+      <c r="I109" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75">
       <c r="A110" s="9"/>
@@ -1861,7 +1849,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="18"/>
+      <c r="I110" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75">
       <c r="A111" s="9"/>
@@ -1872,7 +1860,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="15"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="18"/>
+      <c r="I111" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75">
       <c r="A112" s="9"/>
@@ -1883,7 +1871,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="15"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="18"/>
+      <c r="I112" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75">
       <c r="A113" s="9"/>
@@ -1894,7 +1882,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="18"/>
+      <c r="I113" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75">
       <c r="A114" s="9"/>
@@ -1905,7 +1893,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="15"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="18"/>
+      <c r="I114" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75">
       <c r="A115" s="9"/>
@@ -1916,7 +1904,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="15"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="18"/>
+      <c r="I115" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75">
       <c r="A116" s="9"/>
@@ -1927,7 +1915,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="15"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="18"/>
+      <c r="I116" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75">
       <c r="A117" s="9"/>
@@ -1938,7 +1926,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="15"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="18"/>
+      <c r="I117" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15.75">
       <c r="A118" s="9"/>
@@ -1949,7 +1937,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="15"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="18"/>
+      <c r="I118" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75">
       <c r="A119" s="9"/>
@@ -1960,7 +1948,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="15"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="18"/>
+      <c r="I119" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75">
       <c r="A120" s="9"/>
@@ -1971,7 +1959,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="15"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="18"/>
+      <c r="I120" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="15.75">
       <c r="A121" s="9"/>
@@ -1982,7 +1970,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="15"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="18"/>
+      <c r="I121" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="15.75">
       <c r="A122" s="9"/>
@@ -1993,7 +1981,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="15"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="18"/>
+      <c r="I122" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="15.75">
       <c r="A123" s="9"/>
@@ -2004,7 +1992,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="15"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="18"/>
+      <c r="I123" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75">
       <c r="A124" s="9"/>
@@ -2015,7 +2003,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="15"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="18"/>
+      <c r="I124" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="15.75">
       <c r="A125" s="9"/>
@@ -2026,7 +2014,7 @@
       <c r="F125" s="7"/>
       <c r="G125" s="15"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="18"/>
+      <c r="I125" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75">
       <c r="A126" s="9"/>
@@ -2037,7 +2025,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="15"/>
       <c r="H126" s="7"/>
-      <c r="I126" s="18"/>
+      <c r="I126" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15.75">
       <c r="A127" s="9"/>
@@ -2048,7 +2036,7 @@
       <c r="F127" s="7"/>
       <c r="G127" s="15"/>
       <c r="H127" s="7"/>
-      <c r="I127" s="18"/>
+      <c r="I127" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15.75">
       <c r="A128" s="9"/>
@@ -2059,7 +2047,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="15"/>
       <c r="H128" s="7"/>
-      <c r="I128" s="18"/>
+      <c r="I128" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="15.75">
       <c r="A129" s="9"/>
@@ -2070,7 +2058,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="15"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="18"/>
+      <c r="I129" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="15.75">
       <c r="A130" s="9"/>
@@ -2081,7 +2069,7 @@
       <c r="F130" s="7"/>
       <c r="G130" s="15"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="18"/>
+      <c r="I130" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75">
       <c r="A131" s="9"/>
@@ -2092,7 +2080,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="15"/>
       <c r="H131" s="7"/>
-      <c r="I131" s="18"/>
+      <c r="I131" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75">
       <c r="A132" s="9"/>
@@ -2103,7 +2091,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="15"/>
       <c r="H132" s="7"/>
-      <c r="I132" s="18"/>
+      <c r="I132" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75">
       <c r="A133" s="9"/>
@@ -2114,7 +2102,7 @@
       <c r="F133" s="7"/>
       <c r="G133" s="15"/>
       <c r="H133" s="7"/>
-      <c r="I133" s="18"/>
+      <c r="I133" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75">
       <c r="A134" s="9"/>
@@ -2125,7 +2113,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="15"/>
       <c r="H134" s="7"/>
-      <c r="I134" s="18"/>
+      <c r="I134" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75">
       <c r="A135" s="9"/>
@@ -2136,7 +2124,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="15"/>
       <c r="H135" s="7"/>
-      <c r="I135" s="18"/>
+      <c r="I135" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75">
       <c r="A136" s="9"/>
@@ -2147,7 +2135,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="15"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="18"/>
+      <c r="I136" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75">
       <c r="A137" s="9"/>
@@ -2158,7 +2146,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="15"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="18"/>
+      <c r="I137" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75">
       <c r="A138" s="9"/>
@@ -2169,7 +2157,7 @@
       <c r="F138" s="7"/>
       <c r="G138" s="15"/>
       <c r="H138" s="7"/>
-      <c r="I138" s="18"/>
+      <c r="I138" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75">
       <c r="A139" s="9"/>
@@ -2180,7 +2168,7 @@
       <c r="F139" s="7"/>
       <c r="G139" s="15"/>
       <c r="H139" s="7"/>
-      <c r="I139" s="18"/>
+      <c r="I139" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75">
       <c r="A140" s="9"/>
@@ -2191,7 +2179,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="15"/>
       <c r="H140" s="7"/>
-      <c r="I140" s="18"/>
+      <c r="I140" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75">
       <c r="A141" s="9"/>
@@ -2202,7 +2190,7 @@
       <c r="F141" s="7"/>
       <c r="G141" s="15"/>
       <c r="H141" s="7"/>
-      <c r="I141" s="18"/>
+      <c r="I141" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75">
       <c r="A142" s="9"/>
@@ -2213,7 +2201,7 @@
       <c r="F142" s="7"/>
       <c r="G142" s="15"/>
       <c r="H142" s="7"/>
-      <c r="I142" s="18"/>
+      <c r="I142" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75">
       <c r="A143" s="9"/>
@@ -2224,7 +2212,7 @@
       <c r="F143" s="7"/>
       <c r="G143" s="15"/>
       <c r="H143" s="7"/>
-      <c r="I143" s="18"/>
+      <c r="I143" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75">
       <c r="A144" s="9"/>
@@ -2235,7 +2223,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="15"/>
       <c r="H144" s="7"/>
-      <c r="I144" s="18"/>
+      <c r="I144" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75">
       <c r="A145" s="9"/>
@@ -2246,7 +2234,7 @@
       <c r="F145" s="7"/>
       <c r="G145" s="15"/>
       <c r="H145" s="7"/>
-      <c r="I145" s="18"/>
+      <c r="I145" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75">
       <c r="A146" s="9"/>
@@ -2257,7 +2245,7 @@
       <c r="F146" s="7"/>
       <c r="G146" s="15"/>
       <c r="H146" s="7"/>
-      <c r="I146" s="18"/>
+      <c r="I146" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75">
       <c r="A147" s="9"/>
@@ -2268,7 +2256,7 @@
       <c r="F147" s="7"/>
       <c r="G147" s="15"/>
       <c r="H147" s="7"/>
-      <c r="I147" s="18"/>
+      <c r="I147" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75">
       <c r="A148" s="9"/>
@@ -2279,7 +2267,7 @@
       <c r="F148" s="7"/>
       <c r="G148" s="15"/>
       <c r="H148" s="7"/>
-      <c r="I148" s="18"/>
+      <c r="I148" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75">
       <c r="A149" s="9"/>
@@ -2290,7 +2278,7 @@
       <c r="F149" s="7"/>
       <c r="G149" s="15"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="18"/>
+      <c r="I149" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75">
       <c r="A150" s="9"/>
@@ -2301,7 +2289,7 @@
       <c r="F150" s="7"/>
       <c r="G150" s="15"/>
       <c r="H150" s="7"/>
-      <c r="I150" s="18"/>
+      <c r="I150" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75">
       <c r="A151" s="9"/>
@@ -2312,7 +2300,7 @@
       <c r="F151" s="7"/>
       <c r="G151" s="15"/>
       <c r="H151" s="7"/>
-      <c r="I151" s="18"/>
+      <c r="I151" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75">
       <c r="A152" s="9"/>
@@ -2323,7 +2311,7 @@
       <c r="F152" s="7"/>
       <c r="G152" s="15"/>
       <c r="H152" s="7"/>
-      <c r="I152" s="18"/>
+      <c r="I152" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75">
       <c r="A153" s="9"/>
@@ -2334,7 +2322,7 @@
       <c r="F153" s="7"/>
       <c r="G153" s="15"/>
       <c r="H153" s="7"/>
-      <c r="I153" s="18"/>
+      <c r="I153" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75">
       <c r="A154" s="9"/>
@@ -2345,7 +2333,7 @@
       <c r="F154" s="7"/>
       <c r="G154" s="15"/>
       <c r="H154" s="7"/>
-      <c r="I154" s="18"/>
+      <c r="I154" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75">
       <c r="A155" s="9"/>
@@ -2356,7 +2344,7 @@
       <c r="F155" s="7"/>
       <c r="G155" s="15"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="18"/>
+      <c r="I155" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15.75">
       <c r="A156" s="9"/>
@@ -2367,7 +2355,7 @@
       <c r="F156" s="7"/>
       <c r="G156" s="15"/>
       <c r="H156" s="7"/>
-      <c r="I156" s="18"/>
+      <c r="I156" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75">
       <c r="A157" s="9"/>
@@ -2378,7 +2366,7 @@
       <c r="F157" s="7"/>
       <c r="G157" s="15"/>
       <c r="H157" s="7"/>
-      <c r="I157" s="18"/>
+      <c r="I157" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15.75">
       <c r="A158" s="9"/>
@@ -2389,7 +2377,7 @@
       <c r="F158" s="7"/>
       <c r="G158" s="15"/>
       <c r="H158" s="7"/>
-      <c r="I158" s="18"/>
+      <c r="I158" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75">
       <c r="A159" s="9"/>
@@ -2400,7 +2388,7 @@
       <c r="F159" s="7"/>
       <c r="G159" s="15"/>
       <c r="H159" s="7"/>
-      <c r="I159" s="18"/>
+      <c r="I159" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75">
       <c r="A160" s="9"/>
@@ -2411,7 +2399,7 @@
       <c r="F160" s="7"/>
       <c r="G160" s="15"/>
       <c r="H160" s="7"/>
-      <c r="I160" s="18"/>
+      <c r="I160" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15.75">
       <c r="A161" s="9"/>
@@ -2422,7 +2410,7 @@
       <c r="F161" s="7"/>
       <c r="G161" s="15"/>
       <c r="H161" s="7"/>
-      <c r="I161" s="18"/>
+      <c r="I161" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15.75">
       <c r="A162" s="9"/>
@@ -2433,7 +2421,7 @@
       <c r="F162" s="7"/>
       <c r="G162" s="15"/>
       <c r="H162" s="7"/>
-      <c r="I162" s="18"/>
+      <c r="I162" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15.75">
       <c r="A163" s="9"/>
@@ -2444,7 +2432,7 @@
       <c r="F163" s="7"/>
       <c r="G163" s="15"/>
       <c r="H163" s="7"/>
-      <c r="I163" s="18"/>
+      <c r="I163" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15.75">
       <c r="A164" s="9"/>
@@ -2455,7 +2443,7 @@
       <c r="F164" s="7"/>
       <c r="G164" s="15"/>
       <c r="H164" s="7"/>
-      <c r="I164" s="18"/>
+      <c r="I164" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15.75">
       <c r="A165" s="9"/>
@@ -2466,7 +2454,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="15"/>
       <c r="H165" s="7"/>
-      <c r="I165" s="18"/>
+      <c r="I165" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15.75">
       <c r="A166" s="9"/>
@@ -2477,7 +2465,7 @@
       <c r="F166" s="7"/>
       <c r="G166" s="15"/>
       <c r="H166" s="7"/>
-      <c r="I166" s="18"/>
+      <c r="I166" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15.75">
       <c r="A167" s="9"/>
@@ -2488,7 +2476,7 @@
       <c r="F167" s="7"/>
       <c r="G167" s="15"/>
       <c r="H167" s="7"/>
-      <c r="I167" s="18"/>
+      <c r="I167" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15.75">
       <c r="A168" s="9"/>
@@ -2499,7 +2487,7 @@
       <c r="F168" s="7"/>
       <c r="G168" s="15"/>
       <c r="H168" s="7"/>
-      <c r="I168" s="18"/>
+      <c r="I168" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15.75">
       <c r="A169" s="9"/>
@@ -2510,7 +2498,7 @@
       <c r="F169" s="7"/>
       <c r="G169" s="15"/>
       <c r="H169" s="7"/>
-      <c r="I169" s="18"/>
+      <c r="I169" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15.75">
       <c r="A170" s="9"/>
@@ -2521,7 +2509,7 @@
       <c r="F170" s="7"/>
       <c r="G170" s="15"/>
       <c r="H170" s="7"/>
-      <c r="I170" s="18"/>
+      <c r="I170" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75">
       <c r="A171" s="9"/>
@@ -2532,7 +2520,7 @@
       <c r="F171" s="7"/>
       <c r="G171" s="15"/>
       <c r="H171" s="7"/>
-      <c r="I171" s="18"/>
+      <c r="I171" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75">
       <c r="A172" s="9"/>
@@ -2543,7 +2531,7 @@
       <c r="F172" s="7"/>
       <c r="G172" s="15"/>
       <c r="H172" s="7"/>
-      <c r="I172" s="18"/>
+      <c r="I172" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75">
       <c r="A173" s="9"/>
@@ -2554,7 +2542,7 @@
       <c r="F173" s="7"/>
       <c r="G173" s="15"/>
       <c r="H173" s="7"/>
-      <c r="I173" s="18"/>
+      <c r="I173" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75">
       <c r="A174" s="9"/>
@@ -2565,7 +2553,7 @@
       <c r="F174" s="7"/>
       <c r="G174" s="15"/>
       <c r="H174" s="7"/>
-      <c r="I174" s="18"/>
+      <c r="I174" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75">
       <c r="A175" s="9"/>
@@ -2576,7 +2564,7 @@
       <c r="F175" s="7"/>
       <c r="G175" s="15"/>
       <c r="H175" s="7"/>
-      <c r="I175" s="18"/>
+      <c r="I175" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75">
       <c r="A176" s="9"/>
@@ -2587,7 +2575,7 @@
       <c r="F176" s="7"/>
       <c r="G176" s="15"/>
       <c r="H176" s="7"/>
-      <c r="I176" s="18"/>
+      <c r="I176" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75">
       <c r="A177" s="9"/>
@@ -2598,7 +2586,7 @@
       <c r="F177" s="7"/>
       <c r="G177" s="15"/>
       <c r="H177" s="7"/>
-      <c r="I177" s="18"/>
+      <c r="I177" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75">
       <c r="A178" s="9"/>
@@ -2609,7 +2597,7 @@
       <c r="F178" s="7"/>
       <c r="G178" s="15"/>
       <c r="H178" s="7"/>
-      <c r="I178" s="18"/>
+      <c r="I178" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75">
       <c r="A179" s="9"/>
@@ -2620,7 +2608,7 @@
       <c r="F179" s="7"/>
       <c r="G179" s="15"/>
       <c r="H179" s="7"/>
-      <c r="I179" s="18"/>
+      <c r="I179" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="15.75">
       <c r="A180" s="9"/>
@@ -2631,7 +2619,7 @@
       <c r="F180" s="7"/>
       <c r="G180" s="15"/>
       <c r="H180" s="7"/>
-      <c r="I180" s="18"/>
+      <c r="I180" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15.75">
       <c r="A181" s="9"/>
@@ -2642,7 +2630,7 @@
       <c r="F181" s="7"/>
       <c r="G181" s="15"/>
       <c r="H181" s="7"/>
-      <c r="I181" s="18"/>
+      <c r="I181" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15.75">
       <c r="A182" s="9"/>
@@ -2653,7 +2641,7 @@
       <c r="F182" s="7"/>
       <c r="G182" s="15"/>
       <c r="H182" s="7"/>
-      <c r="I182" s="18"/>
+      <c r="I182" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="15.75">
       <c r="A183" s="9"/>
@@ -2664,7 +2652,7 @@
       <c r="F183" s="7"/>
       <c r="G183" s="15"/>
       <c r="H183" s="7"/>
-      <c r="I183" s="18"/>
+      <c r="I183" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75">
       <c r="A184" s="9"/>
@@ -2675,7 +2663,7 @@
       <c r="F184" s="7"/>
       <c r="G184" s="15"/>
       <c r="H184" s="7"/>
-      <c r="I184" s="18"/>
+      <c r="I184" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75">
       <c r="A185" s="9"/>
@@ -2686,7 +2674,7 @@
       <c r="F185" s="7"/>
       <c r="G185" s="15"/>
       <c r="H185" s="7"/>
-      <c r="I185" s="18"/>
+      <c r="I185" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75">
       <c r="A186" s="9"/>
@@ -2697,7 +2685,7 @@
       <c r="F186" s="7"/>
       <c r="G186" s="15"/>
       <c r="H186" s="7"/>
-      <c r="I186" s="18"/>
+      <c r="I186" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="15.75">
       <c r="A187" s="9"/>
@@ -2708,7 +2696,7 @@
       <c r="F187" s="7"/>
       <c r="G187" s="15"/>
       <c r="H187" s="7"/>
-      <c r="I187" s="18"/>
+      <c r="I187" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="15.75">
       <c r="A188" s="9"/>
@@ -2719,7 +2707,7 @@
       <c r="F188" s="7"/>
       <c r="G188" s="15"/>
       <c r="H188" s="7"/>
-      <c r="I188" s="18"/>
+      <c r="I188" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75">
       <c r="A189" s="9"/>
@@ -2730,7 +2718,7 @@
       <c r="F189" s="7"/>
       <c r="G189" s="15"/>
       <c r="H189" s="7"/>
-      <c r="I189" s="18"/>
+      <c r="I189" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75">
       <c r="A190" s="9"/>
@@ -2741,7 +2729,7 @@
       <c r="F190" s="7"/>
       <c r="G190" s="15"/>
       <c r="H190" s="7"/>
-      <c r="I190" s="18"/>
+      <c r="I190" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="15.75">
       <c r="A191" s="9"/>
@@ -2752,7 +2740,7 @@
       <c r="F191" s="7"/>
       <c r="G191" s="15"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="18"/>
+      <c r="I191" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="15.75">
       <c r="A192" s="9"/>
@@ -2763,7 +2751,7 @@
       <c r="F192" s="7"/>
       <c r="G192" s="15"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="18"/>
+      <c r="I192" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="15.75">
       <c r="A193" s="9"/>
@@ -2774,7 +2762,7 @@
       <c r="F193" s="7"/>
       <c r="G193" s="15"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="18"/>
+      <c r="I193" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="15.75">
       <c r="A194" s="9"/>
@@ -2785,7 +2773,7 @@
       <c r="F194" s="7"/>
       <c r="G194" s="15"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="18"/>
+      <c r="I194" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75">
       <c r="A195" s="9"/>
@@ -2796,7 +2784,7 @@
       <c r="F195" s="7"/>
       <c r="G195" s="15"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="18"/>
+      <c r="I195" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75">
       <c r="A196" s="9"/>
@@ -2807,7 +2795,7 @@
       <c r="F196" s="7"/>
       <c r="G196" s="15"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="18"/>
+      <c r="I196" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75">
       <c r="A197" s="9"/>
@@ -2818,7 +2806,7 @@
       <c r="F197" s="7"/>
       <c r="G197" s="15"/>
       <c r="H197" s="7"/>
-      <c r="I197" s="18"/>
+      <c r="I197" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75">
       <c r="A198" s="9"/>
@@ -2829,7 +2817,7 @@
       <c r="F198" s="7"/>
       <c r="G198" s="15"/>
       <c r="H198" s="7"/>
-      <c r="I198" s="18"/>
+      <c r="I198" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="15.75">
       <c r="A199" s="9"/>
@@ -2840,7 +2828,7 @@
       <c r="F199" s="7"/>
       <c r="G199" s="15"/>
       <c r="H199" s="7"/>
-      <c r="I199" s="18"/>
+      <c r="I199" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75">
       <c r="A200" s="9"/>
@@ -2851,7 +2839,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="15"/>
       <c r="H200" s="7"/>
-      <c r="I200" s="18"/>
+      <c r="I200" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75">
       <c r="A201" s="9"/>
@@ -2862,7 +2850,7 @@
       <c r="F201" s="7"/>
       <c r="G201" s="15"/>
       <c r="H201" s="7"/>
-      <c r="I201" s="18"/>
+      <c r="I201" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75">
       <c r="A202" s="9"/>
@@ -2873,7 +2861,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="15"/>
       <c r="H202" s="7"/>
-      <c r="I202" s="18"/>
+      <c r="I202" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75">
       <c r="A203" s="9"/>
@@ -2884,7 +2872,7 @@
       <c r="F203" s="7"/>
       <c r="G203" s="15"/>
       <c r="H203" s="7"/>
-      <c r="I203" s="18"/>
+      <c r="I203" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75">
       <c r="A204" s="9"/>
@@ -2895,7 +2883,7 @@
       <c r="F204" s="7"/>
       <c r="G204" s="15"/>
       <c r="H204" s="7"/>
-      <c r="I204" s="18"/>
+      <c r="I204" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="15.75">
       <c r="A205" s="9"/>
@@ -2906,7 +2894,7 @@
       <c r="F205" s="7"/>
       <c r="G205" s="15"/>
       <c r="H205" s="7"/>
-      <c r="I205" s="18"/>
+      <c r="I205" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="15.75">
       <c r="A206" s="9"/>
@@ -2917,7 +2905,7 @@
       <c r="F206" s="7"/>
       <c r="G206" s="15"/>
       <c r="H206" s="7"/>
-      <c r="I206" s="18"/>
+      <c r="I206" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="15.75">
       <c r="A207" s="9"/>
@@ -2928,7 +2916,7 @@
       <c r="F207" s="7"/>
       <c r="G207" s="15"/>
       <c r="H207" s="7"/>
-      <c r="I207" s="18"/>
+      <c r="I207" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="15.75">
       <c r="A208" s="9"/>
@@ -2939,7 +2927,7 @@
       <c r="F208" s="7"/>
       <c r="G208" s="15"/>
       <c r="H208" s="7"/>
-      <c r="I208" s="18"/>
+      <c r="I208" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="15.75">
       <c r="A209" s="9"/>
@@ -2950,7 +2938,7 @@
       <c r="F209" s="7"/>
       <c r="G209" s="15"/>
       <c r="H209" s="7"/>
-      <c r="I209" s="18"/>
+      <c r="I209" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="15.75">
       <c r="A210" s="9"/>
@@ -2961,7 +2949,7 @@
       <c r="F210" s="7"/>
       <c r="G210" s="15"/>
       <c r="H210" s="7"/>
-      <c r="I210" s="18"/>
+      <c r="I210" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="15.75">
       <c r="A211" s="9"/>
@@ -2972,7 +2960,7 @@
       <c r="F211" s="7"/>
       <c r="G211" s="15"/>
       <c r="H211" s="7"/>
-      <c r="I211" s="18"/>
+      <c r="I211" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="15.75">
       <c r="A212" s="9"/>
@@ -2983,7 +2971,7 @@
       <c r="F212" s="7"/>
       <c r="G212" s="15"/>
       <c r="H212" s="7"/>
-      <c r="I212" s="18"/>
+      <c r="I212" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15.75">
       <c r="A213" s="9"/>
@@ -2994,7 +2982,7 @@
       <c r="F213" s="7"/>
       <c r="G213" s="15"/>
       <c r="H213" s="7"/>
-      <c r="I213" s="18"/>
+      <c r="I213" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75">
       <c r="A214" s="9"/>
@@ -3005,7 +2993,7 @@
       <c r="F214" s="7"/>
       <c r="G214" s="15"/>
       <c r="H214" s="7"/>
-      <c r="I214" s="18"/>
+      <c r="I214" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75">
       <c r="A215" s="9"/>
@@ -3016,7 +3004,7 @@
       <c r="F215" s="7"/>
       <c r="G215" s="15"/>
       <c r="H215" s="7"/>
-      <c r="I215" s="18"/>
+      <c r="I215" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75">
       <c r="A216" s="9"/>
@@ -3027,7 +3015,7 @@
       <c r="F216" s="7"/>
       <c r="G216" s="15"/>
       <c r="H216" s="7"/>
-      <c r="I216" s="18"/>
+      <c r="I216" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75">
       <c r="A217" s="9"/>
@@ -3038,7 +3026,7 @@
       <c r="F217" s="7"/>
       <c r="G217" s="15"/>
       <c r="H217" s="7"/>
-      <c r="I217" s="18"/>
+      <c r="I217" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75">
       <c r="A218" s="9"/>
@@ -3049,7 +3037,7 @@
       <c r="F218" s="7"/>
       <c r="G218" s="15"/>
       <c r="H218" s="7"/>
-      <c r="I218" s="18"/>
+      <c r="I218" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75">
       <c r="A219" s="9"/>
@@ -3060,7 +3048,7 @@
       <c r="F219" s="7"/>
       <c r="G219" s="15"/>
       <c r="H219" s="7"/>
-      <c r="I219" s="18"/>
+      <c r="I219" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75">
       <c r="A220" s="9"/>
@@ -3071,7 +3059,7 @@
       <c r="F220" s="7"/>
       <c r="G220" s="15"/>
       <c r="H220" s="7"/>
-      <c r="I220" s="18"/>
+      <c r="I220" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75">
       <c r="A221" s="9"/>
@@ -3082,7 +3070,7 @@
       <c r="F221" s="7"/>
       <c r="G221" s="15"/>
       <c r="H221" s="7"/>
-      <c r="I221" s="18"/>
+      <c r="I221" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75">
       <c r="A222" s="9"/>
@@ -3093,7 +3081,7 @@
       <c r="F222" s="7"/>
       <c r="G222" s="15"/>
       <c r="H222" s="7"/>
-      <c r="I222" s="18"/>
+      <c r="I222" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75">
       <c r="A223" s="9"/>
@@ -3104,7 +3092,7 @@
       <c r="F223" s="7"/>
       <c r="G223" s="15"/>
       <c r="H223" s="7"/>
-      <c r="I223" s="18"/>
+      <c r="I223" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75">
       <c r="A224" s="9"/>
@@ -3115,7 +3103,7 @@
       <c r="F224" s="7"/>
       <c r="G224" s="15"/>
       <c r="H224" s="7"/>
-      <c r="I224" s="18"/>
+      <c r="I224" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75">
       <c r="A225" s="9"/>
@@ -3126,7 +3114,7 @@
       <c r="F225" s="7"/>
       <c r="G225" s="15"/>
       <c r="H225" s="7"/>
-      <c r="I225" s="18"/>
+      <c r="I225" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75">
       <c r="A226" s="9"/>
@@ -3137,7 +3125,7 @@
       <c r="F226" s="7"/>
       <c r="G226" s="15"/>
       <c r="H226" s="7"/>
-      <c r="I226" s="18"/>
+      <c r="I226" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75">
       <c r="A227" s="9"/>
@@ -3148,7 +3136,7 @@
       <c r="F227" s="7"/>
       <c r="G227" s="15"/>
       <c r="H227" s="7"/>
-      <c r="I227" s="18"/>
+      <c r="I227" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75">
       <c r="A228" s="9"/>
@@ -3159,7 +3147,7 @@
       <c r="F228" s="7"/>
       <c r="G228" s="15"/>
       <c r="H228" s="7"/>
-      <c r="I228" s="18"/>
+      <c r="I228" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75">
       <c r="A229" s="9"/>
@@ -3170,7 +3158,7 @@
       <c r="F229" s="7"/>
       <c r="G229" s="15"/>
       <c r="H229" s="7"/>
-      <c r="I229" s="18"/>
+      <c r="I229" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75">
       <c r="A230" s="9"/>
@@ -3181,7 +3169,7 @@
       <c r="F230" s="7"/>
       <c r="G230" s="15"/>
       <c r="H230" s="7"/>
-      <c r="I230" s="18"/>
+      <c r="I230" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75">
       <c r="A231" s="9"/>
@@ -3192,7 +3180,7 @@
       <c r="F231" s="7"/>
       <c r="G231" s="15"/>
       <c r="H231" s="7"/>
-      <c r="I231" s="18"/>
+      <c r="I231" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75">
       <c r="A232" s="9"/>
@@ -3203,7 +3191,7 @@
       <c r="F232" s="7"/>
       <c r="G232" s="15"/>
       <c r="H232" s="7"/>
-      <c r="I232" s="18"/>
+      <c r="I232" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75">
       <c r="A233" s="9"/>
@@ -3214,7 +3202,7 @@
       <c r="F233" s="7"/>
       <c r="G233" s="15"/>
       <c r="H233" s="7"/>
-      <c r="I233" s="18"/>
+      <c r="I233" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75">
       <c r="A234" s="9"/>
@@ -3225,7 +3213,7 @@
       <c r="F234" s="7"/>
       <c r="G234" s="15"/>
       <c r="H234" s="7"/>
-      <c r="I234" s="18"/>
+      <c r="I234" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75">
       <c r="A235" s="9"/>
@@ -3236,7 +3224,7 @@
       <c r="F235" s="7"/>
       <c r="G235" s="15"/>
       <c r="H235" s="7"/>
-      <c r="I235" s="18"/>
+      <c r="I235" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="15.75">
       <c r="A236" s="9"/>
@@ -3247,7 +3235,7 @@
       <c r="F236" s="7"/>
       <c r="G236" s="15"/>
       <c r="H236" s="7"/>
-      <c r="I236" s="18"/>
+      <c r="I236" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="15.75">
       <c r="A237" s="9"/>
@@ -3258,7 +3246,7 @@
       <c r="F237" s="7"/>
       <c r="G237" s="15"/>
       <c r="H237" s="7"/>
-      <c r="I237" s="18"/>
+      <c r="I237" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75">
       <c r="A238" s="9"/>
@@ -3269,7 +3257,7 @@
       <c r="F238" s="7"/>
       <c r="G238" s="15"/>
       <c r="H238" s="7"/>
-      <c r="I238" s="18"/>
+      <c r="I238" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75">
       <c r="A239" s="9"/>
@@ -3280,7 +3268,7 @@
       <c r="F239" s="7"/>
       <c r="G239" s="15"/>
       <c r="H239" s="7"/>
-      <c r="I239" s="18"/>
+      <c r="I239" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75">
       <c r="A240" s="9"/>
@@ -3291,7 +3279,7 @@
       <c r="F240" s="7"/>
       <c r="G240" s="15"/>
       <c r="H240" s="7"/>
-      <c r="I240" s="18"/>
+      <c r="I240" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75">
       <c r="A241" s="9"/>
@@ -3302,7 +3290,7 @@
       <c r="F241" s="7"/>
       <c r="G241" s="15"/>
       <c r="H241" s="7"/>
-      <c r="I241" s="18"/>
+      <c r="I241" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75">
       <c r="A242" s="9"/>
@@ -3313,7 +3301,7 @@
       <c r="F242" s="7"/>
       <c r="G242" s="15"/>
       <c r="H242" s="7"/>
-      <c r="I242" s="18"/>
+      <c r="I242" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75">
       <c r="A243" s="9"/>
@@ -3324,7 +3312,7 @@
       <c r="F243" s="7"/>
       <c r="G243" s="15"/>
       <c r="H243" s="7"/>
-      <c r="I243" s="18"/>
+      <c r="I243" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75">
       <c r="A244" s="9"/>
@@ -3335,7 +3323,7 @@
       <c r="F244" s="7"/>
       <c r="G244" s="15"/>
       <c r="H244" s="7"/>
-      <c r="I244" s="18"/>
+      <c r="I244" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75">
       <c r="A245" s="9"/>
@@ -3346,7 +3334,7 @@
       <c r="F245" s="7"/>
       <c r="G245" s="15"/>
       <c r="H245" s="7"/>
-      <c r="I245" s="18"/>
+      <c r="I245" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75">
       <c r="A246" s="9"/>
@@ -3357,7 +3345,7 @@
       <c r="F246" s="7"/>
       <c r="G246" s="15"/>
       <c r="H246" s="7"/>
-      <c r="I246" s="18"/>
+      <c r="I246" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75">
       <c r="A247" s="9"/>
@@ -3368,7 +3356,7 @@
       <c r="F247" s="7"/>
       <c r="G247" s="15"/>
       <c r="H247" s="7"/>
-      <c r="I247" s="18"/>
+      <c r="I247" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75">
       <c r="A248" s="9"/>
@@ -3379,7 +3367,7 @@
       <c r="F248" s="7"/>
       <c r="G248" s="15"/>
       <c r="H248" s="7"/>
-      <c r="I248" s="18"/>
+      <c r="I248" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75">
       <c r="A249" s="9"/>
@@ -3390,7 +3378,7 @@
       <c r="F249" s="7"/>
       <c r="G249" s="15"/>
       <c r="H249" s="7"/>
-      <c r="I249" s="18"/>
+      <c r="I249" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75">
       <c r="A250" s="9"/>
@@ -3401,7 +3389,7 @@
       <c r="F250" s="7"/>
       <c r="G250" s="15"/>
       <c r="H250" s="7"/>
-      <c r="I250" s="18"/>
+      <c r="I250" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75">
       <c r="A251" s="9"/>
@@ -3412,7 +3400,7 @@
       <c r="F251" s="7"/>
       <c r="G251" s="15"/>
       <c r="H251" s="7"/>
-      <c r="I251" s="18"/>
+      <c r="I251" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75">
       <c r="A252" s="9"/>
@@ -3423,7 +3411,7 @@
       <c r="F252" s="7"/>
       <c r="G252" s="15"/>
       <c r="H252" s="7"/>
-      <c r="I252" s="18"/>
+      <c r="I252" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75">
       <c r="A253" s="9"/>
@@ -3434,7 +3422,7 @@
       <c r="F253" s="7"/>
       <c r="G253" s="15"/>
       <c r="H253" s="7"/>
-      <c r="I253" s="18"/>
+      <c r="I253" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75">
       <c r="A254" s="9"/>
@@ -3445,7 +3433,7 @@
       <c r="F254" s="7"/>
       <c r="G254" s="15"/>
       <c r="H254" s="7"/>
-      <c r="I254" s="18"/>
+      <c r="I254" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75">
       <c r="A255" s="9"/>
@@ -3456,7 +3444,7 @@
       <c r="F255" s="7"/>
       <c r="G255" s="15"/>
       <c r="H255" s="7"/>
-      <c r="I255" s="18"/>
+      <c r="I255" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75">
       <c r="A256" s="9"/>
@@ -3467,7 +3455,7 @@
       <c r="F256" s="7"/>
       <c r="G256" s="15"/>
       <c r="H256" s="7"/>
-      <c r="I256" s="18"/>
+      <c r="I256" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75">
       <c r="A257" s="9"/>
@@ -3478,7 +3466,7 @@
       <c r="F257" s="7"/>
       <c r="G257" s="15"/>
       <c r="H257" s="7"/>
-      <c r="I257" s="18"/>
+      <c r="I257" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75">
       <c r="A258" s="9"/>
@@ -3489,7 +3477,7 @@
       <c r="F258" s="7"/>
       <c r="G258" s="15"/>
       <c r="H258" s="7"/>
-      <c r="I258" s="18"/>
+      <c r="I258" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75">
       <c r="A259" s="9"/>
@@ -3500,7 +3488,7 @@
       <c r="F259" s="7"/>
       <c r="G259" s="15"/>
       <c r="H259" s="7"/>
-      <c r="I259" s="18"/>
+      <c r="I259" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75">
       <c r="A260" s="9"/>
@@ -3511,7 +3499,7 @@
       <c r="F260" s="7"/>
       <c r="G260" s="15"/>
       <c r="H260" s="7"/>
-      <c r="I260" s="18"/>
+      <c r="I260" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75">
       <c r="A261" s="9"/>
@@ -3522,7 +3510,7 @@
       <c r="F261" s="7"/>
       <c r="G261" s="15"/>
       <c r="H261" s="7"/>
-      <c r="I261" s="18"/>
+      <c r="I261" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75">
       <c r="A262" s="9"/>
@@ -3533,7 +3521,7 @@
       <c r="F262" s="7"/>
       <c r="G262" s="15"/>
       <c r="H262" s="7"/>
-      <c r="I262" s="18"/>
+      <c r="I262" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75">
       <c r="A263" s="9"/>
@@ -3544,7 +3532,7 @@
       <c r="F263" s="7"/>
       <c r="G263" s="15"/>
       <c r="H263" s="7"/>
-      <c r="I263" s="18"/>
+      <c r="I263" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75">
       <c r="A264" s="9"/>
@@ -3555,7 +3543,7 @@
       <c r="F264" s="7"/>
       <c r="G264" s="15"/>
       <c r="H264" s="7"/>
-      <c r="I264" s="18"/>
+      <c r="I264" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75">
       <c r="A265" s="9"/>
@@ -3566,7 +3554,7 @@
       <c r="F265" s="7"/>
       <c r="G265" s="15"/>
       <c r="H265" s="7"/>
-      <c r="I265" s="18"/>
+      <c r="I265" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75">
       <c r="A266" s="9"/>
@@ -3577,7 +3565,7 @@
       <c r="F266" s="7"/>
       <c r="G266" s="15"/>
       <c r="H266" s="7"/>
-      <c r="I266" s="18"/>
+      <c r="I266" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75">
       <c r="A267" s="9"/>
@@ -3588,7 +3576,7 @@
       <c r="F267" s="7"/>
       <c r="G267" s="15"/>
       <c r="H267" s="7"/>
-      <c r="I267" s="18"/>
+      <c r="I267" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75">
       <c r="A268" s="9"/>
@@ -3599,7 +3587,7 @@
       <c r="F268" s="7"/>
       <c r="G268" s="15"/>
       <c r="H268" s="7"/>
-      <c r="I268" s="18"/>
+      <c r="I268" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75">
       <c r="A269" s="9"/>
@@ -3610,7 +3598,7 @@
       <c r="F269" s="7"/>
       <c r="G269" s="15"/>
       <c r="H269" s="7"/>
-      <c r="I269" s="18"/>
+      <c r="I269" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75">
       <c r="A270" s="9"/>
@@ -3621,7 +3609,7 @@
       <c r="F270" s="7"/>
       <c r="G270" s="15"/>
       <c r="H270" s="7"/>
-      <c r="I270" s="18"/>
+      <c r="I270" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75">
       <c r="A271" s="9"/>
@@ -3632,7 +3620,7 @@
       <c r="F271" s="7"/>
       <c r="G271" s="15"/>
       <c r="H271" s="7"/>
-      <c r="I271" s="18"/>
+      <c r="I271" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75">
       <c r="A272" s="9"/>
@@ -3643,7 +3631,7 @@
       <c r="F272" s="7"/>
       <c r="G272" s="15"/>
       <c r="H272" s="7"/>
-      <c r="I272" s="18"/>
+      <c r="I272" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="15.75">
       <c r="A273" s="9"/>
@@ -3654,7 +3642,7 @@
       <c r="F273" s="7"/>
       <c r="G273" s="15"/>
       <c r="H273" s="7"/>
-      <c r="I273" s="18"/>
+      <c r="I273" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="15.75">
       <c r="A274" s="9"/>
@@ -3665,7 +3653,7 @@
       <c r="F274" s="7"/>
       <c r="G274" s="15"/>
       <c r="H274" s="7"/>
-      <c r="I274" s="18"/>
+      <c r="I274" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75">
       <c r="A275" s="9"/>
@@ -3676,7 +3664,7 @@
       <c r="F275" s="7"/>
       <c r="G275" s="15"/>
       <c r="H275" s="7"/>
-      <c r="I275" s="18"/>
+      <c r="I275" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75">
       <c r="A276" s="9"/>
@@ -3687,7 +3675,7 @@
       <c r="F276" s="7"/>
       <c r="G276" s="15"/>
       <c r="H276" s="7"/>
-      <c r="I276" s="18"/>
+      <c r="I276" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75">
       <c r="A277" s="9"/>
@@ -3698,7 +3686,7 @@
       <c r="F277" s="7"/>
       <c r="G277" s="15"/>
       <c r="H277" s="7"/>
-      <c r="I277" s="18"/>
+      <c r="I277" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75">
       <c r="A278" s="9"/>
@@ -3709,7 +3697,7 @@
       <c r="F278" s="7"/>
       <c r="G278" s="15"/>
       <c r="H278" s="7"/>
-      <c r="I278" s="18"/>
+      <c r="I278" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75">
       <c r="A279" s="9"/>
@@ -3720,7 +3708,7 @@
       <c r="F279" s="7"/>
       <c r="G279" s="15"/>
       <c r="H279" s="7"/>
-      <c r="I279" s="18"/>
+      <c r="I279" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75">
       <c r="A280" s="9"/>
@@ -3731,7 +3719,7 @@
       <c r="F280" s="7"/>
       <c r="G280" s="15"/>
       <c r="H280" s="7"/>
-      <c r="I280" s="18"/>
+      <c r="I280" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75">
       <c r="A281" s="9"/>
@@ -3742,7 +3730,7 @@
       <c r="F281" s="7"/>
       <c r="G281" s="15"/>
       <c r="H281" s="7"/>
-      <c r="I281" s="18"/>
+      <c r="I281" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75">
       <c r="A282" s="9"/>
@@ -3753,7 +3741,7 @@
       <c r="F282" s="7"/>
       <c r="G282" s="15"/>
       <c r="H282" s="7"/>
-      <c r="I282" s="18"/>
+      <c r="I282" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75">
       <c r="A283" s="9"/>
@@ -3764,7 +3752,7 @@
       <c r="F283" s="7"/>
       <c r="G283" s="15"/>
       <c r="H283" s="7"/>
-      <c r="I283" s="18"/>
+      <c r="I283" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75">
       <c r="A284" s="9"/>
@@ -3775,7 +3763,7 @@
       <c r="F284" s="7"/>
       <c r="G284" s="15"/>
       <c r="H284" s="7"/>
-      <c r="I284" s="18"/>
+      <c r="I284" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75">
       <c r="A285" s="9"/>
@@ -3786,7 +3774,7 @@
       <c r="F285" s="7"/>
       <c r="G285" s="15"/>
       <c r="H285" s="7"/>
-      <c r="I285" s="18"/>
+      <c r="I285" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75">
       <c r="A286" s="9"/>
@@ -3797,7 +3785,7 @@
       <c r="F286" s="7"/>
       <c r="G286" s="15"/>
       <c r="H286" s="7"/>
-      <c r="I286" s="18"/>
+      <c r="I286" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75">
       <c r="A287" s="9"/>
@@ -3808,7 +3796,7 @@
       <c r="F287" s="7"/>
       <c r="G287" s="15"/>
       <c r="H287" s="7"/>
-      <c r="I287" s="18"/>
+      <c r="I287" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75">
       <c r="A288" s="9"/>
@@ -3819,7 +3807,7 @@
       <c r="F288" s="7"/>
       <c r="G288" s="15"/>
       <c r="H288" s="7"/>
-      <c r="I288" s="18"/>
+      <c r="I288" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75">
       <c r="A289" s="9"/>
@@ -3830,7 +3818,7 @@
       <c r="F289" s="7"/>
       <c r="G289" s="15"/>
       <c r="H289" s="7"/>
-      <c r="I289" s="18"/>
+      <c r="I289" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75">
       <c r="A290" s="9"/>
@@ -3841,7 +3829,7 @@
       <c r="F290" s="7"/>
       <c r="G290" s="15"/>
       <c r="H290" s="7"/>
-      <c r="I290" s="18"/>
+      <c r="I290" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75">
       <c r="A291" s="9"/>
@@ -3852,7 +3840,7 @@
       <c r="F291" s="7"/>
       <c r="G291" s="15"/>
       <c r="H291" s="7"/>
-      <c r="I291" s="18"/>
+      <c r="I291" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75">
       <c r="A292" s="9"/>
@@ -3863,7 +3851,7 @@
       <c r="F292" s="7"/>
       <c r="G292" s="15"/>
       <c r="H292" s="7"/>
-      <c r="I292" s="18"/>
+      <c r="I292" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75">
       <c r="A293" s="9"/>
@@ -3874,7 +3862,7 @@
       <c r="F293" s="7"/>
       <c r="G293" s="15"/>
       <c r="H293" s="7"/>
-      <c r="I293" s="18"/>
+      <c r="I293" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="15.75">
       <c r="A294" s="9"/>
@@ -3885,7 +3873,7 @@
       <c r="F294" s="7"/>
       <c r="G294" s="15"/>
       <c r="H294" s="7"/>
-      <c r="I294" s="18"/>
+      <c r="I294" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="15.75">
       <c r="A295" s="9"/>
@@ -3896,7 +3884,7 @@
       <c r="F295" s="7"/>
       <c r="G295" s="15"/>
       <c r="H295" s="7"/>
-      <c r="I295" s="18"/>
+      <c r="I295" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75">
       <c r="A296" s="9"/>
@@ -3907,7 +3895,7 @@
       <c r="F296" s="7"/>
       <c r="G296" s="15"/>
       <c r="H296" s="7"/>
-      <c r="I296" s="18"/>
+      <c r="I296" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75">
       <c r="A297" s="9"/>
@@ -3918,7 +3906,7 @@
       <c r="F297" s="7"/>
       <c r="G297" s="15"/>
       <c r="H297" s="7"/>
-      <c r="I297" s="18"/>
+      <c r="I297" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75">
       <c r="A298" s="9"/>
@@ -3929,7 +3917,7 @@
       <c r="F298" s="7"/>
       <c r="G298" s="15"/>
       <c r="H298" s="7"/>
-      <c r="I298" s="18"/>
+      <c r="I298" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75">
       <c r="A299" s="9"/>
@@ -3940,7 +3928,7 @@
       <c r="F299" s="7"/>
       <c r="G299" s="15"/>
       <c r="H299" s="7"/>
-      <c r="I299" s="18"/>
+      <c r="I299" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75">
       <c r="A300" s="9"/>
@@ -3951,7 +3939,7 @@
       <c r="F300" s="7"/>
       <c r="G300" s="15"/>
       <c r="H300" s="7"/>
-      <c r="I300" s="18"/>
+      <c r="I300" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75">
       <c r="A301" s="9"/>
@@ -3962,7 +3950,7 @@
       <c r="F301" s="7"/>
       <c r="G301" s="15"/>
       <c r="H301" s="7"/>
-      <c r="I301" s="18"/>
+      <c r="I301" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75">
       <c r="A302" s="9"/>
@@ -3973,7 +3961,7 @@
       <c r="F302" s="7"/>
       <c r="G302" s="15"/>
       <c r="H302" s="7"/>
-      <c r="I302" s="18"/>
+      <c r="I302" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75">
       <c r="A303" s="9"/>
@@ -3984,7 +3972,7 @@
       <c r="F303" s="7"/>
       <c r="G303" s="15"/>
       <c r="H303" s="7"/>
-      <c r="I303" s="18"/>
+      <c r="I303" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75">
       <c r="A304" s="9"/>
@@ -3995,7 +3983,7 @@
       <c r="F304" s="7"/>
       <c r="G304" s="15"/>
       <c r="H304" s="7"/>
-      <c r="I304" s="18"/>
+      <c r="I304" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75">
       <c r="A305" s="9"/>
@@ -4006,7 +3994,7 @@
       <c r="F305" s="7"/>
       <c r="G305" s="15"/>
       <c r="H305" s="7"/>
-      <c r="I305" s="18"/>
+      <c r="I305" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75">
       <c r="A306" s="9"/>
@@ -4017,7 +4005,7 @@
       <c r="F306" s="7"/>
       <c r="G306" s="15"/>
       <c r="H306" s="7"/>
-      <c r="I306" s="18"/>
+      <c r="I306" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75">
       <c r="A307" s="9"/>
@@ -4028,7 +4016,7 @@
       <c r="F307" s="7"/>
       <c r="G307" s="15"/>
       <c r="H307" s="7"/>
-      <c r="I307" s="18"/>
+      <c r="I307" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75">
       <c r="A308" s="9"/>
@@ -4039,7 +4027,7 @@
       <c r="F308" s="7"/>
       <c r="G308" s="15"/>
       <c r="H308" s="7"/>
-      <c r="I308" s="18"/>
+      <c r="I308" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75">
       <c r="A309" s="9"/>
@@ -4050,7 +4038,7 @@
       <c r="F309" s="7"/>
       <c r="G309" s="15"/>
       <c r="H309" s="7"/>
-      <c r="I309" s="18"/>
+      <c r="I309" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75">
       <c r="A310" s="9"/>
@@ -4061,7 +4049,7 @@
       <c r="F310" s="7"/>
       <c r="G310" s="15"/>
       <c r="H310" s="7"/>
-      <c r="I310" s="18"/>
+      <c r="I310" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75">
       <c r="A311" s="9"/>
@@ -4072,7 +4060,7 @@
       <c r="F311" s="7"/>
       <c r="G311" s="15"/>
       <c r="H311" s="7"/>
-      <c r="I311" s="18"/>
+      <c r="I311" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75">
       <c r="A312" s="9"/>
@@ -4083,7 +4071,7 @@
       <c r="F312" s="7"/>
       <c r="G312" s="15"/>
       <c r="H312" s="7"/>
-      <c r="I312" s="18"/>
+      <c r="I312" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75">
       <c r="A313" s="9"/>
@@ -4094,7 +4082,7 @@
       <c r="F313" s="7"/>
       <c r="G313" s="15"/>
       <c r="H313" s="7"/>
-      <c r="I313" s="18"/>
+      <c r="I313" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75">
       <c r="A314" s="9"/>
@@ -4105,7 +4093,7 @@
       <c r="F314" s="7"/>
       <c r="G314" s="15"/>
       <c r="H314" s="7"/>
-      <c r="I314" s="18"/>
+      <c r="I314" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75">
       <c r="A315" s="9"/>
@@ -4116,7 +4104,7 @@
       <c r="F315" s="7"/>
       <c r="G315" s="15"/>
       <c r="H315" s="7"/>
-      <c r="I315" s="18"/>
+      <c r="I315" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75">
       <c r="A316" s="9"/>
@@ -4127,7 +4115,7 @@
       <c r="F316" s="7"/>
       <c r="G316" s="15"/>
       <c r="H316" s="7"/>
-      <c r="I316" s="18"/>
+      <c r="I316" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75">
       <c r="A317" s="9"/>
@@ -4138,7 +4126,7 @@
       <c r="F317" s="7"/>
       <c r="G317" s="15"/>
       <c r="H317" s="7"/>
-      <c r="I317" s="18"/>
+      <c r="I317" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75">
       <c r="A318" s="9"/>
@@ -4149,7 +4137,7 @@
       <c r="F318" s="7"/>
       <c r="G318" s="15"/>
       <c r="H318" s="7"/>
-      <c r="I318" s="18"/>
+      <c r="I318" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75">
       <c r="A319" s="9"/>
@@ -4160,7 +4148,7 @@
       <c r="F319" s="7"/>
       <c r="G319" s="15"/>
       <c r="H319" s="7"/>
-      <c r="I319" s="18"/>
+      <c r="I319" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75">
       <c r="A320" s="9"/>
@@ -4171,7 +4159,7 @@
       <c r="F320" s="7"/>
       <c r="G320" s="15"/>
       <c r="H320" s="7"/>
-      <c r="I320" s="18"/>
+      <c r="I320" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75">
       <c r="A321" s="9"/>
@@ -4182,7 +4170,7 @@
       <c r="F321" s="7"/>
       <c r="G321" s="15"/>
       <c r="H321" s="7"/>
-      <c r="I321" s="18"/>
+      <c r="I321" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75">
       <c r="A322" s="9"/>
@@ -4193,7 +4181,7 @@
       <c r="F322" s="7"/>
       <c r="G322" s="15"/>
       <c r="H322" s="7"/>
-      <c r="I322" s="18"/>
+      <c r="I322" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75">
       <c r="A323" s="9"/>
@@ -4204,7 +4192,7 @@
       <c r="F323" s="7"/>
       <c r="G323" s="15"/>
       <c r="H323" s="7"/>
-      <c r="I323" s="18"/>
+      <c r="I323" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75">
       <c r="A324" s="9"/>
@@ -4215,7 +4203,7 @@
       <c r="F324" s="7"/>
       <c r="G324" s="15"/>
       <c r="H324" s="7"/>
-      <c r="I324" s="18"/>
+      <c r="I324" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75">
       <c r="A325" s="9"/>
@@ -4226,7 +4214,7 @@
       <c r="F325" s="7"/>
       <c r="G325" s="15"/>
       <c r="H325" s="7"/>
-      <c r="I325" s="18"/>
+      <c r="I325" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75">
       <c r="A326" s="9"/>
@@ -4237,7 +4225,7 @@
       <c r="F326" s="7"/>
       <c r="G326" s="15"/>
       <c r="H326" s="7"/>
-      <c r="I326" s="18"/>
+      <c r="I326" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75">
       <c r="A327" s="9"/>
@@ -4248,7 +4236,7 @@
       <c r="F327" s="7"/>
       <c r="G327" s="15"/>
       <c r="H327" s="7"/>
-      <c r="I327" s="18"/>
+      <c r="I327" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75">
       <c r="A328" s="9"/>
@@ -4259,7 +4247,7 @@
       <c r="F328" s="7"/>
       <c r="G328" s="15"/>
       <c r="H328" s="7"/>
-      <c r="I328" s="18"/>
+      <c r="I328" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75">
       <c r="A329" s="9"/>
@@ -4270,7 +4258,7 @@
       <c r="F329" s="7"/>
       <c r="G329" s="15"/>
       <c r="H329" s="7"/>
-      <c r="I329" s="18"/>
+      <c r="I329" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75">
       <c r="A330" s="9"/>
@@ -4281,7 +4269,7 @@
       <c r="F330" s="7"/>
       <c r="G330" s="15"/>
       <c r="H330" s="7"/>
-      <c r="I330" s="18"/>
+      <c r="I330" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75">
       <c r="A331" s="9"/>
@@ -4292,7 +4280,7 @@
       <c r="F331" s="7"/>
       <c r="G331" s="15"/>
       <c r="H331" s="7"/>
-      <c r="I331" s="18"/>
+      <c r="I331" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75">
       <c r="A332" s="9"/>
@@ -4303,7 +4291,7 @@
       <c r="F332" s="7"/>
       <c r="G332" s="15"/>
       <c r="H332" s="7"/>
-      <c r="I332" s="18"/>
+      <c r="I332" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75">
       <c r="A333" s="9"/>
@@ -4314,7 +4302,7 @@
       <c r="F333" s="7"/>
       <c r="G333" s="15"/>
       <c r="H333" s="7"/>
-      <c r="I333" s="18"/>
+      <c r="I333" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="15.75">
       <c r="A334" s="9"/>
@@ -4325,7 +4313,7 @@
       <c r="F334" s="7"/>
       <c r="G334" s="15"/>
       <c r="H334" s="7"/>
-      <c r="I334" s="18"/>
+      <c r="I334" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="15.75">
       <c r="A335" s="9"/>
@@ -4336,7 +4324,7 @@
       <c r="F335" s="7"/>
       <c r="G335" s="15"/>
       <c r="H335" s="7"/>
-      <c r="I335" s="18"/>
+      <c r="I335" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75">
       <c r="A336" s="9"/>
@@ -4347,7 +4335,7 @@
       <c r="F336" s="7"/>
       <c r="G336" s="15"/>
       <c r="H336" s="7"/>
-      <c r="I336" s="18"/>
+      <c r="I336" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75">
       <c r="A337" s="9"/>
@@ -4358,7 +4346,7 @@
       <c r="F337" s="7"/>
       <c r="G337" s="15"/>
       <c r="H337" s="7"/>
-      <c r="I337" s="18"/>
+      <c r="I337" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75">
       <c r="A338" s="9"/>
@@ -4369,7 +4357,7 @@
       <c r="F338" s="7"/>
       <c r="G338" s="15"/>
       <c r="H338" s="7"/>
-      <c r="I338" s="18"/>
+      <c r="I338" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75">
       <c r="A339" s="9"/>
@@ -4380,7 +4368,7 @@
       <c r="F339" s="7"/>
       <c r="G339" s="15"/>
       <c r="H339" s="7"/>
-      <c r="I339" s="18"/>
+      <c r="I339" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75">
       <c r="A340" s="9"/>
@@ -4391,7 +4379,7 @@
       <c r="F340" s="7"/>
       <c r="G340" s="15"/>
       <c r="H340" s="7"/>
-      <c r="I340" s="18"/>
+      <c r="I340" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75">
       <c r="A341" s="9"/>
@@ -4402,7 +4390,7 @@
       <c r="F341" s="7"/>
       <c r="G341" s="15"/>
       <c r="H341" s="7"/>
-      <c r="I341" s="18"/>
+      <c r="I341" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75">
       <c r="A342" s="9"/>
@@ -4413,7 +4401,7 @@
       <c r="F342" s="7"/>
       <c r="G342" s="15"/>
       <c r="H342" s="7"/>
-      <c r="I342" s="18"/>
+      <c r="I342" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75">
       <c r="A343" s="9"/>
@@ -4424,7 +4412,7 @@
       <c r="F343" s="7"/>
       <c r="G343" s="15"/>
       <c r="H343" s="7"/>
-      <c r="I343" s="18"/>
+      <c r="I343" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75">
       <c r="A344" s="9"/>
@@ -4435,7 +4423,7 @@
       <c r="F344" s="7"/>
       <c r="G344" s="15"/>
       <c r="H344" s="7"/>
-      <c r="I344" s="18"/>
+      <c r="I344" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75">
       <c r="A345" s="9"/>
@@ -4446,7 +4434,7 @@
       <c r="F345" s="7"/>
       <c r="G345" s="15"/>
       <c r="H345" s="7"/>
-      <c r="I345" s="18"/>
+      <c r="I345" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75">
       <c r="A346" s="9"/>
@@ -4457,7 +4445,7 @@
       <c r="F346" s="7"/>
       <c r="G346" s="15"/>
       <c r="H346" s="7"/>
-      <c r="I346" s="18"/>
+      <c r="I346" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75">
       <c r="A347" s="9"/>
@@ -4468,7 +4456,7 @@
       <c r="F347" s="7"/>
       <c r="G347" s="15"/>
       <c r="H347" s="7"/>
-      <c r="I347" s="18"/>
+      <c r="I347" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75">
       <c r="A348" s="9"/>
@@ -4479,7 +4467,7 @@
       <c r="F348" s="7"/>
       <c r="G348" s="15"/>
       <c r="H348" s="7"/>
-      <c r="I348" s="18"/>
+      <c r="I348" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75">
       <c r="A349" s="9"/>
@@ -4490,7 +4478,7 @@
       <c r="F349" s="7"/>
       <c r="G349" s="15"/>
       <c r="H349" s="7"/>
-      <c r="I349" s="18"/>
+      <c r="I349" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75">
       <c r="A350" s="9"/>
@@ -4501,7 +4489,7 @@
       <c r="F350" s="7"/>
       <c r="G350" s="15"/>
       <c r="H350" s="7"/>
-      <c r="I350" s="18"/>
+      <c r="I350" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75">
       <c r="A351" s="9"/>
@@ -4512,7 +4500,7 @@
       <c r="F351" s="7"/>
       <c r="G351" s="15"/>
       <c r="H351" s="7"/>
-      <c r="I351" s="18"/>
+      <c r="I351" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75">
       <c r="A352" s="9"/>
@@ -4523,7 +4511,7 @@
       <c r="F352" s="7"/>
       <c r="G352" s="15"/>
       <c r="H352" s="7"/>
-      <c r="I352" s="18"/>
+      <c r="I352" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75">
       <c r="A353" s="9"/>
@@ -4534,7 +4522,7 @@
       <c r="F353" s="7"/>
       <c r="G353" s="15"/>
       <c r="H353" s="7"/>
-      <c r="I353" s="18"/>
+      <c r="I353" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="15.75">
       <c r="A354" s="9"/>
@@ -4545,7 +4533,7 @@
       <c r="F354" s="7"/>
       <c r="G354" s="15"/>
       <c r="H354" s="7"/>
-      <c r="I354" s="18"/>
+      <c r="I354" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="15.75">
       <c r="A355" s="9"/>
@@ -4556,7 +4544,7 @@
       <c r="F355" s="7"/>
       <c r="G355" s="15"/>
       <c r="H355" s="7"/>
-      <c r="I355" s="18"/>
+      <c r="I355" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75">
       <c r="A356" s="9"/>
@@ -4567,7 +4555,7 @@
       <c r="F356" s="7"/>
       <c r="G356" s="15"/>
       <c r="H356" s="7"/>
-      <c r="I356" s="18"/>
+      <c r="I356" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75">
       <c r="A357" s="9"/>
@@ -4578,7 +4566,7 @@
       <c r="F357" s="7"/>
       <c r="G357" s="15"/>
       <c r="H357" s="7"/>
-      <c r="I357" s="18"/>
+      <c r="I357" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75">
       <c r="A358" s="9"/>
@@ -4589,7 +4577,7 @@
       <c r="F358" s="7"/>
       <c r="G358" s="15"/>
       <c r="H358" s="7"/>
-      <c r="I358" s="18"/>
+      <c r="I358" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75">
       <c r="A359" s="9"/>
@@ -4600,7 +4588,7 @@
       <c r="F359" s="7"/>
       <c r="G359" s="15"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="18"/>
+      <c r="I359" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75">
       <c r="A360" s="9"/>
@@ -4611,7 +4599,7 @@
       <c r="F360" s="7"/>
       <c r="G360" s="15"/>
       <c r="H360" s="7"/>
-      <c r="I360" s="18"/>
+      <c r="I360" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75">
       <c r="A361" s="9"/>
@@ -4622,7 +4610,7 @@
       <c r="F361" s="7"/>
       <c r="G361" s="15"/>
       <c r="H361" s="7"/>
-      <c r="I361" s="18"/>
+      <c r="I361" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75">
       <c r="A362" s="9"/>
@@ -4633,7 +4621,7 @@
       <c r="F362" s="7"/>
       <c r="G362" s="15"/>
       <c r="H362" s="7"/>
-      <c r="I362" s="18"/>
+      <c r="I362" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75">
       <c r="A363" s="9"/>
@@ -4644,7 +4632,7 @@
       <c r="F363" s="7"/>
       <c r="G363" s="15"/>
       <c r="H363" s="7"/>
-      <c r="I363" s="18"/>
+      <c r="I363" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75">
       <c r="A364" s="9"/>
@@ -4655,7 +4643,7 @@
       <c r="F364" s="7"/>
       <c r="G364" s="15"/>
       <c r="H364" s="7"/>
-      <c r="I364" s="18"/>
+      <c r="I364" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75">
       <c r="A365" s="9"/>
@@ -4666,7 +4654,7 @@
       <c r="F365" s="7"/>
       <c r="G365" s="15"/>
       <c r="H365" s="7"/>
-      <c r="I365" s="18"/>
+      <c r="I365" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75">
       <c r="A366" s="9"/>
@@ -4677,7 +4665,7 @@
       <c r="F366" s="7"/>
       <c r="G366" s="15"/>
       <c r="H366" s="7"/>
-      <c r="I366" s="18"/>
+      <c r="I366" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75">
       <c r="A367" s="9"/>
@@ -4688,7 +4676,7 @@
       <c r="F367" s="7"/>
       <c r="G367" s="15"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="18"/>
+      <c r="I367" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75">
       <c r="A368" s="9"/>
@@ -4699,7 +4687,7 @@
       <c r="F368" s="7"/>
       <c r="G368" s="15"/>
       <c r="H368" s="7"/>
-      <c r="I368" s="18"/>
+      <c r="I368" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75">
       <c r="A369" s="9"/>
@@ -4710,7 +4698,7 @@
       <c r="F369" s="7"/>
       <c r="G369" s="15"/>
       <c r="H369" s="7"/>
-      <c r="I369" s="18"/>
+      <c r="I369" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75">
       <c r="A370" s="9"/>
@@ -4721,7 +4709,7 @@
       <c r="F370" s="7"/>
       <c r="G370" s="15"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="18"/>
+      <c r="I370" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75">
       <c r="A371" s="9"/>
@@ -4732,7 +4720,7 @@
       <c r="F371" s="7"/>
       <c r="G371" s="15"/>
       <c r="H371" s="7"/>
-      <c r="I371" s="18"/>
+      <c r="I371" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75">
       <c r="A372" s="9"/>
@@ -4743,7 +4731,7 @@
       <c r="F372" s="7"/>
       <c r="G372" s="15"/>
       <c r="H372" s="7"/>
-      <c r="I372" s="18"/>
+      <c r="I372" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75">
       <c r="A373" s="9"/>
@@ -4754,7 +4742,7 @@
       <c r="F373" s="7"/>
       <c r="G373" s="15"/>
       <c r="H373" s="7"/>
-      <c r="I373" s="18"/>
+      <c r="I373" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75">
       <c r="A374" s="9"/>
@@ -4765,7 +4753,7 @@
       <c r="F374" s="7"/>
       <c r="G374" s="15"/>
       <c r="H374" s="7"/>
-      <c r="I374" s="18"/>
+      <c r="I374" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75">
       <c r="A375" s="9"/>
@@ -4776,7 +4764,7 @@
       <c r="F375" s="7"/>
       <c r="G375" s="15"/>
       <c r="H375" s="7"/>
-      <c r="I375" s="18"/>
+      <c r="I375" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75">
       <c r="A376" s="9"/>
@@ -4787,7 +4775,7 @@
       <c r="F376" s="7"/>
       <c r="G376" s="15"/>
       <c r="H376" s="7"/>
-      <c r="I376" s="18"/>
+      <c r="I376" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75">
       <c r="A377" s="9"/>
@@ -4798,7 +4786,7 @@
       <c r="F377" s="7"/>
       <c r="G377" s="15"/>
       <c r="H377" s="7"/>
-      <c r="I377" s="18"/>
+      <c r="I377" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75">
       <c r="A378" s="9"/>
@@ -4809,7 +4797,7 @@
       <c r="F378" s="7"/>
       <c r="G378" s="15"/>
       <c r="H378" s="7"/>
-      <c r="I378" s="18"/>
+      <c r="I378" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75">
       <c r="A379" s="9"/>
@@ -4820,7 +4808,7 @@
       <c r="F379" s="7"/>
       <c r="G379" s="15"/>
       <c r="H379" s="7"/>
-      <c r="I379" s="18"/>
+      <c r="I379" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75">
       <c r="A380" s="9"/>
@@ -4831,7 +4819,7 @@
       <c r="F380" s="7"/>
       <c r="G380" s="15"/>
       <c r="H380" s="7"/>
-      <c r="I380" s="18"/>
+      <c r="I380" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75">
       <c r="A381" s="9"/>
@@ -4842,7 +4830,7 @@
       <c r="F381" s="7"/>
       <c r="G381" s="15"/>
       <c r="H381" s="7"/>
-      <c r="I381" s="18"/>
+      <c r="I381" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75">
       <c r="A382" s="9"/>
@@ -4853,7 +4841,7 @@
       <c r="F382" s="7"/>
       <c r="G382" s="15"/>
       <c r="H382" s="7"/>
-      <c r="I382" s="18"/>
+      <c r="I382" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75">
       <c r="A383" s="9"/>
@@ -4864,7 +4852,7 @@
       <c r="F383" s="7"/>
       <c r="G383" s="15"/>
       <c r="H383" s="7"/>
-      <c r="I383" s="18"/>
+      <c r="I383" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75">
       <c r="A384" s="9"/>
@@ -4875,7 +4863,7 @@
       <c r="F384" s="7"/>
       <c r="G384" s="15"/>
       <c r="H384" s="7"/>
-      <c r="I384" s="18"/>
+      <c r="I384" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75">
       <c r="A385" s="9"/>
@@ -4886,7 +4874,7 @@
       <c r="F385" s="7"/>
       <c r="G385" s="15"/>
       <c r="H385" s="7"/>
-      <c r="I385" s="18"/>
+      <c r="I385" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75">
       <c r="A386" s="9"/>
@@ -4897,7 +4885,7 @@
       <c r="F386" s="7"/>
       <c r="G386" s="15"/>
       <c r="H386" s="7"/>
-      <c r="I386" s="18"/>
+      <c r="I386" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75">
       <c r="A387" s="9"/>
@@ -4908,7 +4896,7 @@
       <c r="F387" s="7"/>
       <c r="G387" s="15"/>
       <c r="H387" s="7"/>
-      <c r="I387" s="18"/>
+      <c r="I387" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75">
       <c r="A388" s="9"/>
@@ -4919,7 +4907,7 @@
       <c r="F388" s="7"/>
       <c r="G388" s="15"/>
       <c r="H388" s="7"/>
-      <c r="I388" s="18"/>
+      <c r="I388" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75">
       <c r="A389" s="9"/>
@@ -4930,7 +4918,7 @@
       <c r="F389" s="7"/>
       <c r="G389" s="15"/>
       <c r="H389" s="7"/>
-      <c r="I389" s="18"/>
+      <c r="I389" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75">
       <c r="A390" s="9"/>
@@ -4941,7 +4929,7 @@
       <c r="F390" s="7"/>
       <c r="G390" s="15"/>
       <c r="H390" s="7"/>
-      <c r="I390" s="18"/>
+      <c r="I390" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75">
       <c r="A391" s="9"/>
@@ -4952,7 +4940,7 @@
       <c r="F391" s="7"/>
       <c r="G391" s="15"/>
       <c r="H391" s="7"/>
-      <c r="I391" s="18"/>
+      <c r="I391" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75">
       <c r="A392" s="9"/>
@@ -4963,7 +4951,7 @@
       <c r="F392" s="7"/>
       <c r="G392" s="15"/>
       <c r="H392" s="7"/>
-      <c r="I392" s="18"/>
+      <c r="I392" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75">
       <c r="A393" s="9"/>
@@ -4974,7 +4962,7 @@
       <c r="F393" s="7"/>
       <c r="G393" s="15"/>
       <c r="H393" s="7"/>
-      <c r="I393" s="18"/>
+      <c r="I393" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75">
       <c r="A394" s="9"/>
@@ -4985,7 +4973,7 @@
       <c r="F394" s="7"/>
       <c r="G394" s="15"/>
       <c r="H394" s="7"/>
-      <c r="I394" s="18"/>
+      <c r="I394" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75">
       <c r="A395" s="9"/>
@@ -4996,7 +4984,7 @@
       <c r="F395" s="7"/>
       <c r="G395" s="15"/>
       <c r="H395" s="7"/>
-      <c r="I395" s="18"/>
+      <c r="I395" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75">
       <c r="A396" s="9"/>
@@ -5007,7 +4995,7 @@
       <c r="F396" s="7"/>
       <c r="G396" s="15"/>
       <c r="H396" s="7"/>
-      <c r="I396" s="18"/>
+      <c r="I396" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75">
       <c r="A397" s="9"/>
@@ -5018,7 +5006,7 @@
       <c r="F397" s="7"/>
       <c r="G397" s="15"/>
       <c r="H397" s="7"/>
-      <c r="I397" s="18"/>
+      <c r="I397" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75">
       <c r="A398" s="9"/>
@@ -5029,7 +5017,7 @@
       <c r="F398" s="7"/>
       <c r="G398" s="15"/>
       <c r="H398" s="7"/>
-      <c r="I398" s="18"/>
+      <c r="I398" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75">
       <c r="A399" s="9"/>
@@ -5040,7 +5028,7 @@
       <c r="F399" s="7"/>
       <c r="G399" s="15"/>
       <c r="H399" s="7"/>
-      <c r="I399" s="18"/>
+      <c r="I399" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="15.75">
       <c r="A400" s="9"/>
@@ -5051,7 +5039,7 @@
       <c r="F400" s="7"/>
       <c r="G400" s="15"/>
       <c r="H400" s="7"/>
-      <c r="I400" s="18"/>
+      <c r="I400" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="15.75">
       <c r="A401" s="9"/>
@@ -5062,7 +5050,7 @@
       <c r="F401" s="7"/>
       <c r="G401" s="15"/>
       <c r="H401" s="7"/>
-      <c r="I401" s="18"/>
+      <c r="I401" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75">
       <c r="A402" s="9"/>
@@ -5073,7 +5061,7 @@
       <c r="F402" s="7"/>
       <c r="G402" s="15"/>
       <c r="H402" s="7"/>
-      <c r="I402" s="18"/>
+      <c r="I402" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75">
       <c r="A403" s="9"/>
@@ -5084,7 +5072,7 @@
       <c r="F403" s="7"/>
       <c r="G403" s="15"/>
       <c r="H403" s="7"/>
-      <c r="I403" s="18"/>
+      <c r="I403" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75">
       <c r="A404" s="9"/>
@@ -5095,7 +5083,7 @@
       <c r="F404" s="7"/>
       <c r="G404" s="15"/>
       <c r="H404" s="7"/>
-      <c r="I404" s="18"/>
+      <c r="I404" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75">
       <c r="A405" s="9"/>
@@ -5106,7 +5094,7 @@
       <c r="F405" s="7"/>
       <c r="G405" s="15"/>
       <c r="H405" s="7"/>
-      <c r="I405" s="18"/>
+      <c r="I405" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75">
       <c r="A406" s="9"/>
@@ -5117,7 +5105,7 @@
       <c r="F406" s="7"/>
       <c r="G406" s="15"/>
       <c r="H406" s="7"/>
-      <c r="I406" s="18"/>
+      <c r="I406" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75">
       <c r="A407" s="9"/>
@@ -5128,7 +5116,7 @@
       <c r="F407" s="7"/>
       <c r="G407" s="15"/>
       <c r="H407" s="7"/>
-      <c r="I407" s="18"/>
+      <c r="I407" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="15.75">
       <c r="A408" s="9"/>
@@ -5139,7 +5127,7 @@
       <c r="F408" s="7"/>
       <c r="G408" s="15"/>
       <c r="H408" s="7"/>
-      <c r="I408" s="18"/>
+      <c r="I408" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="15.75">
       <c r="A409" s="9"/>
@@ -5150,7 +5138,7 @@
       <c r="F409" s="7"/>
       <c r="G409" s="15"/>
       <c r="H409" s="7"/>
-      <c r="I409" s="18"/>
+      <c r="I409" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75">
       <c r="A410" s="9"/>
@@ -5161,7 +5149,7 @@
       <c r="F410" s="7"/>
       <c r="G410" s="15"/>
       <c r="H410" s="7"/>
-      <c r="I410" s="18"/>
+      <c r="I410" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75">
       <c r="A411" s="9"/>
@@ -5172,7 +5160,7 @@
       <c r="F411" s="7"/>
       <c r="G411" s="15"/>
       <c r="H411" s="7"/>
-      <c r="I411" s="18"/>
+      <c r="I411" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75">
       <c r="A412" s="9"/>
@@ -5183,7 +5171,7 @@
       <c r="F412" s="7"/>
       <c r="G412" s="15"/>
       <c r="H412" s="7"/>
-      <c r="I412" s="18"/>
+      <c r="I412" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75">
       <c r="A413" s="9"/>
@@ -5194,7 +5182,7 @@
       <c r="F413" s="7"/>
       <c r="G413" s="15"/>
       <c r="H413" s="7"/>
-      <c r="I413" s="18"/>
+      <c r="I413" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75">
       <c r="A414" s="9"/>
@@ -5205,7 +5193,7 @@
       <c r="F414" s="7"/>
       <c r="G414" s="15"/>
       <c r="H414" s="7"/>
-      <c r="I414" s="18"/>
+      <c r="I414" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75">
       <c r="A415" s="9"/>
@@ -5216,7 +5204,7 @@
       <c r="F415" s="7"/>
       <c r="G415" s="15"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="18"/>
+      <c r="I415" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75">
       <c r="A416" s="9"/>
@@ -5227,7 +5215,7 @@
       <c r="F416" s="7"/>
       <c r="G416" s="15"/>
       <c r="H416" s="7"/>
-      <c r="I416" s="18"/>
+      <c r="I416" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75">
       <c r="A417" s="9"/>
@@ -5238,7 +5226,7 @@
       <c r="F417" s="7"/>
       <c r="G417" s="15"/>
       <c r="H417" s="7"/>
-      <c r="I417" s="18"/>
+      <c r="I417" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75">
       <c r="A418" s="9"/>
@@ -5249,7 +5237,7 @@
       <c r="F418" s="7"/>
       <c r="G418" s="15"/>
       <c r="H418" s="7"/>
-      <c r="I418" s="18"/>
+      <c r="I418" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75">
       <c r="A419" s="9"/>
@@ -5260,7 +5248,7 @@
       <c r="F419" s="7"/>
       <c r="G419" s="15"/>
       <c r="H419" s="7"/>
-      <c r="I419" s="18"/>
+      <c r="I419" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75">
       <c r="A420" s="9"/>
@@ -5271,7 +5259,7 @@
       <c r="F420" s="7"/>
       <c r="G420" s="15"/>
       <c r="H420" s="7"/>
-      <c r="I420" s="18"/>
+      <c r="I420" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75">
       <c r="A421" s="9"/>
@@ -5282,7 +5270,7 @@
       <c r="F421" s="7"/>
       <c r="G421" s="15"/>
       <c r="H421" s="7"/>
-      <c r="I421" s="18"/>
+      <c r="I421" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75">
       <c r="A422" s="9"/>
@@ -5293,7 +5281,7 @@
       <c r="F422" s="7"/>
       <c r="G422" s="15"/>
       <c r="H422" s="7"/>
-      <c r="I422" s="18"/>
+      <c r="I422" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75">
       <c r="A423" s="9"/>
@@ -5304,7 +5292,7 @@
       <c r="F423" s="7"/>
       <c r="G423" s="15"/>
       <c r="H423" s="7"/>
-      <c r="I423" s="18"/>
+      <c r="I423" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75">
       <c r="A424" s="9"/>
@@ -5315,7 +5303,7 @@
       <c r="F424" s="7"/>
       <c r="G424" s="15"/>
       <c r="H424" s="7"/>
-      <c r="I424" s="18"/>
+      <c r="I424" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75">
       <c r="A425" s="9"/>
@@ -5326,7 +5314,7 @@
       <c r="F425" s="7"/>
       <c r="G425" s="15"/>
       <c r="H425" s="7"/>
-      <c r="I425" s="18"/>
+      <c r="I425" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75">
       <c r="A426" s="9"/>
@@ -5337,7 +5325,7 @@
       <c r="F426" s="7"/>
       <c r="G426" s="15"/>
       <c r="H426" s="7"/>
-      <c r="I426" s="18"/>
+      <c r="I426" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75">
       <c r="A427" s="9"/>
@@ -5348,7 +5336,7 @@
       <c r="F427" s="7"/>
       <c r="G427" s="15"/>
       <c r="H427" s="7"/>
-      <c r="I427" s="18"/>
+      <c r="I427" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75">
       <c r="A428" s="9"/>
@@ -5359,7 +5347,7 @@
       <c r="F428" s="7"/>
       <c r="G428" s="15"/>
       <c r="H428" s="7"/>
-      <c r="I428" s="18"/>
+      <c r="I428" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75">
       <c r="A429" s="9"/>
@@ -5370,7 +5358,7 @@
       <c r="F429" s="7"/>
       <c r="G429" s="15"/>
       <c r="H429" s="7"/>
-      <c r="I429" s="18"/>
+      <c r="I429" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75">
       <c r="A430" s="9"/>
@@ -5381,7 +5369,7 @@
       <c r="F430" s="7"/>
       <c r="G430" s="15"/>
       <c r="H430" s="7"/>
-      <c r="I430" s="18"/>
+      <c r="I430" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75">
       <c r="A431" s="9"/>
@@ -5392,7 +5380,7 @@
       <c r="F431" s="7"/>
       <c r="G431" s="15"/>
       <c r="H431" s="7"/>
-      <c r="I431" s="18"/>
+      <c r="I431" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75">
       <c r="A432" s="9"/>
@@ -5403,7 +5391,7 @@
       <c r="F432" s="7"/>
       <c r="G432" s="15"/>
       <c r="H432" s="7"/>
-      <c r="I432" s="18"/>
+      <c r="I432" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75">
       <c r="A433" s="9"/>
@@ -5414,7 +5402,7 @@
       <c r="F433" s="7"/>
       <c r="G433" s="15"/>
       <c r="H433" s="7"/>
-      <c r="I433" s="18"/>
+      <c r="I433" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75">
       <c r="A434" s="9"/>
@@ -5425,7 +5413,7 @@
       <c r="F434" s="7"/>
       <c r="G434" s="15"/>
       <c r="H434" s="7"/>
-      <c r="I434" s="18"/>
+      <c r="I434" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75">
       <c r="A435" s="9"/>
@@ -5436,7 +5424,7 @@
       <c r="F435" s="7"/>
       <c r="G435" s="15"/>
       <c r="H435" s="7"/>
-      <c r="I435" s="18"/>
+      <c r="I435" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75">
       <c r="A436" s="9"/>
@@ -5447,7 +5435,7 @@
       <c r="F436" s="7"/>
       <c r="G436" s="15"/>
       <c r="H436" s="7"/>
-      <c r="I436" s="18"/>
+      <c r="I436" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75">
       <c r="A437" s="9"/>
@@ -5458,7 +5446,7 @@
       <c r="F437" s="7"/>
       <c r="G437" s="15"/>
       <c r="H437" s="7"/>
-      <c r="I437" s="18"/>
+      <c r="I437" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75">
       <c r="A438" s="9"/>
@@ -5469,7 +5457,7 @@
       <c r="F438" s="7"/>
       <c r="G438" s="15"/>
       <c r="H438" s="7"/>
-      <c r="I438" s="18"/>
+      <c r="I438" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75">
       <c r="A439" s="9"/>
@@ -5480,7 +5468,7 @@
       <c r="F439" s="7"/>
       <c r="G439" s="15"/>
       <c r="H439" s="7"/>
-      <c r="I439" s="18"/>
+      <c r="I439" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75">
       <c r="A440" s="9"/>
@@ -5491,7 +5479,7 @@
       <c r="F440" s="7"/>
       <c r="G440" s="15"/>
       <c r="H440" s="7"/>
-      <c r="I440" s="18"/>
+      <c r="I440" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75">
       <c r="A441" s="9"/>
@@ -5502,7 +5490,7 @@
       <c r="F441" s="7"/>
       <c r="G441" s="15"/>
       <c r="H441" s="7"/>
-      <c r="I441" s="18"/>
+      <c r="I441" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75">
       <c r="A442" s="9"/>
@@ -5513,7 +5501,7 @@
       <c r="F442" s="7"/>
       <c r="G442" s="15"/>
       <c r="H442" s="7"/>
-      <c r="I442" s="18"/>
+      <c r="I442" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75">
       <c r="A443" s="9"/>
@@ -5524,7 +5512,7 @@
       <c r="F443" s="7"/>
       <c r="G443" s="15"/>
       <c r="H443" s="7"/>
-      <c r="I443" s="18"/>
+      <c r="I443" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75">
       <c r="A444" s="9"/>
@@ -5535,7 +5523,7 @@
       <c r="F444" s="7"/>
       <c r="G444" s="15"/>
       <c r="H444" s="7"/>
-      <c r="I444" s="18"/>
+      <c r="I444" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75">
       <c r="A445" s="9"/>
@@ -5546,7 +5534,7 @@
       <c r="F445" s="7"/>
       <c r="G445" s="15"/>
       <c r="H445" s="7"/>
-      <c r="I445" s="18"/>
+      <c r="I445" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75">
       <c r="A446" s="9"/>
@@ -5557,7 +5545,7 @@
       <c r="F446" s="7"/>
       <c r="G446" s="15"/>
       <c r="H446" s="7"/>
-      <c r="I446" s="18"/>
+      <c r="I446" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75">
       <c r="A447" s="9"/>
@@ -5568,7 +5556,7 @@
       <c r="F447" s="7"/>
       <c r="G447" s="15"/>
       <c r="H447" s="7"/>
-      <c r="I447" s="18"/>
+      <c r="I447" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75">
       <c r="A448" s="9"/>
@@ -5579,7 +5567,7 @@
       <c r="F448" s="7"/>
       <c r="G448" s="15"/>
       <c r="H448" s="7"/>
-      <c r="I448" s="18"/>
+      <c r="I448" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75">
       <c r="A449" s="9"/>
@@ -5590,7 +5578,7 @@
       <c r="F449" s="7"/>
       <c r="G449" s="15"/>
       <c r="H449" s="7"/>
-      <c r="I449" s="18"/>
+      <c r="I449" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75">
       <c r="A450" s="9"/>
@@ -5601,7 +5589,7 @@
       <c r="F450" s="7"/>
       <c r="G450" s="15"/>
       <c r="H450" s="7"/>
-      <c r="I450" s="18"/>
+      <c r="I450" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75">
       <c r="A451" s="9"/>
@@ -5612,7 +5600,7 @@
       <c r="F451" s="7"/>
       <c r="G451" s="15"/>
       <c r="H451" s="7"/>
-      <c r="I451" s="18"/>
+      <c r="I451" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75">
       <c r="A452" s="9"/>
@@ -5623,7 +5611,7 @@
       <c r="F452" s="7"/>
       <c r="G452" s="15"/>
       <c r="H452" s="7"/>
-      <c r="I452" s="18"/>
+      <c r="I452" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75">
       <c r="A453" s="9"/>
@@ -5634,7 +5622,7 @@
       <c r="F453" s="7"/>
       <c r="G453" s="15"/>
       <c r="H453" s="7"/>
-      <c r="I453" s="18"/>
+      <c r="I453" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75">
       <c r="A454" s="9"/>
@@ -5645,7 +5633,7 @@
       <c r="F454" s="7"/>
       <c r="G454" s="15"/>
       <c r="H454" s="7"/>
-      <c r="I454" s="18"/>
+      <c r="I454" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75">
       <c r="A455" s="9"/>
@@ -5656,7 +5644,7 @@
       <c r="F455" s="7"/>
       <c r="G455" s="15"/>
       <c r="H455" s="7"/>
-      <c r="I455" s="18"/>
+      <c r="I455" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75">
       <c r="A456" s="9"/>
@@ -5667,7 +5655,7 @@
       <c r="F456" s="7"/>
       <c r="G456" s="15"/>
       <c r="H456" s="7"/>
-      <c r="I456" s="18"/>
+      <c r="I456" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75">
       <c r="A457" s="9"/>
@@ -5678,7 +5666,7 @@
       <c r="F457" s="7"/>
       <c r="G457" s="15"/>
       <c r="H457" s="7"/>
-      <c r="I457" s="18"/>
+      <c r="I457" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75">
       <c r="A458" s="9"/>
@@ -5689,7 +5677,7 @@
       <c r="F458" s="7"/>
       <c r="G458" s="15"/>
       <c r="H458" s="7"/>
-      <c r="I458" s="18"/>
+      <c r="I458" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75">
       <c r="A459" s="9"/>
@@ -5700,7 +5688,7 @@
       <c r="F459" s="7"/>
       <c r="G459" s="15"/>
       <c r="H459" s="7"/>
-      <c r="I459" s="18"/>
+      <c r="I459" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75">
       <c r="A460" s="9"/>
@@ -5711,7 +5699,7 @@
       <c r="F460" s="7"/>
       <c r="G460" s="15"/>
       <c r="H460" s="7"/>
-      <c r="I460" s="18"/>
+      <c r="I460" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75">
       <c r="A461" s="9"/>
@@ -5722,7 +5710,7 @@
       <c r="F461" s="7"/>
       <c r="G461" s="15"/>
       <c r="H461" s="7"/>
-      <c r="I461" s="18"/>
+      <c r="I461" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75">
       <c r="A462" s="9"/>
@@ -5733,7 +5721,7 @@
       <c r="F462" s="7"/>
       <c r="G462" s="15"/>
       <c r="H462" s="7"/>
-      <c r="I462" s="18"/>
+      <c r="I462" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75">
       <c r="A463" s="9"/>
@@ -5744,7 +5732,7 @@
       <c r="F463" s="7"/>
       <c r="G463" s="15"/>
       <c r="H463" s="7"/>
-      <c r="I463" s="18"/>
+      <c r="I463" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75">
       <c r="A464" s="9"/>
@@ -5755,7 +5743,7 @@
       <c r="F464" s="7"/>
       <c r="G464" s="15"/>
       <c r="H464" s="7"/>
-      <c r="I464" s="18"/>
+      <c r="I464" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75">
       <c r="A465" s="9"/>
@@ -5766,7 +5754,7 @@
       <c r="F465" s="7"/>
       <c r="G465" s="15"/>
       <c r="H465" s="7"/>
-      <c r="I465" s="18"/>
+      <c r="I465" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75">
       <c r="A466" s="9"/>
@@ -5777,7 +5765,7 @@
       <c r="F466" s="7"/>
       <c r="G466" s="15"/>
       <c r="H466" s="7"/>
-      <c r="I466" s="18"/>
+      <c r="I466" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75">
       <c r="A467" s="9"/>
@@ -5788,7 +5776,7 @@
       <c r="F467" s="7"/>
       <c r="G467" s="15"/>
       <c r="H467" s="7"/>
-      <c r="I467" s="18"/>
+      <c r="I467" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75">
       <c r="A468" s="9"/>
@@ -5799,7 +5787,7 @@
       <c r="F468" s="7"/>
       <c r="G468" s="15"/>
       <c r="H468" s="7"/>
-      <c r="I468" s="18"/>
+      <c r="I468" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75">
       <c r="A469" s="9"/>
@@ -5810,7 +5798,7 @@
       <c r="F469" s="7"/>
       <c r="G469" s="15"/>
       <c r="H469" s="7"/>
-      <c r="I469" s="18"/>
+      <c r="I469" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="15.75">
       <c r="A470" s="9"/>
@@ -5821,7 +5809,7 @@
       <c r="F470" s="7"/>
       <c r="G470" s="15"/>
       <c r="H470" s="7"/>
-      <c r="I470" s="18"/>
+      <c r="I470" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="15.75">
       <c r="A471" s="9"/>
@@ -5832,7 +5820,7 @@
       <c r="F471" s="7"/>
       <c r="G471" s="15"/>
       <c r="H471" s="7"/>
-      <c r="I471" s="18"/>
+      <c r="I471" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75">
       <c r="A472" s="9"/>
@@ -5843,7 +5831,7 @@
       <c r="F472" s="7"/>
       <c r="G472" s="15"/>
       <c r="H472" s="7"/>
-      <c r="I472" s="18"/>
+      <c r="I472" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75">
       <c r="A473" s="9"/>
@@ -5854,7 +5842,7 @@
       <c r="F473" s="7"/>
       <c r="G473" s="15"/>
       <c r="H473" s="7"/>
-      <c r="I473" s="18"/>
+      <c r="I473" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75">
       <c r="A474" s="9"/>
@@ -5865,7 +5853,7 @@
       <c r="F474" s="7"/>
       <c r="G474" s="15"/>
       <c r="H474" s="7"/>
-      <c r="I474" s="18"/>
+      <c r="I474" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75">
       <c r="A475" s="9"/>
@@ -5876,7 +5864,7 @@
       <c r="F475" s="7"/>
       <c r="G475" s="15"/>
       <c r="H475" s="7"/>
-      <c r="I475" s="18"/>
+      <c r="I475" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75">
       <c r="A476" s="9"/>
@@ -5887,7 +5875,7 @@
       <c r="F476" s="7"/>
       <c r="G476" s="15"/>
       <c r="H476" s="7"/>
-      <c r="I476" s="18"/>
+      <c r="I476" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75">
       <c r="A477" s="9"/>
@@ -5898,7 +5886,7 @@
       <c r="F477" s="7"/>
       <c r="G477" s="15"/>
       <c r="H477" s="7"/>
-      <c r="I477" s="18"/>
+      <c r="I477" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75">
       <c r="A478" s="9"/>
@@ -5909,7 +5897,7 @@
       <c r="F478" s="7"/>
       <c r="G478" s="15"/>
       <c r="H478" s="7"/>
-      <c r="I478" s="18"/>
+      <c r="I478" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75">
       <c r="A479" s="9"/>
@@ -5920,7 +5908,7 @@
       <c r="F479" s="7"/>
       <c r="G479" s="15"/>
       <c r="H479" s="7"/>
-      <c r="I479" s="18"/>
+      <c r="I479" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75">
       <c r="A480" s="9"/>
@@ -5931,7 +5919,7 @@
       <c r="F480" s="7"/>
       <c r="G480" s="15"/>
       <c r="H480" s="7"/>
-      <c r="I480" s="18"/>
+      <c r="I480" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75">
       <c r="A481" s="9"/>
@@ -5942,7 +5930,7 @@
       <c r="F481" s="7"/>
       <c r="G481" s="15"/>
       <c r="H481" s="7"/>
-      <c r="I481" s="18"/>
+      <c r="I481" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75">
       <c r="A482" s="9"/>
@@ -5953,7 +5941,7 @@
       <c r="F482" s="7"/>
       <c r="G482" s="15"/>
       <c r="H482" s="7"/>
-      <c r="I482" s="18"/>
+      <c r="I482" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="15.75">
       <c r="A483" s="9"/>
@@ -5964,7 +5952,7 @@
       <c r="F483" s="7"/>
       <c r="G483" s="15"/>
       <c r="H483" s="7"/>
-      <c r="I483" s="18"/>
+      <c r="I483" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="15.75">
       <c r="A484" s="9"/>
@@ -5975,7 +5963,7 @@
       <c r="F484" s="7"/>
       <c r="G484" s="15"/>
       <c r="H484" s="7"/>
-      <c r="I484" s="18"/>
+      <c r="I484" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="15.75">
       <c r="A485" s="9"/>
@@ -5986,7 +5974,7 @@
       <c r="F485" s="7"/>
       <c r="G485" s="15"/>
       <c r="H485" s="7"/>
-      <c r="I485" s="18"/>
+      <c r="I485" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="15.75">
       <c r="A486" s="9"/>
@@ -5997,7 +5985,7 @@
       <c r="F486" s="7"/>
       <c r="G486" s="15"/>
       <c r="H486" s="7"/>
-      <c r="I486" s="18"/>
+      <c r="I486" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="15.75">
       <c r="A487" s="9"/>
@@ -6008,7 +5996,7 @@
       <c r="F487" s="7"/>
       <c r="G487" s="15"/>
       <c r="H487" s="7"/>
-      <c r="I487" s="18"/>
+      <c r="I487" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="15.75">
       <c r="A488" s="9"/>
@@ -6019,7 +6007,7 @@
       <c r="F488" s="7"/>
       <c r="G488" s="15"/>
       <c r="H488" s="7"/>
-      <c r="I488" s="18"/>
+      <c r="I488" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="15.75">
       <c r="A489" s="9"/>
@@ -6030,7 +6018,7 @@
       <c r="F489" s="7"/>
       <c r="G489" s="15"/>
       <c r="H489" s="7"/>
-      <c r="I489" s="18"/>
+      <c r="I489" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="15.75">
       <c r="A490" s="9"/>
@@ -6041,7 +6029,7 @@
       <c r="F490" s="7"/>
       <c r="G490" s="15"/>
       <c r="H490" s="7"/>
-      <c r="I490" s="18"/>
+      <c r="I490" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="15.75">
       <c r="A491" s="9"/>
@@ -6052,7 +6040,7 @@
       <c r="F491" s="7"/>
       <c r="G491" s="15"/>
       <c r="H491" s="7"/>
-      <c r="I491" s="18"/>
+      <c r="I491" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="15.75">
       <c r="A492" s="9"/>
@@ -6063,7 +6051,7 @@
       <c r="F492" s="7"/>
       <c r="G492" s="15"/>
       <c r="H492" s="7"/>
-      <c r="I492" s="18"/>
+      <c r="I492" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="15.75">
       <c r="A493" s="9"/>
@@ -6074,7 +6062,7 @@
       <c r="F493" s="7"/>
       <c r="G493" s="15"/>
       <c r="H493" s="7"/>
-      <c r="I493" s="18"/>
+      <c r="I493" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="15.75">
       <c r="A494" s="9"/>
@@ -6085,7 +6073,7 @@
       <c r="F494" s="7"/>
       <c r="G494" s="15"/>
       <c r="H494" s="7"/>
-      <c r="I494" s="18"/>
+      <c r="I494" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="15.75">
       <c r="A495" s="9"/>
@@ -6096,7 +6084,7 @@
       <c r="F495" s="7"/>
       <c r="G495" s="15"/>
       <c r="H495" s="7"/>
-      <c r="I495" s="18"/>
+      <c r="I495" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="15.75">
       <c r="A496" s="9"/>
@@ -6107,7 +6095,7 @@
       <c r="F496" s="7"/>
       <c r="G496" s="15"/>
       <c r="H496" s="7"/>
-      <c r="I496" s="18"/>
+      <c r="I496" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="15.75">
       <c r="A497" s="9"/>
@@ -6118,7 +6106,7 @@
       <c r="F497" s="7"/>
       <c r="G497" s="15"/>
       <c r="H497" s="7"/>
-      <c r="I497" s="18"/>
+      <c r="I497" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="15.75">
       <c r="A498" s="9"/>
@@ -6129,7 +6117,7 @@
       <c r="F498" s="7"/>
       <c r="G498" s="15"/>
       <c r="H498" s="7"/>
-      <c r="I498" s="18"/>
+      <c r="I498" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="15.75">
       <c r="A499" s="9"/>
@@ -6140,7 +6128,7 @@
       <c r="F499" s="7"/>
       <c r="G499" s="15"/>
       <c r="H499" s="7"/>
-      <c r="I499" s="18"/>
+      <c r="I499" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="15.75">
       <c r="A500" s="9"/>
@@ -6151,7 +6139,7 @@
       <c r="F500" s="7"/>
       <c r="G500" s="15"/>
       <c r="H500" s="7"/>
-      <c r="I500" s="18"/>
+      <c r="I500" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="15.75">
       <c r="A501" s="9"/>
@@ -6162,7 +6150,7 @@
       <c r="F501" s="7"/>
       <c r="G501" s="15"/>
       <c r="H501" s="7"/>
-      <c r="I501" s="18"/>
+      <c r="I501" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="15.75">
       <c r="A502" s="9"/>
@@ -6173,7 +6161,7 @@
       <c r="F502" s="7"/>
       <c r="G502" s="15"/>
       <c r="H502" s="7"/>
-      <c r="I502" s="18"/>
+      <c r="I502" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="15.75">
       <c r="A503" s="9"/>
@@ -6184,7 +6172,7 @@
       <c r="F503" s="7"/>
       <c r="G503" s="15"/>
       <c r="H503" s="7"/>
-      <c r="I503" s="18"/>
+      <c r="I503" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="15.75">
       <c r="A504" s="9"/>
@@ -6195,7 +6183,7 @@
       <c r="F504" s="7"/>
       <c r="G504" s="15"/>
       <c r="H504" s="7"/>
-      <c r="I504" s="18"/>
+      <c r="I504" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="15.75">
       <c r="A505" s="9"/>
@@ -6206,7 +6194,7 @@
       <c r="F505" s="7"/>
       <c r="G505" s="15"/>
       <c r="H505" s="7"/>
-      <c r="I505" s="18"/>
+      <c r="I505" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="15.75">
       <c r="A506" s="9"/>
@@ -6217,7 +6205,7 @@
       <c r="F506" s="7"/>
       <c r="G506" s="15"/>
       <c r="H506" s="7"/>
-      <c r="I506" s="18"/>
+      <c r="I506" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="15.75">
       <c r="A507" s="9"/>
@@ -6228,7 +6216,7 @@
       <c r="F507" s="7"/>
       <c r="G507" s="15"/>
       <c r="H507" s="7"/>
-      <c r="I507" s="18"/>
+      <c r="I507" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="15.75">
       <c r="A508" s="9"/>
@@ -6239,7 +6227,7 @@
       <c r="F508" s="7"/>
       <c r="G508" s="15"/>
       <c r="H508" s="7"/>
-      <c r="I508" s="18"/>
+      <c r="I508" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="15.75">
       <c r="A509" s="9"/>
@@ -6250,7 +6238,7 @@
       <c r="F509" s="7"/>
       <c r="G509" s="15"/>
       <c r="H509" s="7"/>
-      <c r="I509" s="18"/>
+      <c r="I509" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="15.75">
       <c r="A510" s="9"/>
@@ -6261,7 +6249,7 @@
       <c r="F510" s="7"/>
       <c r="G510" s="15"/>
       <c r="H510" s="7"/>
-      <c r="I510" s="18"/>
+      <c r="I510" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="15.75">
       <c r="A511" s="9"/>
@@ -6272,7 +6260,7 @@
       <c r="F511" s="7"/>
       <c r="G511" s="15"/>
       <c r="H511" s="7"/>
-      <c r="I511" s="18"/>
+      <c r="I511" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="15.75">
       <c r="A512" s="9"/>
@@ -6283,7 +6271,7 @@
       <c r="F512" s="7"/>
       <c r="G512" s="15"/>
       <c r="H512" s="7"/>
-      <c r="I512" s="18"/>
+      <c r="I512" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="15.75">
       <c r="A513" s="9"/>
@@ -6294,7 +6282,7 @@
       <c r="F513" s="7"/>
       <c r="G513" s="15"/>
       <c r="H513" s="7"/>
-      <c r="I513" s="18"/>
+      <c r="I513" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="15.75">
       <c r="A514" s="9"/>
@@ -6305,7 +6293,7 @@
       <c r="F514" s="7"/>
       <c r="G514" s="15"/>
       <c r="H514" s="7"/>
-      <c r="I514" s="18"/>
+      <c r="I514" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="15.75">
       <c r="A515" s="9"/>
@@ -6316,7 +6304,7 @@
       <c r="F515" s="7"/>
       <c r="G515" s="15"/>
       <c r="H515" s="7"/>
-      <c r="I515" s="18"/>
+      <c r="I515" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="15.75">
       <c r="A516" s="9"/>
@@ -6327,7 +6315,7 @@
       <c r="F516" s="7"/>
       <c r="G516" s="15"/>
       <c r="H516" s="7"/>
-      <c r="I516" s="18"/>
+      <c r="I516" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="15.75">
       <c r="A517" s="9"/>
@@ -6338,7 +6326,7 @@
       <c r="F517" s="7"/>
       <c r="G517" s="15"/>
       <c r="H517" s="7"/>
-      <c r="I517" s="18"/>
+      <c r="I517" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="15.75">
       <c r="A518" s="9"/>
@@ -6349,7 +6337,7 @@
       <c r="F518" s="7"/>
       <c r="G518" s="15"/>
       <c r="H518" s="7"/>
-      <c r="I518" s="18"/>
+      <c r="I518" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="15.75">
       <c r="A519" s="9"/>
@@ -6360,7 +6348,7 @@
       <c r="F519" s="7"/>
       <c r="G519" s="15"/>
       <c r="H519" s="7"/>
-      <c r="I519" s="18"/>
+      <c r="I519" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="15.75">
       <c r="A520" s="9"/>
@@ -6371,7 +6359,7 @@
       <c r="F520" s="7"/>
       <c r="G520" s="15"/>
       <c r="H520" s="7"/>
-      <c r="I520" s="18"/>
+      <c r="I520" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="15.75">
       <c r="A521" s="9"/>
@@ -6382,7 +6370,7 @@
       <c r="F521" s="7"/>
       <c r="G521" s="15"/>
       <c r="H521" s="7"/>
-      <c r="I521" s="18"/>
+      <c r="I521" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="15.75">
       <c r="A522" s="9"/>
@@ -6393,7 +6381,7 @@
       <c r="F522" s="7"/>
       <c r="G522" s="15"/>
       <c r="H522" s="7"/>
-      <c r="I522" s="18"/>
+      <c r="I522" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="15.75">
       <c r="A523" s="9"/>
@@ -6404,7 +6392,7 @@
       <c r="F523" s="7"/>
       <c r="G523" s="15"/>
       <c r="H523" s="7"/>
-      <c r="I523" s="18"/>
+      <c r="I523" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="15.75">
       <c r="A524" s="9"/>
@@ -6415,7 +6403,7 @@
       <c r="F524" s="7"/>
       <c r="G524" s="15"/>
       <c r="H524" s="7"/>
-      <c r="I524" s="18"/>
+      <c r="I524" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="15.75">
       <c r="A525" s="9"/>
@@ -6426,7 +6414,7 @@
       <c r="F525" s="7"/>
       <c r="G525" s="15"/>
       <c r="H525" s="7"/>
-      <c r="I525" s="18"/>
+      <c r="I525" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="15.75">
       <c r="A526" s="9"/>
@@ -6437,7 +6425,7 @@
       <c r="F526" s="7"/>
       <c r="G526" s="15"/>
       <c r="H526" s="7"/>
-      <c r="I526" s="18"/>
+      <c r="I526" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="15.75">
       <c r="A527" s="9"/>
@@ -6448,7 +6436,7 @@
       <c r="F527" s="7"/>
       <c r="G527" s="15"/>
       <c r="H527" s="7"/>
-      <c r="I527" s="18"/>
+      <c r="I527" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="15.75">
       <c r="A528" s="9"/>
@@ -6459,7 +6447,7 @@
       <c r="F528" s="7"/>
       <c r="G528" s="15"/>
       <c r="H528" s="7"/>
-      <c r="I528" s="18"/>
+      <c r="I528" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="15.75">
       <c r="A529" s="9"/>
@@ -6470,7 +6458,7 @@
       <c r="F529" s="7"/>
       <c r="G529" s="15"/>
       <c r="H529" s="7"/>
-      <c r="I529" s="18"/>
+      <c r="I529" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="15.75">
       <c r="A530" s="9"/>
@@ -6481,7 +6469,7 @@
       <c r="F530" s="7"/>
       <c r="G530" s="15"/>
       <c r="H530" s="7"/>
-      <c r="I530" s="18"/>
+      <c r="I530" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="15.75">
       <c r="A531" s="9"/>
@@ -6492,7 +6480,7 @@
       <c r="F531" s="7"/>
       <c r="G531" s="15"/>
       <c r="H531" s="7"/>
-      <c r="I531" s="18"/>
+      <c r="I531" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="15.75">
       <c r="A532" s="9"/>
@@ -6503,7 +6491,7 @@
       <c r="F532" s="7"/>
       <c r="G532" s="15"/>
       <c r="H532" s="7"/>
-      <c r="I532" s="18"/>
+      <c r="I532" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="15.75">
       <c r="A533" s="9"/>
@@ -6514,7 +6502,7 @@
       <c r="F533" s="7"/>
       <c r="G533" s="15"/>
       <c r="H533" s="7"/>
-      <c r="I533" s="18"/>
+      <c r="I533" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="15.75">
       <c r="A534" s="9"/>
@@ -6525,7 +6513,7 @@
       <c r="F534" s="7"/>
       <c r="G534" s="15"/>
       <c r="H534" s="7"/>
-      <c r="I534" s="18"/>
+      <c r="I534" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="15.75">
       <c r="A535" s="9"/>
@@ -6536,7 +6524,7 @@
       <c r="F535" s="7"/>
       <c r="G535" s="15"/>
       <c r="H535" s="7"/>
-      <c r="I535" s="18"/>
+      <c r="I535" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="15.75">
       <c r="A536" s="9"/>
@@ -6547,7 +6535,7 @@
       <c r="F536" s="7"/>
       <c r="G536" s="15"/>
       <c r="H536" s="7"/>
-      <c r="I536" s="18"/>
+      <c r="I536" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="15.75">
       <c r="A537" s="9"/>
@@ -6558,7 +6546,7 @@
       <c r="F537" s="7"/>
       <c r="G537" s="15"/>
       <c r="H537" s="7"/>
-      <c r="I537" s="18"/>
+      <c r="I537" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="15.75">
       <c r="A538" s="9"/>
@@ -6569,7 +6557,7 @@
       <c r="F538" s="7"/>
       <c r="G538" s="15"/>
       <c r="H538" s="7"/>
-      <c r="I538" s="18"/>
+      <c r="I538" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="15.75">
       <c r="A539" s="9"/>
@@ -6580,7 +6568,7 @@
       <c r="F539" s="7"/>
       <c r="G539" s="15"/>
       <c r="H539" s="7"/>
-      <c r="I539" s="18"/>
+      <c r="I539" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="15.75">
       <c r="A540" s="9"/>
@@ -6591,7 +6579,7 @@
       <c r="F540" s="7"/>
       <c r="G540" s="15"/>
       <c r="H540" s="7"/>
-      <c r="I540" s="18"/>
+      <c r="I540" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="15.75">
       <c r="A541" s="9"/>
@@ -6602,7 +6590,7 @@
       <c r="F541" s="7"/>
       <c r="G541" s="15"/>
       <c r="H541" s="7"/>
-      <c r="I541" s="18"/>
+      <c r="I541" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="15.75">
       <c r="A542" s="9"/>
@@ -6613,7 +6601,7 @@
       <c r="F542" s="7"/>
       <c r="G542" s="15"/>
       <c r="H542" s="7"/>
-      <c r="I542" s="18"/>
+      <c r="I542" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="15.75">
       <c r="A543" s="9"/>
@@ -6624,7 +6612,7 @@
       <c r="F543" s="7"/>
       <c r="G543" s="15"/>
       <c r="H543" s="7"/>
-      <c r="I543" s="18"/>
+      <c r="I543" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="15.75">
       <c r="A544" s="9"/>
@@ -6635,7 +6623,7 @@
       <c r="F544" s="7"/>
       <c r="G544" s="15"/>
       <c r="H544" s="7"/>
-      <c r="I544" s="18"/>
+      <c r="I544" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="15.75">
       <c r="A545" s="9"/>
@@ -6646,7 +6634,7 @@
       <c r="F545" s="7"/>
       <c r="G545" s="15"/>
       <c r="H545" s="7"/>
-      <c r="I545" s="18"/>
+      <c r="I545" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="15.75">
       <c r="A546" s="9"/>
@@ -6657,7 +6645,7 @@
       <c r="F546" s="7"/>
       <c r="G546" s="15"/>
       <c r="H546" s="7"/>
-      <c r="I546" s="18"/>
+      <c r="I546" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="15.75">
       <c r="A547" s="9"/>
@@ -6668,7 +6656,7 @@
       <c r="F547" s="7"/>
       <c r="G547" s="15"/>
       <c r="H547" s="7"/>
-      <c r="I547" s="18"/>
+      <c r="I547" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="15.75">
       <c r="A548" s="9"/>
@@ -6679,7 +6667,7 @@
       <c r="F548" s="7"/>
       <c r="G548" s="15"/>
       <c r="H548" s="7"/>
-      <c r="I548" s="18"/>
+      <c r="I548" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="15.75">
       <c r="A549" s="9"/>
@@ -6690,7 +6678,7 @@
       <c r="F549" s="7"/>
       <c r="G549" s="15"/>
       <c r="H549" s="7"/>
-      <c r="I549" s="18"/>
+      <c r="I549" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="15.75">
       <c r="A550" s="9"/>
@@ -6701,7 +6689,7 @@
       <c r="F550" s="7"/>
       <c r="G550" s="15"/>
       <c r="H550" s="7"/>
-      <c r="I550" s="18"/>
+      <c r="I550" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="15.75">
       <c r="A551" s="9"/>
@@ -6712,7 +6700,7 @@
       <c r="F551" s="7"/>
       <c r="G551" s="15"/>
       <c r="H551" s="7"/>
-      <c r="I551" s="18"/>
+      <c r="I551" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="15.75">
       <c r="A552" s="9"/>
@@ -6723,7 +6711,7 @@
       <c r="F552" s="7"/>
       <c r="G552" s="15"/>
       <c r="H552" s="7"/>
-      <c r="I552" s="18"/>
+      <c r="I552" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="15.75">
       <c r="A553" s="9"/>
@@ -6734,7 +6722,7 @@
       <c r="F553" s="7"/>
       <c r="G553" s="15"/>
       <c r="H553" s="7"/>
-      <c r="I553" s="18"/>
+      <c r="I553" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="15.75">
       <c r="A554" s="9"/>
@@ -6745,7 +6733,7 @@
       <c r="F554" s="7"/>
       <c r="G554" s="15"/>
       <c r="H554" s="7"/>
-      <c r="I554" s="18"/>
+      <c r="I554" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="15.75">
       <c r="A555" s="9"/>
@@ -6756,7 +6744,7 @@
       <c r="F555" s="7"/>
       <c r="G555" s="15"/>
       <c r="H555" s="7"/>
-      <c r="I555" s="18"/>
+      <c r="I555" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="15.75">
       <c r="A556" s="9"/>
@@ -6767,7 +6755,7 @@
       <c r="F556" s="7"/>
       <c r="G556" s="15"/>
       <c r="H556" s="7"/>
-      <c r="I556" s="18"/>
+      <c r="I556" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="15.75">
       <c r="A557" s="9"/>
@@ -6778,7 +6766,7 @@
       <c r="F557" s="7"/>
       <c r="G557" s="15"/>
       <c r="H557" s="7"/>
-      <c r="I557" s="18"/>
+      <c r="I557" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="15.75">
       <c r="A558" s="9"/>
@@ -6789,7 +6777,7 @@
       <c r="F558" s="7"/>
       <c r="G558" s="15"/>
       <c r="H558" s="7"/>
-      <c r="I558" s="18"/>
+      <c r="I558" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="15.75">
       <c r="A559" s="9"/>
@@ -6800,7 +6788,7 @@
       <c r="F559" s="7"/>
       <c r="G559" s="15"/>
       <c r="H559" s="7"/>
-      <c r="I559" s="18"/>
+      <c r="I559" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="15.75">
       <c r="A560" s="9"/>
@@ -6811,7 +6799,7 @@
       <c r="F560" s="7"/>
       <c r="G560" s="15"/>
       <c r="H560" s="7"/>
-      <c r="I560" s="18"/>
+      <c r="I560" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="15.75">
       <c r="A561" s="9"/>
@@ -6822,7 +6810,7 @@
       <c r="F561" s="7"/>
       <c r="G561" s="15"/>
       <c r="H561" s="7"/>
-      <c r="I561" s="18"/>
+      <c r="I561" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="15.75">
       <c r="A562" s="9"/>
@@ -6833,7 +6821,7 @@
       <c r="F562" s="7"/>
       <c r="G562" s="15"/>
       <c r="H562" s="7"/>
-      <c r="I562" s="18"/>
+      <c r="I562" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="15.75">
       <c r="A563" s="9"/>
@@ -6844,7 +6832,7 @@
       <c r="F563" s="7"/>
       <c r="G563" s="15"/>
       <c r="H563" s="7"/>
-      <c r="I563" s="18"/>
+      <c r="I563" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="15.75">
       <c r="A564" s="9"/>
@@ -6855,7 +6843,7 @@
       <c r="F564" s="7"/>
       <c r="G564" s="15"/>
       <c r="H564" s="7"/>
-      <c r="I564" s="18"/>
+      <c r="I564" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="15.75">
       <c r="A565" s="9"/>
@@ -6866,7 +6854,7 @@
       <c r="F565" s="7"/>
       <c r="G565" s="15"/>
       <c r="H565" s="7"/>
-      <c r="I565" s="18"/>
+      <c r="I565" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="15.75">
       <c r="A566" s="9"/>
@@ -6877,7 +6865,7 @@
       <c r="F566" s="7"/>
       <c r="G566" s="15"/>
       <c r="H566" s="7"/>
-      <c r="I566" s="18"/>
+      <c r="I566" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="15.75">
       <c r="A567" s="9"/>
@@ -6888,7 +6876,7 @@
       <c r="F567" s="7"/>
       <c r="G567" s="15"/>
       <c r="H567" s="7"/>
-      <c r="I567" s="18"/>
+      <c r="I567" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="15.75">
       <c r="A568" s="9"/>
@@ -6899,7 +6887,7 @@
       <c r="F568" s="7"/>
       <c r="G568" s="15"/>
       <c r="H568" s="7"/>
-      <c r="I568" s="18"/>
+      <c r="I568" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="15.75">
       <c r="A569" s="9"/>
@@ -6910,7 +6898,7 @@
       <c r="F569" s="7"/>
       <c r="G569" s="15"/>
       <c r="H569" s="7"/>
-      <c r="I569" s="18"/>
+      <c r="I569" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="15.75">
       <c r="A570" s="9"/>
@@ -6921,7 +6909,7 @@
       <c r="F570" s="7"/>
       <c r="G570" s="15"/>
       <c r="H570" s="7"/>
-      <c r="I570" s="18"/>
+      <c r="I570" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="15.75">
       <c r="A571" s="9"/>
@@ -6932,7 +6920,7 @@
       <c r="F571" s="7"/>
       <c r="G571" s="15"/>
       <c r="H571" s="7"/>
-      <c r="I571" s="18"/>
+      <c r="I571" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="15.75">
       <c r="A572" s="9"/>
@@ -6943,7 +6931,7 @@
       <c r="F572" s="7"/>
       <c r="G572" s="15"/>
       <c r="H572" s="7"/>
-      <c r="I572" s="18"/>
+      <c r="I572" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="15.75">
       <c r="A573" s="9"/>
@@ -6954,7 +6942,7 @@
       <c r="F573" s="7"/>
       <c r="G573" s="15"/>
       <c r="H573" s="7"/>
-      <c r="I573" s="18"/>
+      <c r="I573" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="15.75">
       <c r="A574" s="9"/>
@@ -6965,7 +6953,7 @@
       <c r="F574" s="7"/>
       <c r="G574" s="15"/>
       <c r="H574" s="7"/>
-      <c r="I574" s="18"/>
+      <c r="I574" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="15.75">
       <c r="A575" s="9"/>
@@ -6976,7 +6964,7 @@
       <c r="F575" s="7"/>
       <c r="G575" s="15"/>
       <c r="H575" s="7"/>
-      <c r="I575" s="18"/>
+      <c r="I575" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="15.75">
       <c r="A576" s="9"/>
@@ -6987,7 +6975,7 @@
       <c r="F576" s="7"/>
       <c r="G576" s="15"/>
       <c r="H576" s="7"/>
-      <c r="I576" s="18"/>
+      <c r="I576" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="15.75">
       <c r="A577" s="9"/>
@@ -6998,7 +6986,7 @@
       <c r="F577" s="7"/>
       <c r="G577" s="15"/>
       <c r="H577" s="7"/>
-      <c r="I577" s="18"/>
+      <c r="I577" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="15.75">
       <c r="A578" s="9"/>
@@ -7009,7 +6997,7 @@
       <c r="F578" s="7"/>
       <c r="G578" s="15"/>
       <c r="H578" s="7"/>
-      <c r="I578" s="18"/>
+      <c r="I578" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="15.75">
       <c r="A579" s="9"/>
@@ -7020,7 +7008,7 @@
       <c r="F579" s="7"/>
       <c r="G579" s="15"/>
       <c r="H579" s="7"/>
-      <c r="I579" s="18"/>
+      <c r="I579" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="15.75">
       <c r="A580" s="9"/>
@@ -7031,7 +7019,7 @@
       <c r="F580" s="7"/>
       <c r="G580" s="15"/>
       <c r="H580" s="7"/>
-      <c r="I580" s="18"/>
+      <c r="I580" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="15.75">
       <c r="A581" s="9"/>
@@ -7042,7 +7030,7 @@
       <c r="F581" s="7"/>
       <c r="G581" s="15"/>
       <c r="H581" s="7"/>
-      <c r="I581" s="18"/>
+      <c r="I581" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="15.75">
       <c r="A582" s="9"/>
@@ -7053,7 +7041,7 @@
       <c r="F582" s="7"/>
       <c r="G582" s="15"/>
       <c r="H582" s="7"/>
-      <c r="I582" s="18"/>
+      <c r="I582" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="15.75">
       <c r="A583" s="9"/>
@@ -7064,7 +7052,7 @@
       <c r="F583" s="7"/>
       <c r="G583" s="15"/>
       <c r="H583" s="7"/>
-      <c r="I583" s="18"/>
+      <c r="I583" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="15.75">
       <c r="A584" s="9"/>
@@ -7075,7 +7063,7 @@
       <c r="F584" s="7"/>
       <c r="G584" s="15"/>
       <c r="H584" s="7"/>
-      <c r="I584" s="18"/>
+      <c r="I584" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="15.75">
       <c r="A585" s="9"/>
@@ -7086,7 +7074,7 @@
       <c r="F585" s="7"/>
       <c r="G585" s="15"/>
       <c r="H585" s="7"/>
-      <c r="I585" s="18"/>
+      <c r="I585" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="15.75">
       <c r="A586" s="9"/>
@@ -7097,7 +7085,7 @@
       <c r="F586" s="7"/>
       <c r="G586" s="15"/>
       <c r="H586" s="7"/>
-      <c r="I586" s="18"/>
+      <c r="I586" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="15.75">
       <c r="A587" s="9"/>
@@ -7108,7 +7096,7 @@
       <c r="F587" s="7"/>
       <c r="G587" s="15"/>
       <c r="H587" s="7"/>
-      <c r="I587" s="18"/>
+      <c r="I587" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="15.75">
       <c r="A588" s="9"/>
@@ -7119,7 +7107,7 @@
       <c r="F588" s="7"/>
       <c r="G588" s="15"/>
       <c r="H588" s="7"/>
-      <c r="I588" s="18"/>
+      <c r="I588" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="15.75">
       <c r="A589" s="9"/>
@@ -7130,7 +7118,7 @@
       <c r="F589" s="7"/>
       <c r="G589" s="15"/>
       <c r="H589" s="7"/>
-      <c r="I589" s="18"/>
+      <c r="I589" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="15.75">
       <c r="A590" s="9"/>
@@ -7141,7 +7129,7 @@
       <c r="F590" s="7"/>
       <c r="G590" s="15"/>
       <c r="H590" s="7"/>
-      <c r="I590" s="18"/>
+      <c r="I590" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="15.75">
       <c r="A591" s="9"/>
@@ -7152,7 +7140,7 @@
       <c r="F591" s="7"/>
       <c r="G591" s="15"/>
       <c r="H591" s="7"/>
-      <c r="I591" s="18"/>
+      <c r="I591" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="15.75">
       <c r="A592" s="9"/>
@@ -7163,7 +7151,7 @@
       <c r="F592" s="7"/>
       <c r="G592" s="15"/>
       <c r="H592" s="7"/>
-      <c r="I592" s="18"/>
+      <c r="I592" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="15.75">
       <c r="A593" s="9"/>
@@ -7174,7 +7162,7 @@
       <c r="F593" s="7"/>
       <c r="G593" s="15"/>
       <c r="H593" s="7"/>
-      <c r="I593" s="18"/>
+      <c r="I593" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="15.75">
       <c r="A594" s="9"/>
@@ -7185,7 +7173,7 @@
       <c r="F594" s="7"/>
       <c r="G594" s="15"/>
       <c r="H594" s="7"/>
-      <c r="I594" s="18"/>
+      <c r="I594" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="15.75">
       <c r="A595" s="9"/>
@@ -7196,7 +7184,7 @@
       <c r="F595" s="7"/>
       <c r="G595" s="15"/>
       <c r="H595" s="7"/>
-      <c r="I595" s="18"/>
+      <c r="I595" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="15.75">
       <c r="A596" s="9"/>
@@ -7207,7 +7195,7 @@
       <c r="F596" s="7"/>
       <c r="G596" s="15"/>
       <c r="H596" s="7"/>
-      <c r="I596" s="18"/>
+      <c r="I596" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="15.75">
       <c r="A597" s="9"/>
@@ -7218,7 +7206,7 @@
       <c r="F597" s="7"/>
       <c r="G597" s="15"/>
       <c r="H597" s="7"/>
-      <c r="I597" s="18"/>
+      <c r="I597" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="15.75">
       <c r="A598" s="9"/>
@@ -7229,7 +7217,7 @@
       <c r="F598" s="7"/>
       <c r="G598" s="15"/>
       <c r="H598" s="7"/>
-      <c r="I598" s="18"/>
+      <c r="I598" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="15.75">
       <c r="A599" s="9"/>
@@ -7240,7 +7228,7 @@
       <c r="F599" s="7"/>
       <c r="G599" s="15"/>
       <c r="H599" s="7"/>
-      <c r="I599" s="18"/>
+      <c r="I599" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="15.75">
       <c r="A600" s="9"/>
@@ -7251,7 +7239,7 @@
       <c r="F600" s="7"/>
       <c r="G600" s="15"/>
       <c r="H600" s="7"/>
-      <c r="I600" s="18"/>
+      <c r="I600" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="15.75">
       <c r="A601" s="9"/>
@@ -7262,7 +7250,7 @@
       <c r="F601" s="7"/>
       <c r="G601" s="15"/>
       <c r="H601" s="7"/>
-      <c r="I601" s="18"/>
+      <c r="I601" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="15.75">
       <c r="A602" s="9"/>
@@ -7273,7 +7261,7 @@
       <c r="F602" s="7"/>
       <c r="G602" s="15"/>
       <c r="H602" s="7"/>
-      <c r="I602" s="18"/>
+      <c r="I602" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="15.75">
       <c r="A603" s="9"/>
@@ -7284,7 +7272,7 @@
       <c r="F603" s="7"/>
       <c r="G603" s="15"/>
       <c r="H603" s="7"/>
-      <c r="I603" s="18"/>
+      <c r="I603" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="15.75">
       <c r="A604" s="9"/>
@@ -7295,7 +7283,7 @@
       <c r="F604" s="7"/>
       <c r="G604" s="15"/>
       <c r="H604" s="7"/>
-      <c r="I604" s="18"/>
+      <c r="I604" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="15.75">
       <c r="A605" s="9"/>
@@ -7306,7 +7294,7 @@
       <c r="F605" s="7"/>
       <c r="G605" s="15"/>
       <c r="H605" s="7"/>
-      <c r="I605" s="18"/>
+      <c r="I605" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="15.75">
       <c r="A606" s="9"/>
@@ -7317,7 +7305,7 @@
       <c r="F606" s="7"/>
       <c r="G606" s="15"/>
       <c r="H606" s="7"/>
-      <c r="I606" s="18"/>
+      <c r="I606" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="15.75">
       <c r="A607" s="9"/>
@@ -7328,7 +7316,7 @@
       <c r="F607" s="7"/>
       <c r="G607" s="15"/>
       <c r="H607" s="7"/>
-      <c r="I607" s="18"/>
+      <c r="I607" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="15.75">
       <c r="A608" s="9"/>
@@ -7339,7 +7327,7 @@
       <c r="F608" s="7"/>
       <c r="G608" s="15"/>
       <c r="H608" s="7"/>
-      <c r="I608" s="18"/>
+      <c r="I608" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="15.75">
       <c r="A609" s="9"/>
@@ -7350,7 +7338,7 @@
       <c r="F609" s="7"/>
       <c r="G609" s="15"/>
       <c r="H609" s="7"/>
-      <c r="I609" s="18"/>
+      <c r="I609" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="15.75">
       <c r="A610" s="9"/>
@@ -7361,7 +7349,7 @@
       <c r="F610" s="7"/>
       <c r="G610" s="15"/>
       <c r="H610" s="7"/>
-      <c r="I610" s="18"/>
+      <c r="I610" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="15.75">
       <c r="A611" s="9"/>
@@ -7372,7 +7360,7 @@
       <c r="F611" s="7"/>
       <c r="G611" s="15"/>
       <c r="H611" s="7"/>
-      <c r="I611" s="18"/>
+      <c r="I611" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="15.75">
       <c r="A612" s="9"/>
@@ -7383,7 +7371,7 @@
       <c r="F612" s="7"/>
       <c r="G612" s="15"/>
       <c r="H612" s="7"/>
-      <c r="I612" s="18"/>
+      <c r="I612" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="15.75">
       <c r="A613" s="9"/>
@@ -7394,7 +7382,7 @@
       <c r="F613" s="7"/>
       <c r="G613" s="15"/>
       <c r="H613" s="7"/>
-      <c r="I613" s="18"/>
+      <c r="I613" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="15.75">
       <c r="A614" s="9"/>
@@ -7405,7 +7393,7 @@
       <c r="F614" s="7"/>
       <c r="G614" s="15"/>
       <c r="H614" s="7"/>
-      <c r="I614" s="18"/>
+      <c r="I614" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="15.75">
       <c r="A615" s="9"/>
@@ -7416,7 +7404,7 @@
       <c r="F615" s="7"/>
       <c r="G615" s="15"/>
       <c r="H615" s="7"/>
-      <c r="I615" s="18"/>
+      <c r="I615" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="15.75">
       <c r="A616" s="9"/>
@@ -7427,7 +7415,7 @@
       <c r="F616" s="7"/>
       <c r="G616" s="15"/>
       <c r="H616" s="7"/>
-      <c r="I616" s="18"/>
+      <c r="I616" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="15.75">
       <c r="A617" s="9"/>
@@ -7438,7 +7426,7 @@
       <c r="F617" s="7"/>
       <c r="G617" s="15"/>
       <c r="H617" s="7"/>
-      <c r="I617" s="18"/>
+      <c r="I617" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="15.75">
       <c r="A618" s="9"/>
@@ -7449,7 +7437,7 @@
       <c r="F618" s="7"/>
       <c r="G618" s="15"/>
       <c r="H618" s="7"/>
-      <c r="I618" s="18"/>
+      <c r="I618" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="15.75">
       <c r="A619" s="9"/>
@@ -7460,7 +7448,7 @@
       <c r="F619" s="7"/>
       <c r="G619" s="15"/>
       <c r="H619" s="7"/>
-      <c r="I619" s="18"/>
+      <c r="I619" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="15.75">
       <c r="A620" s="9"/>
@@ -7471,7 +7459,7 @@
       <c r="F620" s="7"/>
       <c r="G620" s="15"/>
       <c r="H620" s="7"/>
-      <c r="I620" s="18"/>
+      <c r="I620" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="15.75">
       <c r="A621" s="9"/>
@@ -7482,7 +7470,7 @@
       <c r="F621" s="7"/>
       <c r="G621" s="15"/>
       <c r="H621" s="7"/>
-      <c r="I621" s="18"/>
+      <c r="I621" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="15.75">
       <c r="A622" s="9"/>
@@ -7493,7 +7481,7 @@
       <c r="F622" s="7"/>
       <c r="G622" s="15"/>
       <c r="H622" s="7"/>
-      <c r="I622" s="18"/>
+      <c r="I622" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="15.75">
       <c r="A623" s="9"/>
@@ -7504,7 +7492,7 @@
       <c r="F623" s="7"/>
       <c r="G623" s="15"/>
       <c r="H623" s="7"/>
-      <c r="I623" s="18"/>
+      <c r="I623" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="15.75">
       <c r="A624" s="9"/>
@@ -7515,7 +7503,7 @@
       <c r="F624" s="7"/>
       <c r="G624" s="15"/>
       <c r="H624" s="7"/>
-      <c r="I624" s="18"/>
+      <c r="I624" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="15.75">
       <c r="A625" s="9"/>
@@ -7526,7 +7514,7 @@
       <c r="F625" s="7"/>
       <c r="G625" s="15"/>
       <c r="H625" s="7"/>
-      <c r="I625" s="18"/>
+      <c r="I625" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="15.75">
       <c r="A626" s="9"/>
@@ -7537,7 +7525,7 @@
       <c r="F626" s="7"/>
       <c r="G626" s="15"/>
       <c r="H626" s="7"/>
-      <c r="I626" s="18"/>
+      <c r="I626" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="15.75">
       <c r="A627" s="9"/>
@@ -7548,7 +7536,7 @@
       <c r="F627" s="7"/>
       <c r="G627" s="15"/>
       <c r="H627" s="7"/>
-      <c r="I627" s="18"/>
+      <c r="I627" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="15.75">
       <c r="A628" s="9"/>
@@ -7559,7 +7547,7 @@
       <c r="F628" s="7"/>
       <c r="G628" s="15"/>
       <c r="H628" s="7"/>
-      <c r="I628" s="18"/>
+      <c r="I628" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="15.75">
       <c r="A629" s="9"/>
@@ -7570,7 +7558,7 @@
       <c r="F629" s="7"/>
       <c r="G629" s="15"/>
       <c r="H629" s="7"/>
-      <c r="I629" s="18"/>
+      <c r="I629" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="15.75">
       <c r="A630" s="9"/>
@@ -7581,7 +7569,7 @@
       <c r="F630" s="7"/>
       <c r="G630" s="15"/>
       <c r="H630" s="7"/>
-      <c r="I630" s="18"/>
+      <c r="I630" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="15.75">
       <c r="A631" s="9"/>
@@ -7592,7 +7580,7 @@
       <c r="F631" s="7"/>
       <c r="G631" s="15"/>
       <c r="H631" s="7"/>
-      <c r="I631" s="18"/>
+      <c r="I631" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="15.75">
       <c r="A632" s="9"/>
@@ -7603,7 +7591,7 @@
       <c r="F632" s="7"/>
       <c r="G632" s="15"/>
       <c r="H632" s="7"/>
-      <c r="I632" s="18"/>
+      <c r="I632" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="15.75">
       <c r="A633" s="9"/>
@@ -7614,7 +7602,7 @@
       <c r="F633" s="7"/>
       <c r="G633" s="15"/>
       <c r="H633" s="7"/>
-      <c r="I633" s="18"/>
+      <c r="I633" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="15.75">
       <c r="A634" s="9"/>
@@ -7625,7 +7613,7 @@
       <c r="F634" s="7"/>
       <c r="G634" s="15"/>
       <c r="H634" s="7"/>
-      <c r="I634" s="18"/>
+      <c r="I634" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="15.75">
       <c r="A635" s="9"/>
@@ -7636,7 +7624,7 @@
       <c r="F635" s="7"/>
       <c r="G635" s="15"/>
       <c r="H635" s="7"/>
-      <c r="I635" s="18"/>
+      <c r="I635" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="15.75">
       <c r="A636" s="9"/>
@@ -7647,7 +7635,7 @@
       <c r="F636" s="7"/>
       <c r="G636" s="15"/>
       <c r="H636" s="7"/>
-      <c r="I636" s="18"/>
+      <c r="I636" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="15.75">
       <c r="A637" s="9"/>
@@ -7658,7 +7646,7 @@
       <c r="F637" s="7"/>
       <c r="G637" s="15"/>
       <c r="H637" s="7"/>
-      <c r="I637" s="18"/>
+      <c r="I637" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="15.75">
       <c r="A638" s="9"/>
@@ -7669,7 +7657,7 @@
       <c r="F638" s="7"/>
       <c r="G638" s="15"/>
       <c r="H638" s="7"/>
-      <c r="I638" s="18"/>
+      <c r="I638" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="15.75">
       <c r="A639" s="9"/>
@@ -7680,7 +7668,7 @@
       <c r="F639" s="7"/>
       <c r="G639" s="15"/>
       <c r="H639" s="7"/>
-      <c r="I639" s="18"/>
+      <c r="I639" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="15.75">
       <c r="A640" s="9"/>
@@ -7691,7 +7679,7 @@
       <c r="F640" s="7"/>
       <c r="G640" s="15"/>
       <c r="H640" s="7"/>
-      <c r="I640" s="18"/>
+      <c r="I640" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="15.75">
       <c r="A641" s="9"/>
@@ -7702,7 +7690,7 @@
       <c r="F641" s="7"/>
       <c r="G641" s="15"/>
       <c r="H641" s="7"/>
-      <c r="I641" s="18"/>
+      <c r="I641" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="15.75">
       <c r="A642" s="9"/>
@@ -7713,7 +7701,7 @@
       <c r="F642" s="7"/>
       <c r="G642" s="15"/>
       <c r="H642" s="7"/>
-      <c r="I642" s="18"/>
+      <c r="I642" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="15.75">
       <c r="A643" s="9"/>
@@ -7724,7 +7712,7 @@
       <c r="F643" s="7"/>
       <c r="G643" s="15"/>
       <c r="H643" s="7"/>
-      <c r="I643" s="18"/>
+      <c r="I643" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="15.75">
       <c r="A644" s="9"/>
@@ -7735,7 +7723,7 @@
       <c r="F644" s="7"/>
       <c r="G644" s="15"/>
       <c r="H644" s="7"/>
-      <c r="I644" s="18"/>
+      <c r="I644" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="15.75">
       <c r="A645" s="9"/>
@@ -7746,7 +7734,7 @@
       <c r="F645" s="7"/>
       <c r="G645" s="15"/>
       <c r="H645" s="7"/>
-      <c r="I645" s="18"/>
+      <c r="I645" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="15.75">
       <c r="A646" s="9"/>
@@ -7757,7 +7745,7 @@
       <c r="F646" s="7"/>
       <c r="G646" s="15"/>
       <c r="H646" s="7"/>
-      <c r="I646" s="18"/>
+      <c r="I646" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="15.75">
       <c r="A647" s="9"/>
@@ -7768,7 +7756,7 @@
       <c r="F647" s="7"/>
       <c r="G647" s="15"/>
       <c r="H647" s="7"/>
-      <c r="I647" s="18"/>
+      <c r="I647" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="15.75">
       <c r="A648" s="9"/>
@@ -7779,7 +7767,7 @@
       <c r="F648" s="7"/>
       <c r="G648" s="15"/>
       <c r="H648" s="7"/>
-      <c r="I648" s="18"/>
+      <c r="I648" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="15.75">
       <c r="A649" s="9"/>
@@ -7790,7 +7778,7 @@
       <c r="F649" s="7"/>
       <c r="G649" s="15"/>
       <c r="H649" s="7"/>
-      <c r="I649" s="18"/>
+      <c r="I649" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="15.75">
       <c r="A650" s="9"/>
@@ -7801,7 +7789,7 @@
       <c r="F650" s="7"/>
       <c r="G650" s="15"/>
       <c r="H650" s="7"/>
-      <c r="I650" s="18"/>
+      <c r="I650" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="15.75">
       <c r="A651" s="9"/>
@@ -7812,7 +7800,7 @@
       <c r="F651" s="7"/>
       <c r="G651" s="15"/>
       <c r="H651" s="7"/>
-      <c r="I651" s="18"/>
+      <c r="I651" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="15.75">
       <c r="A652" s="9"/>
@@ -7823,7 +7811,7 @@
       <c r="F652" s="7"/>
       <c r="G652" s="15"/>
       <c r="H652" s="7"/>
-      <c r="I652" s="18"/>
+      <c r="I652" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="15.75">
       <c r="A653" s="9"/>
@@ -7834,7 +7822,7 @@
       <c r="F653" s="7"/>
       <c r="G653" s="15"/>
       <c r="H653" s="7"/>
-      <c r="I653" s="18"/>
+      <c r="I653" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="15.75">
       <c r="A654" s="9"/>
@@ -7845,7 +7833,7 @@
       <c r="F654" s="7"/>
       <c r="G654" s="15"/>
       <c r="H654" s="7"/>
-      <c r="I654" s="18"/>
+      <c r="I654" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="15.75">
       <c r="A655" s="9"/>
@@ -7856,7 +7844,7 @@
       <c r="F655" s="7"/>
       <c r="G655" s="15"/>
       <c r="H655" s="7"/>
-      <c r="I655" s="18"/>
+      <c r="I655" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="15.75">
       <c r="A656" s="9"/>
@@ -7867,7 +7855,7 @@
       <c r="F656" s="7"/>
       <c r="G656" s="15"/>
       <c r="H656" s="7"/>
-      <c r="I656" s="18"/>
+      <c r="I656" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="15.75">
       <c r="A657" s="9"/>
@@ -7878,7 +7866,7 @@
       <c r="F657" s="7"/>
       <c r="G657" s="15"/>
       <c r="H657" s="7"/>
-      <c r="I657" s="18"/>
+      <c r="I657" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="15.75">
       <c r="A658" s="9"/>
@@ -7889,7 +7877,7 @@
       <c r="F658" s="7"/>
       <c r="G658" s="15"/>
       <c r="H658" s="7"/>
-      <c r="I658" s="18"/>
+      <c r="I658" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="15.75">
       <c r="A659" s="9"/>
@@ -7900,7 +7888,7 @@
       <c r="F659" s="7"/>
       <c r="G659" s="15"/>
       <c r="H659" s="7"/>
-      <c r="I659" s="18"/>
+      <c r="I659" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="15.75">
       <c r="A660" s="9"/>
@@ -7911,7 +7899,7 @@
       <c r="F660" s="7"/>
       <c r="G660" s="15"/>
       <c r="H660" s="7"/>
-      <c r="I660" s="18"/>
+      <c r="I660" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="15.75">
       <c r="A661" s="9"/>
@@ -7922,7 +7910,7 @@
       <c r="F661" s="7"/>
       <c r="G661" s="15"/>
       <c r="H661" s="7"/>
-      <c r="I661" s="18"/>
+      <c r="I661" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="15.75">
       <c r="A662" s="9"/>
@@ -7933,7 +7921,7 @@
       <c r="F662" s="7"/>
       <c r="G662" s="15"/>
       <c r="H662" s="7"/>
-      <c r="I662" s="18"/>
+      <c r="I662" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="15.75">
       <c r="A663" s="9"/>
@@ -7944,7 +7932,7 @@
       <c r="F663" s="7"/>
       <c r="G663" s="15"/>
       <c r="H663" s="7"/>
-      <c r="I663" s="18"/>
+      <c r="I663" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="15.75">
       <c r="A664" s="9"/>
@@ -7955,7 +7943,7 @@
       <c r="F664" s="7"/>
       <c r="G664" s="15"/>
       <c r="H664" s="7"/>
-      <c r="I664" s="18"/>
+      <c r="I664" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="15.75">
       <c r="A665" s="9"/>
@@ -7966,7 +7954,7 @@
       <c r="F665" s="7"/>
       <c r="G665" s="15"/>
       <c r="H665" s="7"/>
-      <c r="I665" s="18"/>
+      <c r="I665" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="15.75">
       <c r="A666" s="9"/>
@@ -7977,7 +7965,7 @@
       <c r="F666" s="7"/>
       <c r="G666" s="15"/>
       <c r="H666" s="7"/>
-      <c r="I666" s="18"/>
+      <c r="I666" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="15.75">
       <c r="A667" s="9"/>
@@ -7988,7 +7976,7 @@
       <c r="F667" s="7"/>
       <c r="G667" s="15"/>
       <c r="H667" s="7"/>
-      <c r="I667" s="18"/>
+      <c r="I667" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="15.75">
       <c r="A668" s="9"/>
@@ -7999,7 +7987,7 @@
       <c r="F668" s="7"/>
       <c r="G668" s="15"/>
       <c r="H668" s="7"/>
-      <c r="I668" s="18"/>
+      <c r="I668" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="15.75">
       <c r="A669" s="9"/>
@@ -8010,7 +7998,7 @@
       <c r="F669" s="7"/>
       <c r="G669" s="15"/>
       <c r="H669" s="7"/>
-      <c r="I669" s="18"/>
+      <c r="I669" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="15.75">
       <c r="A670" s="9"/>
@@ -8021,7 +8009,7 @@
       <c r="F670" s="7"/>
       <c r="G670" s="15"/>
       <c r="H670" s="7"/>
-      <c r="I670" s="18"/>
+      <c r="I670" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="15.75">
       <c r="A671" s="9"/>
@@ -8032,7 +8020,7 @@
       <c r="F671" s="7"/>
       <c r="G671" s="15"/>
       <c r="H671" s="7"/>
-      <c r="I671" s="18"/>
+      <c r="I671" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="15.75">
       <c r="A672" s="9"/>
@@ -8043,7 +8031,7 @@
       <c r="F672" s="7"/>
       <c r="G672" s="15"/>
       <c r="H672" s="7"/>
-      <c r="I672" s="18"/>
+      <c r="I672" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="15.75">
       <c r="A673" s="9"/>
@@ -8054,7 +8042,7 @@
       <c r="F673" s="7"/>
       <c r="G673" s="15"/>
       <c r="H673" s="7"/>
-      <c r="I673" s="18"/>
+      <c r="I673" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="15.75">
       <c r="A674" s="9"/>
@@ -8065,7 +8053,7 @@
       <c r="F674" s="7"/>
       <c r="G674" s="15"/>
       <c r="H674" s="7"/>
-      <c r="I674" s="18"/>
+      <c r="I674" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="15.75">
       <c r="A675" s="9"/>
@@ -8076,7 +8064,7 @@
       <c r="F675" s="7"/>
       <c r="G675" s="15"/>
       <c r="H675" s="7"/>
-      <c r="I675" s="18"/>
+      <c r="I675" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="15.75">
       <c r="A676" s="9"/>
@@ -8087,7 +8075,7 @@
       <c r="F676" s="7"/>
       <c r="G676" s="15"/>
       <c r="H676" s="7"/>
-      <c r="I676" s="18"/>
+      <c r="I676" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="15.75">
       <c r="A677" s="9"/>
@@ -8098,7 +8086,7 @@
       <c r="F677" s="7"/>
       <c r="G677" s="15"/>
       <c r="H677" s="7"/>
-      <c r="I677" s="18"/>
+      <c r="I677" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="15.75">
       <c r="A678" s="9"/>
@@ -8109,7 +8097,7 @@
       <c r="F678" s="7"/>
       <c r="G678" s="15"/>
       <c r="H678" s="7"/>
-      <c r="I678" s="18"/>
+      <c r="I678" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="15.75">
       <c r="A679" s="9"/>
@@ -8120,7 +8108,7 @@
       <c r="F679" s="7"/>
       <c r="G679" s="15"/>
       <c r="H679" s="7"/>
-      <c r="I679" s="18"/>
+      <c r="I679" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="15.75">
       <c r="A680" s="9"/>
@@ -8131,7 +8119,7 @@
       <c r="F680" s="7"/>
       <c r="G680" s="15"/>
       <c r="H680" s="7"/>
-      <c r="I680" s="18"/>
+      <c r="I680" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="15.75">
       <c r="A681" s="9"/>
@@ -8142,7 +8130,7 @@
       <c r="F681" s="7"/>
       <c r="G681" s="15"/>
       <c r="H681" s="7"/>
-      <c r="I681" s="18"/>
+      <c r="I681" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="15.75">
       <c r="A682" s="9"/>
@@ -8153,7 +8141,7 @@
       <c r="F682" s="7"/>
       <c r="G682" s="15"/>
       <c r="H682" s="7"/>
-      <c r="I682" s="18"/>
+      <c r="I682" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="15.75">
       <c r="A683" s="9"/>
@@ -8164,7 +8152,7 @@
       <c r="F683" s="7"/>
       <c r="G683" s="15"/>
       <c r="H683" s="7"/>
-      <c r="I683" s="18"/>
+      <c r="I683" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="15.75">
       <c r="A684" s="9"/>
@@ -8175,7 +8163,7 @@
       <c r="F684" s="7"/>
       <c r="G684" s="15"/>
       <c r="H684" s="7"/>
-      <c r="I684" s="18"/>
+      <c r="I684" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="15.75">
       <c r="A685" s="9"/>
@@ -8186,7 +8174,7 @@
       <c r="F685" s="7"/>
       <c r="G685" s="15"/>
       <c r="H685" s="7"/>
-      <c r="I685" s="18"/>
+      <c r="I685" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="15.75">
       <c r="A686" s="9"/>
@@ -8197,7 +8185,7 @@
       <c r="F686" s="7"/>
       <c r="G686" s="15"/>
       <c r="H686" s="7"/>
-      <c r="I686" s="18"/>
+      <c r="I686" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="15.75">
       <c r="A687" s="9"/>
@@ -8208,7 +8196,7 @@
       <c r="F687" s="7"/>
       <c r="G687" s="15"/>
       <c r="H687" s="7"/>
-      <c r="I687" s="18"/>
+      <c r="I687" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="15.75">
       <c r="A688" s="9"/>
@@ -8219,7 +8207,7 @@
       <c r="F688" s="7"/>
       <c r="G688" s="15"/>
       <c r="H688" s="7"/>
-      <c r="I688" s="18"/>
+      <c r="I688" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="15.75">
       <c r="A689" s="9"/>
@@ -8230,7 +8218,7 @@
       <c r="F689" s="7"/>
       <c r="G689" s="15"/>
       <c r="H689" s="7"/>
-      <c r="I689" s="18"/>
+      <c r="I689" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="15.75">
       <c r="A690" s="9"/>
@@ -8241,7 +8229,7 @@
       <c r="F690" s="7"/>
       <c r="G690" s="15"/>
       <c r="H690" s="7"/>
-      <c r="I690" s="18"/>
+      <c r="I690" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="15.75">
       <c r="A691" s="9"/>
@@ -8252,7 +8240,7 @@
       <c r="F691" s="7"/>
       <c r="G691" s="15"/>
       <c r="H691" s="7"/>
-      <c r="I691" s="18"/>
+      <c r="I691" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="15.75">
       <c r="A692" s="9"/>
@@ -8263,7 +8251,7 @@
       <c r="F692" s="7"/>
       <c r="G692" s="15"/>
       <c r="H692" s="7"/>
-      <c r="I692" s="18"/>
+      <c r="I692" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="15.75">
       <c r="A693" s="9"/>
@@ -8274,7 +8262,7 @@
       <c r="F693" s="7"/>
       <c r="G693" s="15"/>
       <c r="H693" s="7"/>
-      <c r="I693" s="18"/>
+      <c r="I693" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="15.75">
       <c r="A694" s="9"/>
@@ -8285,7 +8273,7 @@
       <c r="F694" s="7"/>
       <c r="G694" s="15"/>
       <c r="H694" s="7"/>
-      <c r="I694" s="18"/>
+      <c r="I694" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="15.75">
       <c r="A695" s="9"/>
@@ -8296,7 +8284,7 @@
       <c r="F695" s="7"/>
       <c r="G695" s="15"/>
       <c r="H695" s="7"/>
-      <c r="I695" s="18"/>
+      <c r="I695" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="15.75">
       <c r="A696" s="9"/>
@@ -8307,7 +8295,7 @@
       <c r="F696" s="7"/>
       <c r="G696" s="15"/>
       <c r="H696" s="7"/>
-      <c r="I696" s="18"/>
+      <c r="I696" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="15.75">
       <c r="A697" s="9"/>
@@ -8318,7 +8306,7 @@
       <c r="F697" s="7"/>
       <c r="G697" s="15"/>
       <c r="H697" s="7"/>
-      <c r="I697" s="18"/>
+      <c r="I697" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="15.75">
       <c r="A698" s="9"/>
@@ -8329,7 +8317,7 @@
       <c r="F698" s="7"/>
       <c r="G698" s="15"/>
       <c r="H698" s="7"/>
-      <c r="I698" s="18"/>
+      <c r="I698" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="15.75">
       <c r="A699" s="9"/>
@@ -8340,7 +8328,7 @@
       <c r="F699" s="7"/>
       <c r="G699" s="15"/>
       <c r="H699" s="7"/>
-      <c r="I699" s="18"/>
+      <c r="I699" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="15.75">
       <c r="A700" s="9"/>
@@ -8351,7 +8339,7 @@
       <c r="F700" s="7"/>
       <c r="G700" s="15"/>
       <c r="H700" s="7"/>
-      <c r="I700" s="18"/>
+      <c r="I700" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="15.75">
       <c r="A701" s="9"/>
@@ -8362,7 +8350,7 @@
       <c r="F701" s="7"/>
       <c r="G701" s="15"/>
       <c r="H701" s="7"/>
-      <c r="I701" s="18"/>
+      <c r="I701" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="15.75">
       <c r="A702" s="9"/>
@@ -8373,7 +8361,7 @@
       <c r="F702" s="7"/>
       <c r="G702" s="15"/>
       <c r="H702" s="7"/>
-      <c r="I702" s="18"/>
+      <c r="I702" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="15.75">
       <c r="A703" s="9"/>
@@ -8384,7 +8372,7 @@
       <c r="F703" s="7"/>
       <c r="G703" s="15"/>
       <c r="H703" s="7"/>
-      <c r="I703" s="18"/>
+      <c r="I703" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="15.75">
       <c r="A704" s="9"/>
@@ -8395,7 +8383,7 @@
       <c r="F704" s="7"/>
       <c r="G704" s="15"/>
       <c r="H704" s="7"/>
-      <c r="I704" s="18"/>
+      <c r="I704" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="15.75">
       <c r="A705" s="9"/>
@@ -8406,7 +8394,7 @@
       <c r="F705" s="7"/>
       <c r="G705" s="15"/>
       <c r="H705" s="7"/>
-      <c r="I705" s="18"/>
+      <c r="I705" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="15.75">
       <c r="A706" s="9"/>
@@ -8417,7 +8405,7 @@
       <c r="F706" s="7"/>
       <c r="G706" s="15"/>
       <c r="H706" s="7"/>
-      <c r="I706" s="18"/>
+      <c r="I706" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="15.75">
       <c r="A707" s="9"/>
@@ -8428,7 +8416,7 @@
       <c r="F707" s="7"/>
       <c r="G707" s="15"/>
       <c r="H707" s="7"/>
-      <c r="I707" s="18"/>
+      <c r="I707" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="15.75">
       <c r="A708" s="9"/>
@@ -8439,7 +8427,7 @@
       <c r="F708" s="7"/>
       <c r="G708" s="15"/>
       <c r="H708" s="7"/>
-      <c r="I708" s="18"/>
+      <c r="I708" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="15.75">
       <c r="A709" s="9"/>
@@ -8450,7 +8438,7 @@
       <c r="F709" s="7"/>
       <c r="G709" s="15"/>
       <c r="H709" s="7"/>
-      <c r="I709" s="18"/>
+      <c r="I709" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="15.75">
       <c r="A710" s="9"/>
@@ -8461,7 +8449,7 @@
       <c r="F710" s="7"/>
       <c r="G710" s="15"/>
       <c r="H710" s="7"/>
-      <c r="I710" s="18"/>
+      <c r="I710" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="15.75">
       <c r="A711" s="9"/>
@@ -8472,7 +8460,7 @@
       <c r="F711" s="7"/>
       <c r="G711" s="15"/>
       <c r="H711" s="7"/>
-      <c r="I711" s="18"/>
+      <c r="I711" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="15.75">
       <c r="A712" s="9"/>
@@ -8483,7 +8471,7 @@
       <c r="F712" s="7"/>
       <c r="G712" s="15"/>
       <c r="H712" s="7"/>
-      <c r="I712" s="18"/>
+      <c r="I712" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="15.75">
       <c r="A713" s="9"/>
@@ -8494,7 +8482,7 @@
       <c r="F713" s="7"/>
       <c r="G713" s="15"/>
       <c r="H713" s="7"/>
-      <c r="I713" s="18"/>
+      <c r="I713" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="15.75">
       <c r="A714" s="9"/>
@@ -8505,7 +8493,7 @@
       <c r="F714" s="7"/>
       <c r="G714" s="15"/>
       <c r="H714" s="7"/>
-      <c r="I714" s="18"/>
+      <c r="I714" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="15.75">
       <c r="A715" s="9"/>
@@ -8516,7 +8504,7 @@
       <c r="F715" s="7"/>
       <c r="G715" s="15"/>
       <c r="H715" s="7"/>
-      <c r="I715" s="18"/>
+      <c r="I715" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="15.75">
       <c r="A716" s="9"/>
@@ -8527,7 +8515,7 @@
       <c r="F716" s="7"/>
       <c r="G716" s="15"/>
       <c r="H716" s="7"/>
-      <c r="I716" s="18"/>
+      <c r="I716" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="15.75">
       <c r="A717" s="9"/>
@@ -8538,7 +8526,7 @@
       <c r="F717" s="7"/>
       <c r="G717" s="15"/>
       <c r="H717" s="7"/>
-      <c r="I717" s="18"/>
+      <c r="I717" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="15.75">
       <c r="A718" s="9"/>
@@ -8549,7 +8537,7 @@
       <c r="F718" s="7"/>
       <c r="G718" s="15"/>
       <c r="H718" s="7"/>
-      <c r="I718" s="18"/>
+      <c r="I718" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="15.75">
       <c r="A719" s="9"/>
@@ -8560,7 +8548,7 @@
       <c r="F719" s="7"/>
       <c r="G719" s="15"/>
       <c r="H719" s="7"/>
-      <c r="I719" s="18"/>
+      <c r="I719" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="15.75">
       <c r="A720" s="9"/>
@@ -8571,7 +8559,7 @@
       <c r="F720" s="7"/>
       <c r="G720" s="15"/>
       <c r="H720" s="7"/>
-      <c r="I720" s="18"/>
+      <c r="I720" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="15.75">
       <c r="A721" s="9"/>
@@ -8582,7 +8570,7 @@
       <c r="F721" s="7"/>
       <c r="G721" s="15"/>
       <c r="H721" s="7"/>
-      <c r="I721" s="18"/>
+      <c r="I721" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="15.75">
       <c r="A722" s="9"/>
@@ -8593,7 +8581,7 @@
       <c r="F722" s="7"/>
       <c r="G722" s="15"/>
       <c r="H722" s="7"/>
-      <c r="I722" s="18"/>
+      <c r="I722" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="15.75">
       <c r="A723" s="9"/>
@@ -8604,7 +8592,7 @@
       <c r="F723" s="7"/>
       <c r="G723" s="15"/>
       <c r="H723" s="7"/>
-      <c r="I723" s="18"/>
+      <c r="I723" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="15.75">
       <c r="A724" s="9"/>
@@ -8615,7 +8603,7 @@
       <c r="F724" s="7"/>
       <c r="G724" s="15"/>
       <c r="H724" s="7"/>
-      <c r="I724" s="18"/>
+      <c r="I724" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="15.75">
       <c r="A725" s="9"/>
@@ -8626,7 +8614,7 @@
       <c r="F725" s="7"/>
       <c r="G725" s="15"/>
       <c r="H725" s="7"/>
-      <c r="I725" s="18"/>
+      <c r="I725" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="15.75">
       <c r="A726" s="9"/>
@@ -8637,7 +8625,7 @@
       <c r="F726" s="7"/>
       <c r="G726" s="15"/>
       <c r="H726" s="7"/>
-      <c r="I726" s="18"/>
+      <c r="I726" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="15.75">
       <c r="A727" s="9"/>
@@ -8648,7 +8636,7 @@
       <c r="F727" s="7"/>
       <c r="G727" s="15"/>
       <c r="H727" s="7"/>
-      <c r="I727" s="18"/>
+      <c r="I727" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="15.75">
       <c r="A728" s="9"/>
@@ -8659,7 +8647,7 @@
       <c r="F728" s="7"/>
       <c r="G728" s="15"/>
       <c r="H728" s="7"/>
-      <c r="I728" s="18"/>
+      <c r="I728" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="15.75">
       <c r="A729" s="9"/>
@@ -8670,7 +8658,7 @@
       <c r="F729" s="7"/>
       <c r="G729" s="15"/>
       <c r="H729" s="7"/>
-      <c r="I729" s="18"/>
+      <c r="I729" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="15.75">
       <c r="A730" s="9"/>
@@ -8681,7 +8669,7 @@
       <c r="F730" s="7"/>
       <c r="G730" s="15"/>
       <c r="H730" s="7"/>
-      <c r="I730" s="18"/>
+      <c r="I730" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="15.75">
       <c r="A731" s="9"/>
@@ -8692,7 +8680,7 @@
       <c r="F731" s="7"/>
       <c r="G731" s="15"/>
       <c r="H731" s="7"/>
-      <c r="I731" s="18"/>
+      <c r="I731" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="15.75">
       <c r="A732" s="9"/>
@@ -8703,7 +8691,7 @@
       <c r="F732" s="7"/>
       <c r="G732" s="15"/>
       <c r="H732" s="7"/>
-      <c r="I732" s="18"/>
+      <c r="I732" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="15.75">
       <c r="A733" s="9"/>
@@ -8714,7 +8702,7 @@
       <c r="F733" s="7"/>
       <c r="G733" s="15"/>
       <c r="H733" s="7"/>
-      <c r="I733" s="18"/>
+      <c r="I733" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="15.75">
       <c r="A734" s="9"/>
@@ -8725,7 +8713,7 @@
       <c r="F734" s="7"/>
       <c r="G734" s="15"/>
       <c r="H734" s="7"/>
-      <c r="I734" s="18"/>
+      <c r="I734" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="15.75">
       <c r="A735" s="9"/>
@@ -8736,7 +8724,7 @@
       <c r="F735" s="7"/>
       <c r="G735" s="15"/>
       <c r="H735" s="7"/>
-      <c r="I735" s="18"/>
+      <c r="I735" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="15.75">
       <c r="A736" s="9"/>
@@ -8747,7 +8735,7 @@
       <c r="F736" s="7"/>
       <c r="G736" s="15"/>
       <c r="H736" s="7"/>
-      <c r="I736" s="18"/>
+      <c r="I736" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="15.75">
       <c r="A737" s="9"/>
@@ -8758,7 +8746,7 @@
       <c r="F737" s="7"/>
       <c r="G737" s="15"/>
       <c r="H737" s="7"/>
-      <c r="I737" s="18"/>
+      <c r="I737" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="15.75">
       <c r="A738" s="9"/>
@@ -8769,7 +8757,7 @@
       <c r="F738" s="7"/>
       <c r="G738" s="15"/>
       <c r="H738" s="7"/>
-      <c r="I738" s="18"/>
+      <c r="I738" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="15.75">
       <c r="A739" s="9"/>
@@ -8780,7 +8768,7 @@
       <c r="F739" s="7"/>
       <c r="G739" s="15"/>
       <c r="H739" s="7"/>
-      <c r="I739" s="18"/>
+      <c r="I739" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="15.75">
       <c r="A740" s="9"/>
@@ -8791,7 +8779,7 @@
       <c r="F740" s="7"/>
       <c r="G740" s="15"/>
       <c r="H740" s="7"/>
-      <c r="I740" s="18"/>
+      <c r="I740" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="15.75">
       <c r="A741" s="9"/>
@@ -8802,7 +8790,7 @@
       <c r="F741" s="7"/>
       <c r="G741" s="15"/>
       <c r="H741" s="7"/>
-      <c r="I741" s="18"/>
+      <c r="I741" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="15.75">
       <c r="A742" s="9"/>
@@ -8813,7 +8801,7 @@
       <c r="F742" s="7"/>
       <c r="G742" s="15"/>
       <c r="H742" s="7"/>
-      <c r="I742" s="18"/>
+      <c r="I742" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="15.75">
       <c r="A743" s="9"/>
@@ -8824,7 +8812,7 @@
       <c r="F743" s="7"/>
       <c r="G743" s="15"/>
       <c r="H743" s="7"/>
-      <c r="I743" s="18"/>
+      <c r="I743" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="15.75">
       <c r="A744" s="9"/>
@@ -8835,7 +8823,7 @@
       <c r="F744" s="7"/>
       <c r="G744" s="15"/>
       <c r="H744" s="7"/>
-      <c r="I744" s="18"/>
+      <c r="I744" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="15.75">
       <c r="A745" s="9"/>
@@ -8846,7 +8834,7 @@
       <c r="F745" s="7"/>
       <c r="G745" s="15"/>
       <c r="H745" s="7"/>
-      <c r="I745" s="18"/>
+      <c r="I745" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="15.75">
       <c r="A746" s="9"/>
@@ -8857,7 +8845,7 @@
       <c r="F746" s="7"/>
       <c r="G746" s="15"/>
       <c r="H746" s="7"/>
-      <c r="I746" s="18"/>
+      <c r="I746" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="15.75">
       <c r="A747" s="9"/>
@@ -8868,7 +8856,7 @@
       <c r="F747" s="7"/>
       <c r="G747" s="15"/>
       <c r="H747" s="7"/>
-      <c r="I747" s="18"/>
+      <c r="I747" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="15.75">
       <c r="A748" s="9"/>
@@ -8879,7 +8867,7 @@
       <c r="F748" s="7"/>
       <c r="G748" s="15"/>
       <c r="H748" s="7"/>
-      <c r="I748" s="18"/>
+      <c r="I748" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="15.75">
       <c r="A749" s="9"/>
@@ -8890,7 +8878,7 @@
       <c r="F749" s="7"/>
       <c r="G749" s="15"/>
       <c r="H749" s="7"/>
-      <c r="I749" s="18"/>
+      <c r="I749" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="15.75">
       <c r="A750" s="9"/>
@@ -8901,7 +8889,7 @@
       <c r="F750" s="7"/>
       <c r="G750" s="15"/>
       <c r="H750" s="7"/>
-      <c r="I750" s="18"/>
+      <c r="I750" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="15.75">
       <c r="A751" s="9"/>
@@ -8912,7 +8900,7 @@
       <c r="F751" s="7"/>
       <c r="G751" s="15"/>
       <c r="H751" s="7"/>
-      <c r="I751" s="18"/>
+      <c r="I751" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="15.75">
       <c r="A752" s="9"/>
@@ -8923,7 +8911,7 @@
       <c r="F752" s="7"/>
       <c r="G752" s="15"/>
       <c r="H752" s="7"/>
-      <c r="I752" s="18"/>
+      <c r="I752" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="15.75">
       <c r="A753" s="9"/>
@@ -8934,7 +8922,7 @@
       <c r="F753" s="7"/>
       <c r="G753" s="15"/>
       <c r="H753" s="7"/>
-      <c r="I753" s="18"/>
+      <c r="I753" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="15.75">
       <c r="A754" s="9"/>
@@ -8945,7 +8933,7 @@
       <c r="F754" s="7"/>
       <c r="G754" s="15"/>
       <c r="H754" s="7"/>
-      <c r="I754" s="18"/>
+      <c r="I754" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="15.75">
       <c r="A755" s="9"/>
@@ -8956,7 +8944,7 @@
       <c r="F755" s="7"/>
       <c r="G755" s="15"/>
       <c r="H755" s="7"/>
-      <c r="I755" s="18"/>
+      <c r="I755" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="15.75">
       <c r="A756" s="9"/>
@@ -8967,7 +8955,7 @@
       <c r="F756" s="7"/>
       <c r="G756" s="15"/>
       <c r="H756" s="7"/>
-      <c r="I756" s="18"/>
+      <c r="I756" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="15.75">
       <c r="A757" s="9"/>
@@ -8978,7 +8966,7 @@
       <c r="F757" s="7"/>
       <c r="G757" s="15"/>
       <c r="H757" s="7"/>
-      <c r="I757" s="18"/>
+      <c r="I757" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="15.75">
       <c r="A758" s="9"/>
@@ -8989,7 +8977,7 @@
       <c r="F758" s="7"/>
       <c r="G758" s="15"/>
       <c r="H758" s="7"/>
-      <c r="I758" s="18"/>
+      <c r="I758" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="15.75">
       <c r="A759" s="9"/>
@@ -9000,7 +8988,7 @@
       <c r="F759" s="7"/>
       <c r="G759" s="15"/>
       <c r="H759" s="7"/>
-      <c r="I759" s="18"/>
+      <c r="I759" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="15.75">
       <c r="A760" s="9"/>
@@ -9011,7 +8999,7 @@
       <c r="F760" s="7"/>
       <c r="G760" s="15"/>
       <c r="H760" s="7"/>
-      <c r="I760" s="18"/>
+      <c r="I760" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="15.75">
       <c r="A761" s="9"/>
@@ -9022,7 +9010,7 @@
       <c r="F761" s="7"/>
       <c r="G761" s="15"/>
       <c r="H761" s="7"/>
-      <c r="I761" s="18"/>
+      <c r="I761" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="15.75">
       <c r="A762" s="9"/>
@@ -9033,7 +9021,7 @@
       <c r="F762" s="7"/>
       <c r="G762" s="15"/>
       <c r="H762" s="7"/>
-      <c r="I762" s="18"/>
+      <c r="I762" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="15.75">
       <c r="A763" s="9"/>
@@ -9044,7 +9032,7 @@
       <c r="F763" s="7"/>
       <c r="G763" s="15"/>
       <c r="H763" s="7"/>
-      <c r="I763" s="18"/>
+      <c r="I763" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="15.75">
       <c r="A764" s="9"/>
@@ -9055,7 +9043,7 @@
       <c r="F764" s="7"/>
       <c r="G764" s="15"/>
       <c r="H764" s="7"/>
-      <c r="I764" s="18"/>
+      <c r="I764" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="15.75">
       <c r="A765" s="9"/>
@@ -9066,7 +9054,7 @@
       <c r="F765" s="7"/>
       <c r="G765" s="15"/>
       <c r="H765" s="7"/>
-      <c r="I765" s="18"/>
+      <c r="I765" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="15.75">
       <c r="A766" s="9"/>
@@ -9077,7 +9065,7 @@
       <c r="F766" s="7"/>
       <c r="G766" s="15"/>
       <c r="H766" s="7"/>
-      <c r="I766" s="18"/>
+      <c r="I766" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="15.75">
       <c r="A767" s="9"/>
@@ -9088,7 +9076,7 @@
       <c r="F767" s="7"/>
       <c r="G767" s="15"/>
       <c r="H767" s="7"/>
-      <c r="I767" s="18"/>
+      <c r="I767" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="15.75">
       <c r="A768" s="9"/>
@@ -9099,7 +9087,7 @@
       <c r="F768" s="7"/>
       <c r="G768" s="15"/>
       <c r="H768" s="7"/>
-      <c r="I768" s="18"/>
+      <c r="I768" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="15.75">
       <c r="A769" s="9"/>
@@ -9110,7 +9098,7 @@
       <c r="F769" s="7"/>
       <c r="G769" s="15"/>
       <c r="H769" s="7"/>
-      <c r="I769" s="18"/>
+      <c r="I769" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="15.75">
       <c r="A770" s="9"/>
@@ -9121,7 +9109,7 @@
       <c r="F770" s="7"/>
       <c r="G770" s="15"/>
       <c r="H770" s="7"/>
-      <c r="I770" s="18"/>
+      <c r="I770" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="15.75">
       <c r="A771" s="9"/>
@@ -9132,7 +9120,7 @@
       <c r="F771" s="7"/>
       <c r="G771" s="15"/>
       <c r="H771" s="7"/>
-      <c r="I771" s="18"/>
+      <c r="I771" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="15.75">
       <c r="A772" s="9"/>
@@ -9143,7 +9131,7 @@
       <c r="F772" s="7"/>
       <c r="G772" s="15"/>
       <c r="H772" s="7"/>
-      <c r="I772" s="18"/>
+      <c r="I772" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="15.75">
       <c r="A773" s="9"/>
@@ -9154,7 +9142,7 @@
       <c r="F773" s="7"/>
       <c r="G773" s="15"/>
       <c r="H773" s="7"/>
-      <c r="I773" s="18"/>
+      <c r="I773" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="15.75">
       <c r="A774" s="9"/>
@@ -9165,7 +9153,7 @@
       <c r="F774" s="7"/>
       <c r="G774" s="15"/>
       <c r="H774" s="7"/>
-      <c r="I774" s="18"/>
+      <c r="I774" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="15.75">
       <c r="A775" s="9"/>
@@ -9176,7 +9164,7 @@
       <c r="F775" s="7"/>
       <c r="G775" s="15"/>
       <c r="H775" s="7"/>
-      <c r="I775" s="18"/>
+      <c r="I775" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="15.75">
       <c r="A776" s="9"/>
@@ -9187,7 +9175,7 @@
       <c r="F776" s="7"/>
       <c r="G776" s="15"/>
       <c r="H776" s="7"/>
-      <c r="I776" s="18"/>
+      <c r="I776" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="15.75">
       <c r="A777" s="9"/>
@@ -9198,7 +9186,7 @@
       <c r="F777" s="7"/>
       <c r="G777" s="15"/>
       <c r="H777" s="7"/>
-      <c r="I777" s="18"/>
+      <c r="I777" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="15.75">
       <c r="A778" s="9"/>
@@ -9209,7 +9197,7 @@
       <c r="F778" s="7"/>
       <c r="G778" s="15"/>
       <c r="H778" s="7"/>
-      <c r="I778" s="18"/>
+      <c r="I778" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="15.75">
       <c r="A779" s="9"/>
@@ -9220,7 +9208,7 @@
       <c r="F779" s="7"/>
       <c r="G779" s="15"/>
       <c r="H779" s="7"/>
-      <c r="I779" s="18"/>
+      <c r="I779" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="15.75">
       <c r="A780" s="9"/>
@@ -9231,7 +9219,7 @@
       <c r="F780" s="7"/>
       <c r="G780" s="15"/>
       <c r="H780" s="7"/>
-      <c r="I780" s="18"/>
+      <c r="I780" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="15.75">
       <c r="A781" s="9"/>
@@ -9242,7 +9230,7 @@
       <c r="F781" s="7"/>
       <c r="G781" s="15"/>
       <c r="H781" s="7"/>
-      <c r="I781" s="18"/>
+      <c r="I781" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="15.75">
       <c r="A782" s="9"/>
@@ -9253,7 +9241,7 @@
       <c r="F782" s="7"/>
       <c r="G782" s="15"/>
       <c r="H782" s="7"/>
-      <c r="I782" s="18"/>
+      <c r="I782" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="15.75">
       <c r="A783" s="9"/>
@@ -9264,7 +9252,7 @@
       <c r="F783" s="7"/>
       <c r="G783" s="15"/>
       <c r="H783" s="7"/>
-      <c r="I783" s="18"/>
+      <c r="I783" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="15.75">
       <c r="A784" s="9"/>
@@ -9275,7 +9263,7 @@
       <c r="F784" s="7"/>
       <c r="G784" s="15"/>
       <c r="H784" s="7"/>
-      <c r="I784" s="18"/>
+      <c r="I784" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="15.75">
       <c r="A785" s="9"/>
@@ -9286,7 +9274,7 @@
       <c r="F785" s="7"/>
       <c r="G785" s="15"/>
       <c r="H785" s="7"/>
-      <c r="I785" s="18"/>
+      <c r="I785" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="15.75">
       <c r="A786" s="9"/>
@@ -9297,7 +9285,7 @@
       <c r="F786" s="7"/>
       <c r="G786" s="15"/>
       <c r="H786" s="7"/>
-      <c r="I786" s="18"/>
+      <c r="I786" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="15.75">
       <c r="A787" s="9"/>
@@ -9308,7 +9296,7 @@
       <c r="F787" s="7"/>
       <c r="G787" s="15"/>
       <c r="H787" s="7"/>
-      <c r="I787" s="18"/>
+      <c r="I787" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="15.75">
       <c r="A788" s="9"/>
@@ -9319,7 +9307,7 @@
       <c r="F788" s="7"/>
       <c r="G788" s="15"/>
       <c r="H788" s="7"/>
-      <c r="I788" s="18"/>
+      <c r="I788" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="15.75">
       <c r="A789" s="9"/>
@@ -9330,7 +9318,7 @@
       <c r="F789" s="7"/>
       <c r="G789" s="15"/>
       <c r="H789" s="7"/>
-      <c r="I789" s="18"/>
+      <c r="I789" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="15.75">
       <c r="A790" s="9"/>
@@ -9341,7 +9329,7 @@
       <c r="F790" s="7"/>
       <c r="G790" s="15"/>
       <c r="H790" s="7"/>
-      <c r="I790" s="18"/>
+      <c r="I790" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="15.75">
       <c r="A791" s="9"/>
@@ -9352,7 +9340,7 @@
       <c r="F791" s="7"/>
       <c r="G791" s="15"/>
       <c r="H791" s="7"/>
-      <c r="I791" s="18"/>
+      <c r="I791" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="15.75">
       <c r="A792" s="9"/>
@@ -9363,7 +9351,7 @@
       <c r="F792" s="7"/>
       <c r="G792" s="15"/>
       <c r="H792" s="7"/>
-      <c r="I792" s="18"/>
+      <c r="I792" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="15.75">
       <c r="A793" s="9"/>
@@ -9374,7 +9362,7 @@
       <c r="F793" s="7"/>
       <c r="G793" s="15"/>
       <c r="H793" s="7"/>
-      <c r="I793" s="18"/>
+      <c r="I793" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="15.75">
       <c r="A794" s="9"/>
@@ -9385,7 +9373,7 @@
       <c r="F794" s="7"/>
       <c r="G794" s="15"/>
       <c r="H794" s="7"/>
-      <c r="I794" s="18"/>
+      <c r="I794" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="15.75">
       <c r="A795" s="9"/>
@@ -9396,7 +9384,7 @@
       <c r="F795" s="7"/>
       <c r="G795" s="15"/>
       <c r="H795" s="7"/>
-      <c r="I795" s="18"/>
+      <c r="I795" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="15.75">
       <c r="A796" s="9"/>
@@ -9407,7 +9395,7 @@
       <c r="F796" s="7"/>
       <c r="G796" s="15"/>
       <c r="H796" s="7"/>
-      <c r="I796" s="18"/>
+      <c r="I796" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="15.75">
       <c r="A797" s="9"/>
@@ -9418,7 +9406,7 @@
       <c r="F797" s="7"/>
       <c r="G797" s="15"/>
       <c r="H797" s="7"/>
-      <c r="I797" s="18"/>
+      <c r="I797" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="15.75">
       <c r="A798" s="9"/>
@@ -9429,7 +9417,7 @@
       <c r="F798" s="7"/>
       <c r="G798" s="15"/>
       <c r="H798" s="7"/>
-      <c r="I798" s="18"/>
+      <c r="I798" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="15.75">
       <c r="A799" s="9"/>
@@ -9440,7 +9428,7 @@
       <c r="F799" s="7"/>
       <c r="G799" s="15"/>
       <c r="H799" s="7"/>
-      <c r="I799" s="18"/>
+      <c r="I799" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="15.75">
       <c r="A800" s="9"/>
@@ -9451,7 +9439,7 @@
       <c r="F800" s="7"/>
       <c r="G800" s="15"/>
       <c r="H800" s="7"/>
-      <c r="I800" s="18"/>
+      <c r="I800" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="15.75">
       <c r="A801" s="9"/>
@@ -9462,7 +9450,7 @@
       <c r="F801" s="7"/>
       <c r="G801" s="15"/>
       <c r="H801" s="7"/>
-      <c r="I801" s="18"/>
+      <c r="I801" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="15.75">
       <c r="A802" s="9"/>
@@ -9473,7 +9461,7 @@
       <c r="F802" s="7"/>
       <c r="G802" s="15"/>
       <c r="H802" s="7"/>
-      <c r="I802" s="18"/>
+      <c r="I802" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="15.75">
       <c r="A803" s="9"/>
@@ -9484,7 +9472,7 @@
       <c r="F803" s="7"/>
       <c r="G803" s="15"/>
       <c r="H803" s="7"/>
-      <c r="I803" s="18"/>
+      <c r="I803" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="15.75">
       <c r="A804" s="9"/>
@@ -9495,7 +9483,7 @@
       <c r="F804" s="7"/>
       <c r="G804" s="15"/>
       <c r="H804" s="7"/>
-      <c r="I804" s="18"/>
+      <c r="I804" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="15.75">
       <c r="A805" s="9"/>
@@ -9506,7 +9494,7 @@
       <c r="F805" s="7"/>
       <c r="G805" s="15"/>
       <c r="H805" s="7"/>
-      <c r="I805" s="18"/>
+      <c r="I805" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="15.75">
       <c r="A806" s="9"/>
@@ -9517,7 +9505,7 @@
       <c r="F806" s="7"/>
       <c r="G806" s="15"/>
       <c r="H806" s="7"/>
-      <c r="I806" s="18"/>
+      <c r="I806" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="15.75">
       <c r="A807" s="9"/>
@@ -9528,7 +9516,7 @@
       <c r="F807" s="7"/>
       <c r="G807" s="15"/>
       <c r="H807" s="7"/>
-      <c r="I807" s="18"/>
+      <c r="I807" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="15.75">
       <c r="A808" s="9"/>
@@ -9539,7 +9527,7 @@
       <c r="F808" s="7"/>
       <c r="G808" s="15"/>
       <c r="H808" s="7"/>
-      <c r="I808" s="18"/>
+      <c r="I808" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="15.75">
       <c r="A809" s="9"/>
@@ -9550,7 +9538,7 @@
       <c r="F809" s="7"/>
       <c r="G809" s="15"/>
       <c r="H809" s="7"/>
-      <c r="I809" s="18"/>
+      <c r="I809" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="15.75">
       <c r="A810" s="9"/>
@@ -9561,7 +9549,7 @@
       <c r="F810" s="7"/>
       <c r="G810" s="15"/>
       <c r="H810" s="7"/>
-      <c r="I810" s="18"/>
+      <c r="I810" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="15.75">
       <c r="A811" s="9"/>
@@ -9572,7 +9560,7 @@
       <c r="F811" s="7"/>
       <c r="G811" s="15"/>
       <c r="H811" s="7"/>
-      <c r="I811" s="18"/>
+      <c r="I811" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="15.75">
       <c r="A812" s="9"/>
@@ -9583,7 +9571,7 @@
       <c r="F812" s="7"/>
       <c r="G812" s="15"/>
       <c r="H812" s="7"/>
-      <c r="I812" s="18"/>
+      <c r="I812" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="15.75">
       <c r="A813" s="9"/>
@@ -9594,7 +9582,7 @@
       <c r="F813" s="7"/>
       <c r="G813" s="15"/>
       <c r="H813" s="7"/>
-      <c r="I813" s="18"/>
+      <c r="I813" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="15.75">
       <c r="A814" s="9"/>
@@ -9605,7 +9593,7 @@
       <c r="F814" s="7"/>
       <c r="G814" s="15"/>
       <c r="H814" s="7"/>
-      <c r="I814" s="18"/>
+      <c r="I814" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="15.75">
       <c r="A815" s="9"/>
@@ -9616,7 +9604,7 @@
       <c r="F815" s="7"/>
       <c r="G815" s="15"/>
       <c r="H815" s="7"/>
-      <c r="I815" s="18"/>
+      <c r="I815" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="15.75">
       <c r="A816" s="9"/>
@@ -9627,7 +9615,7 @@
       <c r="F816" s="7"/>
       <c r="G816" s="15"/>
       <c r="H816" s="7"/>
-      <c r="I816" s="18"/>
+      <c r="I816" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="15.75">
       <c r="A817" s="9"/>
@@ -9638,7 +9626,7 @@
       <c r="F817" s="7"/>
       <c r="G817" s="15"/>
       <c r="H817" s="7"/>
-      <c r="I817" s="18"/>
+      <c r="I817" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="15.75">
       <c r="A818" s="9"/>
@@ -9649,7 +9637,7 @@
       <c r="F818" s="7"/>
       <c r="G818" s="15"/>
       <c r="H818" s="7"/>
-      <c r="I818" s="18"/>
+      <c r="I818" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="15.75">
       <c r="A819" s="9"/>
@@ -9660,7 +9648,7 @@
       <c r="F819" s="7"/>
       <c r="G819" s="15"/>
       <c r="H819" s="7"/>
-      <c r="I819" s="18"/>
+      <c r="I819" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="15.75">
       <c r="A820" s="9"/>
@@ -9671,7 +9659,7 @@
       <c r="F820" s="7"/>
       <c r="G820" s="15"/>
       <c r="H820" s="7"/>
-      <c r="I820" s="18"/>
+      <c r="I820" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="15.75">
       <c r="A821" s="9"/>
@@ -9682,7 +9670,7 @@
       <c r="F821" s="7"/>
       <c r="G821" s="15"/>
       <c r="H821" s="7"/>
-      <c r="I821" s="18"/>
+      <c r="I821" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="15.75">
       <c r="A822" s="9"/>
@@ -9693,7 +9681,7 @@
       <c r="F822" s="7"/>
       <c r="G822" s="15"/>
       <c r="H822" s="7"/>
-      <c r="I822" s="18"/>
+      <c r="I822" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="15.75">
       <c r="A823" s="9"/>
@@ -9704,7 +9692,7 @@
       <c r="F823" s="7"/>
       <c r="G823" s="15"/>
       <c r="H823" s="7"/>
-      <c r="I823" s="18"/>
+      <c r="I823" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="15.75">
       <c r="A824" s="9"/>
@@ -9715,7 +9703,7 @@
       <c r="F824" s="7"/>
       <c r="G824" s="15"/>
       <c r="H824" s="7"/>
-      <c r="I824" s="18"/>
+      <c r="I824" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="15.75">
       <c r="A825" s="9"/>
@@ -9726,7 +9714,7 @@
       <c r="F825" s="7"/>
       <c r="G825" s="15"/>
       <c r="H825" s="7"/>
-      <c r="I825" s="18"/>
+      <c r="I825" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="15.75">
       <c r="A826" s="9"/>
@@ -9737,7 +9725,7 @@
       <c r="F826" s="7"/>
       <c r="G826" s="15"/>
       <c r="H826" s="7"/>
-      <c r="I826" s="18"/>
+      <c r="I826" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="15.75">
       <c r="A827" s="9"/>
@@ -9748,7 +9736,7 @@
       <c r="F827" s="7"/>
       <c r="G827" s="15"/>
       <c r="H827" s="7"/>
-      <c r="I827" s="18"/>
+      <c r="I827" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="15.75">
       <c r="A828" s="9"/>
@@ -9759,7 +9747,7 @@
       <c r="F828" s="7"/>
       <c r="G828" s="15"/>
       <c r="H828" s="7"/>
-      <c r="I828" s="18"/>
+      <c r="I828" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="15.75">
       <c r="A829" s="9"/>
@@ -9770,7 +9758,7 @@
       <c r="F829" s="7"/>
       <c r="G829" s="15"/>
       <c r="H829" s="7"/>
-      <c r="I829" s="18"/>
+      <c r="I829" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="15.75">
       <c r="A830" s="9"/>
@@ -9781,7 +9769,7 @@
       <c r="F830" s="7"/>
       <c r="G830" s="15"/>
       <c r="H830" s="7"/>
-      <c r="I830" s="18"/>
+      <c r="I830" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="15.75">
       <c r="A831" s="9"/>
@@ -9792,7 +9780,7 @@
       <c r="F831" s="7"/>
       <c r="G831" s="15"/>
       <c r="H831" s="7"/>
-      <c r="I831" s="18"/>
+      <c r="I831" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="15.75">
       <c r="A832" s="9"/>
@@ -9803,7 +9791,7 @@
       <c r="F832" s="7"/>
       <c r="G832" s="15"/>
       <c r="H832" s="7"/>
-      <c r="I832" s="18"/>
+      <c r="I832" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="15.75">
       <c r="A833" s="9"/>
@@ -9814,7 +9802,7 @@
       <c r="F833" s="7"/>
       <c r="G833" s="15"/>
       <c r="H833" s="7"/>
-      <c r="I833" s="18"/>
+      <c r="I833" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="15.75">
       <c r="A834" s="9"/>
@@ -9825,7 +9813,7 @@
       <c r="F834" s="7"/>
       <c r="G834" s="15"/>
       <c r="H834" s="7"/>
-      <c r="I834" s="18"/>
+      <c r="I834" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="15.75">
       <c r="A835" s="9"/>
@@ -9836,7 +9824,7 @@
       <c r="F835" s="7"/>
       <c r="G835" s="15"/>
       <c r="H835" s="7"/>
-      <c r="I835" s="18"/>
+      <c r="I835" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="15.75">
       <c r="A836" s="9"/>
@@ -9847,7 +9835,7 @@
       <c r="F836" s="7"/>
       <c r="G836" s="15"/>
       <c r="H836" s="7"/>
-      <c r="I836" s="18"/>
+      <c r="I836" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="15.75">
       <c r="A837" s="9"/>
@@ -9858,7 +9846,7 @@
       <c r="F837" s="7"/>
       <c r="G837" s="15"/>
       <c r="H837" s="7"/>
-      <c r="I837" s="18"/>
+      <c r="I837" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="15.75">
       <c r="A838" s="9"/>
@@ -9869,7 +9857,7 @@
       <c r="F838" s="7"/>
       <c r="G838" s="15"/>
       <c r="H838" s="7"/>
-      <c r="I838" s="18"/>
+      <c r="I838" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="15.75">
       <c r="A839" s="9"/>
@@ -9880,7 +9868,7 @@
       <c r="F839" s="7"/>
       <c r="G839" s="15"/>
       <c r="H839" s="7"/>
-      <c r="I839" s="18"/>
+      <c r="I839" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="15.75">
       <c r="A840" s="9"/>
@@ -9891,7 +9879,7 @@
       <c r="F840" s="7"/>
       <c r="G840" s="15"/>
       <c r="H840" s="7"/>
-      <c r="I840" s="18"/>
+      <c r="I840" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="15.75">
       <c r="A841" s="9"/>
@@ -9902,7 +9890,7 @@
       <c r="F841" s="7"/>
       <c r="G841" s="15"/>
       <c r="H841" s="7"/>
-      <c r="I841" s="18"/>
+      <c r="I841" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="15.75">
       <c r="A842" s="9"/>
@@ -9913,7 +9901,7 @@
       <c r="F842" s="7"/>
       <c r="G842" s="15"/>
       <c r="H842" s="7"/>
-      <c r="I842" s="18"/>
+      <c r="I842" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="15.75">
       <c r="A843" s="9"/>
@@ -9924,7 +9912,7 @@
       <c r="F843" s="7"/>
       <c r="G843" s="15"/>
       <c r="H843" s="7"/>
-      <c r="I843" s="18"/>
+      <c r="I843" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="15.75">
       <c r="A844" s="9"/>
@@ -9935,7 +9923,7 @@
       <c r="F844" s="7"/>
       <c r="G844" s="15"/>
       <c r="H844" s="7"/>
-      <c r="I844" s="18"/>
+      <c r="I844" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="15.75">
       <c r="A845" s="9"/>
@@ -9946,7 +9934,7 @@
       <c r="F845" s="7"/>
       <c r="G845" s="15"/>
       <c r="H845" s="7"/>
-      <c r="I845" s="18"/>
+      <c r="I845" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="15.75">
       <c r="A846" s="9"/>
@@ -9957,7 +9945,7 @@
       <c r="F846" s="7"/>
       <c r="G846" s="15"/>
       <c r="H846" s="7"/>
-      <c r="I846" s="18"/>
+      <c r="I846" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="15.75">
       <c r="A847" s="9"/>
@@ -9968,7 +9956,7 @@
       <c r="F847" s="7"/>
       <c r="G847" s="15"/>
       <c r="H847" s="7"/>
-      <c r="I847" s="18"/>
+      <c r="I847" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="15.75">
       <c r="A848" s="9"/>
@@ -9979,7 +9967,7 @@
       <c r="F848" s="7"/>
       <c r="G848" s="15"/>
       <c r="H848" s="7"/>
-      <c r="I848" s="18"/>
+      <c r="I848" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="15.75">
       <c r="A849" s="9"/>
@@ -9990,7 +9978,7 @@
       <c r="F849" s="7"/>
       <c r="G849" s="15"/>
       <c r="H849" s="7"/>
-      <c r="I849" s="18"/>
+      <c r="I849" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="15.75">
       <c r="A850" s="9"/>
@@ -10001,7 +9989,7 @@
       <c r="F850" s="7"/>
       <c r="G850" s="15"/>
       <c r="H850" s="7"/>
-      <c r="I850" s="18"/>
+      <c r="I850" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="15.75">
       <c r="A851" s="9"/>
@@ -10012,7 +10000,7 @@
       <c r="F851" s="7"/>
       <c r="G851" s="15"/>
       <c r="H851" s="7"/>
-      <c r="I851" s="18"/>
+      <c r="I851" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="15.75">
       <c r="A852" s="9"/>
@@ -10023,7 +10011,7 @@
       <c r="F852" s="7"/>
       <c r="G852" s="15"/>
       <c r="H852" s="7"/>
-      <c r="I852" s="18"/>
+      <c r="I852" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="15.75">
       <c r="A853" s="9"/>
@@ -10034,7 +10022,7 @@
       <c r="F853" s="7"/>
       <c r="G853" s="15"/>
       <c r="H853" s="7"/>
-      <c r="I853" s="18"/>
+      <c r="I853" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="15.75">
       <c r="A854" s="9"/>
@@ -10045,7 +10033,7 @@
       <c r="F854" s="7"/>
       <c r="G854" s="15"/>
       <c r="H854" s="7"/>
-      <c r="I854" s="18"/>
+      <c r="I854" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="15.75">
       <c r="A855" s="9"/>
@@ -10056,7 +10044,7 @@
       <c r="F855" s="7"/>
       <c r="G855" s="15"/>
       <c r="H855" s="7"/>
-      <c r="I855" s="18"/>
+      <c r="I855" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="15.75">
       <c r="A856" s="9"/>
@@ -10067,7 +10055,7 @@
       <c r="F856" s="7"/>
       <c r="G856" s="15"/>
       <c r="H856" s="7"/>
-      <c r="I856" s="18"/>
+      <c r="I856" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="15.75">
       <c r="A857" s="9"/>
@@ -10078,7 +10066,7 @@
       <c r="F857" s="7"/>
       <c r="G857" s="15"/>
       <c r="H857" s="7"/>
-      <c r="I857" s="18"/>
+      <c r="I857" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
       <c r="A858" s="9"/>
@@ -10089,7 +10077,7 @@
       <c r="F858" s="7"/>
       <c r="G858" s="15"/>
       <c r="H858" s="7"/>
-      <c r="I858" s="18"/>
+      <c r="I858" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="15.75">
       <c r="A859" s="9"/>
@@ -10100,7 +10088,7 @@
       <c r="F859" s="7"/>
       <c r="G859" s="15"/>
       <c r="H859" s="7"/>
-      <c r="I859" s="18"/>
+      <c r="I859" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="15.75">
       <c r="A860" s="9"/>
@@ -10111,7 +10099,7 @@
       <c r="F860" s="7"/>
       <c r="G860" s="15"/>
       <c r="H860" s="7"/>
-      <c r="I860" s="18"/>
+      <c r="I860" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="15.75">
       <c r="A861" s="9"/>
@@ -10122,7 +10110,7 @@
       <c r="F861" s="7"/>
       <c r="G861" s="15"/>
       <c r="H861" s="7"/>
-      <c r="I861" s="18"/>
+      <c r="I861" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="15.75">
       <c r="A862" s="9"/>
@@ -10133,7 +10121,7 @@
       <c r="F862" s="7"/>
       <c r="G862" s="15"/>
       <c r="H862" s="7"/>
-      <c r="I862" s="18"/>
+      <c r="I862" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="15.75">
       <c r="A863" s="9"/>
@@ -10144,7 +10132,7 @@
       <c r="F863" s="7"/>
       <c r="G863" s="15"/>
       <c r="H863" s="7"/>
-      <c r="I863" s="18"/>
+      <c r="I863" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="15.75">
       <c r="A864" s="9"/>
@@ -10155,7 +10143,7 @@
       <c r="F864" s="7"/>
       <c r="G864" s="15"/>
       <c r="H864" s="7"/>
-      <c r="I864" s="18"/>
+      <c r="I864" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="15.75">
       <c r="A865" s="9"/>
@@ -10166,7 +10154,7 @@
       <c r="F865" s="7"/>
       <c r="G865" s="15"/>
       <c r="H865" s="7"/>
-      <c r="I865" s="18"/>
+      <c r="I865" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="15.75">
       <c r="A866" s="9"/>
@@ -10177,7 +10165,7 @@
       <c r="F866" s="7"/>
       <c r="G866" s="15"/>
       <c r="H866" s="7"/>
-      <c r="I866" s="18"/>
+      <c r="I866" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="15.75">
       <c r="A867" s="9"/>
@@ -10188,7 +10176,7 @@
       <c r="F867" s="7"/>
       <c r="G867" s="15"/>
       <c r="H867" s="7"/>
-      <c r="I867" s="18"/>
+      <c r="I867" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="15.75">
       <c r="A868" s="9"/>
@@ -10199,7 +10187,7 @@
       <c r="F868" s="7"/>
       <c r="G868" s="15"/>
       <c r="H868" s="7"/>
-      <c r="I868" s="18"/>
+      <c r="I868" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="15.75">
       <c r="A869" s="9"/>
@@ -10210,7 +10198,7 @@
       <c r="F869" s="7"/>
       <c r="G869" s="15"/>
       <c r="H869" s="7"/>
-      <c r="I869" s="18"/>
+      <c r="I869" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="15.75">
       <c r="A870" s="9"/>
@@ -10221,7 +10209,7 @@
       <c r="F870" s="7"/>
       <c r="G870" s="15"/>
       <c r="H870" s="7"/>
-      <c r="I870" s="18"/>
+      <c r="I870" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="15.75">
       <c r="A871" s="9"/>
@@ -10232,7 +10220,7 @@
       <c r="F871" s="7"/>
       <c r="G871" s="15"/>
       <c r="H871" s="7"/>
-      <c r="I871" s="18"/>
+      <c r="I871" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="15.75">
       <c r="A872" s="9"/>
@@ -10243,7 +10231,7 @@
       <c r="F872" s="7"/>
       <c r="G872" s="15"/>
       <c r="H872" s="7"/>
-      <c r="I872" s="18"/>
+      <c r="I872" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="15.75">
       <c r="A873" s="9"/>
@@ -10254,7 +10242,7 @@
       <c r="F873" s="7"/>
       <c r="G873" s="15"/>
       <c r="H873" s="7"/>
-      <c r="I873" s="18"/>
+      <c r="I873" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="15.75">
       <c r="A874" s="9"/>
@@ -10265,7 +10253,7 @@
       <c r="F874" s="7"/>
       <c r="G874" s="15"/>
       <c r="H874" s="7"/>
-      <c r="I874" s="18"/>
+      <c r="I874" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="15.75">
       <c r="A875" s="9"/>
@@ -10276,7 +10264,7 @@
       <c r="F875" s="7"/>
       <c r="G875" s="15"/>
       <c r="H875" s="7"/>
-      <c r="I875" s="18"/>
+      <c r="I875" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="15.75">
       <c r="A876" s="9"/>
@@ -10287,7 +10275,7 @@
       <c r="F876" s="7"/>
       <c r="G876" s="15"/>
       <c r="H876" s="7"/>
-      <c r="I876" s="18"/>
+      <c r="I876" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="15.75">
       <c r="A877" s="9"/>
@@ -10298,7 +10286,7 @@
       <c r="F877" s="7"/>
       <c r="G877" s="15"/>
       <c r="H877" s="7"/>
-      <c r="I877" s="18"/>
+      <c r="I877" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="15.75">
       <c r="A878" s="9"/>
@@ -10309,7 +10297,7 @@
       <c r="F878" s="7"/>
       <c r="G878" s="15"/>
       <c r="H878" s="7"/>
-      <c r="I878" s="18"/>
+      <c r="I878" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="15.75">
       <c r="A879" s="9"/>
@@ -10320,7 +10308,7 @@
       <c r="F879" s="7"/>
       <c r="G879" s="15"/>
       <c r="H879" s="7"/>
-      <c r="I879" s="18"/>
+      <c r="I879" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="15.75">
       <c r="A880" s="9"/>
@@ -10331,7 +10319,7 @@
       <c r="F880" s="7"/>
       <c r="G880" s="15"/>
       <c r="H880" s="7"/>
-      <c r="I880" s="18"/>
+      <c r="I880" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="15.75">
       <c r="A881" s="9"/>
@@ -10342,7 +10330,7 @@
       <c r="F881" s="7"/>
       <c r="G881" s="15"/>
       <c r="H881" s="7"/>
-      <c r="I881" s="18"/>
+      <c r="I881" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="15.75">
       <c r="A882" s="9"/>
@@ -10353,7 +10341,7 @@
       <c r="F882" s="7"/>
       <c r="G882" s="15"/>
       <c r="H882" s="7"/>
-      <c r="I882" s="18"/>
+      <c r="I882" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="15.75">
       <c r="A883" s="9"/>
@@ -10364,7 +10352,7 @@
       <c r="F883" s="7"/>
       <c r="G883" s="15"/>
       <c r="H883" s="7"/>
-      <c r="I883" s="18"/>
+      <c r="I883" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="15.75">
       <c r="A884" s="9"/>
@@ -10375,7 +10363,7 @@
       <c r="F884" s="7"/>
       <c r="G884" s="15"/>
       <c r="H884" s="7"/>
-      <c r="I884" s="18"/>
+      <c r="I884" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="15.75">
       <c r="A885" s="9"/>
@@ -10386,7 +10374,7 @@
       <c r="F885" s="7"/>
       <c r="G885" s="15"/>
       <c r="H885" s="7"/>
-      <c r="I885" s="18"/>
+      <c r="I885" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="15.75">
       <c r="A886" s="9"/>
@@ -10397,7 +10385,7 @@
       <c r="F886" s="7"/>
       <c r="G886" s="15"/>
       <c r="H886" s="7"/>
-      <c r="I886" s="18"/>
+      <c r="I886" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="15.75">
       <c r="A887" s="9"/>
@@ -10408,7 +10396,7 @@
       <c r="F887" s="7"/>
       <c r="G887" s="15"/>
       <c r="H887" s="7"/>
-      <c r="I887" s="18"/>
+      <c r="I887" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="15.75">
       <c r="A888" s="9"/>
@@ -10419,7 +10407,7 @@
       <c r="F888" s="7"/>
       <c r="G888" s="15"/>
       <c r="H888" s="7"/>
-      <c r="I888" s="18"/>
+      <c r="I888" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="15.75">
       <c r="A889" s="9"/>
@@ -10430,7 +10418,7 @@
       <c r="F889" s="7"/>
       <c r="G889" s="15"/>
       <c r="H889" s="7"/>
-      <c r="I889" s="18"/>
+      <c r="I889" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="15.75">
       <c r="A890" s="9"/>
@@ -10441,7 +10429,7 @@
       <c r="F890" s="7"/>
       <c r="G890" s="15"/>
       <c r="H890" s="7"/>
-      <c r="I890" s="18"/>
+      <c r="I890" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="15.75">
       <c r="A891" s="9"/>
@@ -10452,7 +10440,7 @@
       <c r="F891" s="7"/>
       <c r="G891" s="15"/>
       <c r="H891" s="7"/>
-      <c r="I891" s="18"/>
+      <c r="I891" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="15.75">
       <c r="A892" s="9"/>
@@ -10463,7 +10451,7 @@
       <c r="F892" s="7"/>
       <c r="G892" s="15"/>
       <c r="H892" s="7"/>
-      <c r="I892" s="18"/>
+      <c r="I892" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="15.75">
       <c r="A893" s="9"/>
@@ -10474,7 +10462,7 @@
       <c r="F893" s="7"/>
       <c r="G893" s="15"/>
       <c r="H893" s="7"/>
-      <c r="I893" s="18"/>
+      <c r="I893" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="15.75">
       <c r="A894" s="9"/>
@@ -10485,7 +10473,7 @@
       <c r="F894" s="7"/>
       <c r="G894" s="15"/>
       <c r="H894" s="7"/>
-      <c r="I894" s="18"/>
+      <c r="I894" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="15.75">
       <c r="A895" s="9"/>
@@ -10496,7 +10484,7 @@
       <c r="F895" s="7"/>
       <c r="G895" s="15"/>
       <c r="H895" s="7"/>
-      <c r="I895" s="18"/>
+      <c r="I895" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="15.75">
       <c r="A896" s="9"/>
@@ -10507,7 +10495,7 @@
       <c r="F896" s="7"/>
       <c r="G896" s="15"/>
       <c r="H896" s="7"/>
-      <c r="I896" s="18"/>
+      <c r="I896" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="15.75">
       <c r="A897" s="9"/>
@@ -10518,7 +10506,7 @@
       <c r="F897" s="7"/>
       <c r="G897" s="15"/>
       <c r="H897" s="7"/>
-      <c r="I897" s="18"/>
+      <c r="I897" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="15.75">
       <c r="A898" s="9"/>
@@ -10529,7 +10517,7 @@
       <c r="F898" s="7"/>
       <c r="G898" s="15"/>
       <c r="H898" s="7"/>
-      <c r="I898" s="18"/>
+      <c r="I898" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="15.75">
       <c r="A899" s="9"/>
@@ -10540,7 +10528,7 @@
       <c r="F899" s="7"/>
       <c r="G899" s="15"/>
       <c r="H899" s="7"/>
-      <c r="I899" s="18"/>
+      <c r="I899" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="15.75">
       <c r="A900" s="9"/>
@@ -10551,7 +10539,7 @@
       <c r="F900" s="7"/>
       <c r="G900" s="15"/>
       <c r="H900" s="7"/>
-      <c r="I900" s="18"/>
+      <c r="I900" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="15.75">
       <c r="A901" s="9"/>
@@ -10562,7 +10550,7 @@
       <c r="F901" s="7"/>
       <c r="G901" s="15"/>
       <c r="H901" s="7"/>
-      <c r="I901" s="18"/>
+      <c r="I901" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="15.75">
       <c r="A902" s="9"/>
@@ -10573,7 +10561,7 @@
       <c r="F902" s="7"/>
       <c r="G902" s="15"/>
       <c r="H902" s="7"/>
-      <c r="I902" s="18"/>
+      <c r="I902" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="15.75">
       <c r="A903" s="9"/>
@@ -10584,7 +10572,7 @@
       <c r="F903" s="7"/>
       <c r="G903" s="15"/>
       <c r="H903" s="7"/>
-      <c r="I903" s="18"/>
+      <c r="I903" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="15.75">
       <c r="A904" s="9"/>
@@ -10595,7 +10583,7 @@
       <c r="F904" s="7"/>
       <c r="G904" s="15"/>
       <c r="H904" s="7"/>
-      <c r="I904" s="18"/>
+      <c r="I904" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="15.75">
       <c r="A905" s="9"/>
@@ -10606,7 +10594,7 @@
       <c r="F905" s="7"/>
       <c r="G905" s="15"/>
       <c r="H905" s="7"/>
-      <c r="I905" s="18"/>
+      <c r="I905" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="15.75">
       <c r="A906" s="9"/>
@@ -10617,7 +10605,7 @@
       <c r="F906" s="7"/>
       <c r="G906" s="15"/>
       <c r="H906" s="7"/>
-      <c r="I906" s="18"/>
+      <c r="I906" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="15.75">
       <c r="A907" s="9"/>
@@ -10628,7 +10616,7 @@
       <c r="F907" s="7"/>
       <c r="G907" s="15"/>
       <c r="H907" s="7"/>
-      <c r="I907" s="18"/>
+      <c r="I907" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="15.75">
       <c r="A908" s="9"/>
@@ -10639,7 +10627,7 @@
       <c r="F908" s="7"/>
       <c r="G908" s="15"/>
       <c r="H908" s="7"/>
-      <c r="I908" s="18"/>
+      <c r="I908" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="15.75">
       <c r="A909" s="9"/>
@@ -10650,7 +10638,7 @@
       <c r="F909" s="7"/>
       <c r="G909" s="15"/>
       <c r="H909" s="7"/>
-      <c r="I909" s="18"/>
+      <c r="I909" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="15.75">
       <c r="A910" s="9"/>
@@ -10661,7 +10649,7 @@
       <c r="F910" s="7"/>
       <c r="G910" s="15"/>
       <c r="H910" s="7"/>
-      <c r="I910" s="18"/>
+      <c r="I910" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="15.75">
       <c r="A911" s="9"/>
@@ -10672,7 +10660,7 @@
       <c r="F911" s="7"/>
       <c r="G911" s="15"/>
       <c r="H911" s="7"/>
-      <c r="I911" s="18"/>
+      <c r="I911" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="15.75">
       <c r="A912" s="9"/>
@@ -10683,7 +10671,7 @@
       <c r="F912" s="7"/>
       <c r="G912" s="15"/>
       <c r="H912" s="7"/>
-      <c r="I912" s="18"/>
+      <c r="I912" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="15.75">
       <c r="A913" s="9"/>
@@ -10694,7 +10682,7 @@
       <c r="F913" s="7"/>
       <c r="G913" s="15"/>
       <c r="H913" s="7"/>
-      <c r="I913" s="18"/>
+      <c r="I913" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="15.75">
       <c r="A914" s="9"/>
@@ -10705,7 +10693,7 @@
       <c r="F914" s="7"/>
       <c r="G914" s="15"/>
       <c r="H914" s="7"/>
-      <c r="I914" s="18"/>
+      <c r="I914" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="15.75">
       <c r="A915" s="9"/>
@@ -10716,7 +10704,7 @@
       <c r="F915" s="7"/>
       <c r="G915" s="15"/>
       <c r="H915" s="7"/>
-      <c r="I915" s="18"/>
+      <c r="I915" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="15.75">
       <c r="A916" s="9"/>
@@ -10727,7 +10715,7 @@
       <c r="F916" s="7"/>
       <c r="G916" s="15"/>
       <c r="H916" s="7"/>
-      <c r="I916" s="18"/>
+      <c r="I916" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="15.75">
       <c r="A917" s="9"/>
@@ -10738,7 +10726,7 @@
       <c r="F917" s="7"/>
       <c r="G917" s="15"/>
       <c r="H917" s="7"/>
-      <c r="I917" s="18"/>
+      <c r="I917" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="15.75">
       <c r="A918" s="9"/>
@@ -10749,7 +10737,7 @@
       <c r="F918" s="7"/>
       <c r="G918" s="15"/>
       <c r="H918" s="7"/>
-      <c r="I918" s="18"/>
+      <c r="I918" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="15.75">
       <c r="A919" s="9"/>
@@ -10760,7 +10748,7 @@
       <c r="F919" s="7"/>
       <c r="G919" s="15"/>
       <c r="H919" s="7"/>
-      <c r="I919" s="18"/>
+      <c r="I919" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="15.75">
       <c r="A920" s="9"/>
@@ -10771,7 +10759,7 @@
       <c r="F920" s="7"/>
       <c r="G920" s="15"/>
       <c r="H920" s="7"/>
-      <c r="I920" s="18"/>
+      <c r="I920" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="15.75">
       <c r="A921" s="9"/>
@@ -10782,7 +10770,7 @@
       <c r="F921" s="7"/>
       <c r="G921" s="15"/>
       <c r="H921" s="7"/>
-      <c r="I921" s="18"/>
+      <c r="I921" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="15.75">
       <c r="A922" s="9"/>
@@ -10793,7 +10781,7 @@
       <c r="F922" s="7"/>
       <c r="G922" s="15"/>
       <c r="H922" s="7"/>
-      <c r="I922" s="18"/>
+      <c r="I922" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="15.75">
       <c r="A923" s="9"/>
@@ -10804,7 +10792,7 @@
       <c r="F923" s="7"/>
       <c r="G923" s="15"/>
       <c r="H923" s="7"/>
-      <c r="I923" s="18"/>
+      <c r="I923" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="15.75">
       <c r="A924" s="9"/>
@@ -10815,7 +10803,7 @@
       <c r="F924" s="7"/>
       <c r="G924" s="15"/>
       <c r="H924" s="7"/>
-      <c r="I924" s="18"/>
+      <c r="I924" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="15.75">
       <c r="A925" s="9"/>
@@ -10826,7 +10814,7 @@
       <c r="F925" s="7"/>
       <c r="G925" s="15"/>
       <c r="H925" s="7"/>
-      <c r="I925" s="18"/>
+      <c r="I925" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="15.75">
       <c r="A926" s="9"/>
@@ -10837,7 +10825,7 @@
       <c r="F926" s="7"/>
       <c r="G926" s="15"/>
       <c r="H926" s="7"/>
-      <c r="I926" s="18"/>
+      <c r="I926" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="15.75">
       <c r="A927" s="9"/>
@@ -10848,7 +10836,7 @@
       <c r="F927" s="7"/>
       <c r="G927" s="15"/>
       <c r="H927" s="7"/>
-      <c r="I927" s="18"/>
+      <c r="I927" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="15.75">
       <c r="A928" s="9"/>
@@ -10859,7 +10847,7 @@
       <c r="F928" s="7"/>
       <c r="G928" s="15"/>
       <c r="H928" s="7"/>
-      <c r="I928" s="18"/>
+      <c r="I928" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="15.75">
       <c r="A929" s="9"/>
@@ -10870,7 +10858,7 @@
       <c r="F929" s="7"/>
       <c r="G929" s="15"/>
       <c r="H929" s="7"/>
-      <c r="I929" s="18"/>
+      <c r="I929" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="15.75">
       <c r="A930" s="9"/>
@@ -10881,7 +10869,7 @@
       <c r="F930" s="7"/>
       <c r="G930" s="15"/>
       <c r="H930" s="7"/>
-      <c r="I930" s="18"/>
+      <c r="I930" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="15.75">
       <c r="A931" s="9"/>
@@ -10892,7 +10880,7 @@
       <c r="F931" s="7"/>
       <c r="G931" s="15"/>
       <c r="H931" s="7"/>
-      <c r="I931" s="18"/>
+      <c r="I931" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="15.75">
       <c r="A932" s="9"/>
@@ -10903,7 +10891,7 @@
       <c r="F932" s="7"/>
       <c r="G932" s="15"/>
       <c r="H932" s="7"/>
-      <c r="I932" s="18"/>
+      <c r="I932" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="15.75">
       <c r="A933" s="9"/>
@@ -10914,7 +10902,7 @@
       <c r="F933" s="7"/>
       <c r="G933" s="15"/>
       <c r="H933" s="7"/>
-      <c r="I933" s="18"/>
+      <c r="I933" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="15.75">
       <c r="A934" s="9"/>
@@ -10925,7 +10913,7 @@
       <c r="F934" s="7"/>
       <c r="G934" s="15"/>
       <c r="H934" s="7"/>
-      <c r="I934" s="18"/>
+      <c r="I934" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="15.75">
       <c r="A935" s="9"/>
@@ -10936,7 +10924,7 @@
       <c r="F935" s="7"/>
       <c r="G935" s="15"/>
       <c r="H935" s="7"/>
-      <c r="I935" s="18"/>
+      <c r="I935" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="15.75">
       <c r="A936" s="9"/>
@@ -10947,7 +10935,7 @@
       <c r="F936" s="7"/>
       <c r="G936" s="15"/>
       <c r="H936" s="7"/>
-      <c r="I936" s="18"/>
+      <c r="I936" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="15.75">
       <c r="A937" s="9"/>
@@ -10958,7 +10946,7 @@
       <c r="F937" s="7"/>
       <c r="G937" s="15"/>
       <c r="H937" s="7"/>
-      <c r="I937" s="18"/>
+      <c r="I937" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="15.75">
       <c r="A938" s="9"/>
@@ -10969,7 +10957,7 @@
       <c r="F938" s="7"/>
       <c r="G938" s="15"/>
       <c r="H938" s="7"/>
-      <c r="I938" s="18"/>
+      <c r="I938" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="15.75">
       <c r="A939" s="9"/>
@@ -10980,7 +10968,7 @@
       <c r="F939" s="7"/>
       <c r="G939" s="15"/>
       <c r="H939" s="7"/>
-      <c r="I939" s="18"/>
+      <c r="I939" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="15.75">
       <c r="A940" s="9"/>
@@ -10991,7 +10979,7 @@
       <c r="F940" s="7"/>
       <c r="G940" s="15"/>
       <c r="H940" s="7"/>
-      <c r="I940" s="18"/>
+      <c r="I940" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="15.75">
       <c r="A941" s="9"/>
@@ -11002,7 +10990,7 @@
       <c r="F941" s="7"/>
       <c r="G941" s="15"/>
       <c r="H941" s="7"/>
-      <c r="I941" s="18"/>
+      <c r="I941" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="15.75">
       <c r="A942" s="9"/>
@@ -11013,7 +11001,7 @@
       <c r="F942" s="7"/>
       <c r="G942" s="15"/>
       <c r="H942" s="7"/>
-      <c r="I942" s="18"/>
+      <c r="I942" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="15.75">
       <c r="A943" s="9"/>
@@ -11024,7 +11012,7 @@
       <c r="F943" s="7"/>
       <c r="G943" s="15"/>
       <c r="H943" s="7"/>
-      <c r="I943" s="18"/>
+      <c r="I943" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="15.75">
       <c r="A944" s="9"/>
@@ -11035,7 +11023,7 @@
       <c r="F944" s="7"/>
       <c r="G944" s="15"/>
       <c r="H944" s="7"/>
-      <c r="I944" s="18"/>
+      <c r="I944" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="15.75">
       <c r="A945" s="9"/>
@@ -11046,7 +11034,7 @@
       <c r="F945" s="7"/>
       <c r="G945" s="15"/>
       <c r="H945" s="7"/>
-      <c r="I945" s="18"/>
+      <c r="I945" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="15.75">
       <c r="A946" s="9"/>
@@ -11057,7 +11045,7 @@
       <c r="F946" s="7"/>
       <c r="G946" s="15"/>
       <c r="H946" s="7"/>
-      <c r="I946" s="18"/>
+      <c r="I946" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="15.75">
       <c r="A947" s="9"/>
@@ -11068,7 +11056,7 @@
       <c r="F947" s="7"/>
       <c r="G947" s="15"/>
       <c r="H947" s="7"/>
-      <c r="I947" s="18"/>
+      <c r="I947" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="15.75">
       <c r="A948" s="9"/>
@@ -11079,7 +11067,7 @@
       <c r="F948" s="7"/>
       <c r="G948" s="15"/>
       <c r="H948" s="7"/>
-      <c r="I948" s="18"/>
+      <c r="I948" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="15.75">
       <c r="A949" s="9"/>
@@ -11090,7 +11078,7 @@
       <c r="F949" s="7"/>
       <c r="G949" s="15"/>
       <c r="H949" s="7"/>
-      <c r="I949" s="18"/>
+      <c r="I949" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="15.75">
       <c r="A950" s="9"/>
@@ -11101,7 +11089,7 @@
       <c r="F950" s="7"/>
       <c r="G950" s="15"/>
       <c r="H950" s="7"/>
-      <c r="I950" s="18"/>
+      <c r="I950" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="15.75">
       <c r="A951" s="9"/>
@@ -11112,7 +11100,7 @@
       <c r="F951" s="7"/>
       <c r="G951" s="15"/>
       <c r="H951" s="7"/>
-      <c r="I951" s="18"/>
+      <c r="I951" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="15.75">
       <c r="A952" s="9"/>
@@ -11123,7 +11111,7 @@
       <c r="F952" s="7"/>
       <c r="G952" s="15"/>
       <c r="H952" s="7"/>
-      <c r="I952" s="18"/>
+      <c r="I952" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="15.75">
       <c r="A953" s="9"/>
@@ -11134,7 +11122,7 @@
       <c r="F953" s="7"/>
       <c r="G953" s="15"/>
       <c r="H953" s="7"/>
-      <c r="I953" s="18"/>
+      <c r="I953" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="15.75">
       <c r="A954" s="9"/>
@@ -11145,7 +11133,7 @@
       <c r="F954" s="7"/>
       <c r="G954" s="15"/>
       <c r="H954" s="7"/>
-      <c r="I954" s="18"/>
+      <c r="I954" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="15.75">
       <c r="A955" s="9"/>
@@ -11156,7 +11144,7 @@
       <c r="F955" s="7"/>
       <c r="G955" s="15"/>
       <c r="H955" s="7"/>
-      <c r="I955" s="18"/>
+      <c r="I955" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="15.75">
       <c r="A956" s="9"/>
@@ -11167,7 +11155,7 @@
       <c r="F956" s="7"/>
       <c r="G956" s="15"/>
       <c r="H956" s="7"/>
-      <c r="I956" s="18"/>
+      <c r="I956" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="15.75">
       <c r="A957" s="9"/>
@@ -11178,7 +11166,7 @@
       <c r="F957" s="7"/>
       <c r="G957" s="15"/>
       <c r="H957" s="7"/>
-      <c r="I957" s="18"/>
+      <c r="I957" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="15.75">
       <c r="A958" s="9"/>
@@ -11189,7 +11177,7 @@
       <c r="F958" s="7"/>
       <c r="G958" s="15"/>
       <c r="H958" s="7"/>
-      <c r="I958" s="18"/>
+      <c r="I958" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="15.75">
       <c r="A959" s="9"/>
@@ -11200,7 +11188,7 @@
       <c r="F959" s="7"/>
       <c r="G959" s="15"/>
       <c r="H959" s="7"/>
-      <c r="I959" s="18"/>
+      <c r="I959" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="15.75">
       <c r="A960" s="9"/>
@@ -11211,7 +11199,7 @@
       <c r="F960" s="7"/>
       <c r="G960" s="15"/>
       <c r="H960" s="7"/>
-      <c r="I960" s="18"/>
+      <c r="I960" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="15.75">
       <c r="A961" s="9"/>
@@ -11222,7 +11210,7 @@
       <c r="F961" s="7"/>
       <c r="G961" s="15"/>
       <c r="H961" s="7"/>
-      <c r="I961" s="18"/>
+      <c r="I961" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="15.75">
       <c r="A962" s="9"/>
@@ -11233,7 +11221,7 @@
       <c r="F962" s="7"/>
       <c r="G962" s="15"/>
       <c r="H962" s="7"/>
-      <c r="I962" s="18"/>
+      <c r="I962" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="15.75">
       <c r="A963" s="9"/>
@@ -11244,7 +11232,7 @@
       <c r="F963" s="7"/>
       <c r="G963" s="15"/>
       <c r="H963" s="7"/>
-      <c r="I963" s="18"/>
+      <c r="I963" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="15.75">
       <c r="A964" s="9"/>
@@ -11255,7 +11243,7 @@
       <c r="F964" s="7"/>
       <c r="G964" s="15"/>
       <c r="H964" s="7"/>
-      <c r="I964" s="18"/>
+      <c r="I964" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="15.75">
       <c r="A965" s="9"/>
@@ -11266,7 +11254,7 @@
       <c r="F965" s="7"/>
       <c r="G965" s="15"/>
       <c r="H965" s="7"/>
-      <c r="I965" s="18"/>
+      <c r="I965" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="15.75">
       <c r="A966" s="9"/>
@@ -11277,7 +11265,7 @@
       <c r="F966" s="7"/>
       <c r="G966" s="15"/>
       <c r="H966" s="7"/>
-      <c r="I966" s="18"/>
+      <c r="I966" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="15.75">
       <c r="A967" s="9"/>
@@ -11288,7 +11276,7 @@
       <c r="F967" s="7"/>
       <c r="G967" s="15"/>
       <c r="H967" s="7"/>
-      <c r="I967" s="18"/>
+      <c r="I967" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="15.75">
       <c r="A968" s="9"/>
@@ -11299,7 +11287,7 @@
       <c r="F968" s="7"/>
       <c r="G968" s="15"/>
       <c r="H968" s="7"/>
-      <c r="I968" s="18"/>
+      <c r="I968" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="15.75">
       <c r="A969" s="9"/>
@@ -11310,7 +11298,7 @@
       <c r="F969" s="7"/>
       <c r="G969" s="15"/>
       <c r="H969" s="7"/>
-      <c r="I969" s="18"/>
+      <c r="I969" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="15.75">
       <c r="A970" s="9"/>
@@ -11321,7 +11309,7 @@
       <c r="F970" s="7"/>
       <c r="G970" s="15"/>
       <c r="H970" s="7"/>
-      <c r="I970" s="18"/>
+      <c r="I970" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="15.75">
       <c r="A971" s="9"/>
@@ -11332,7 +11320,7 @@
       <c r="F971" s="7"/>
       <c r="G971" s="15"/>
       <c r="H971" s="7"/>
-      <c r="I971" s="18"/>
+      <c r="I971" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="15.75">
       <c r="A972" s="9"/>
@@ -11343,7 +11331,7 @@
       <c r="F972" s="7"/>
       <c r="G972" s="15"/>
       <c r="H972" s="7"/>
-      <c r="I972" s="18"/>
+      <c r="I972" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="15.75">
       <c r="A973" s="9"/>
@@ -11354,7 +11342,7 @@
       <c r="F973" s="7"/>
       <c r="G973" s="15"/>
       <c r="H973" s="7"/>
-      <c r="I973" s="18"/>
+      <c r="I973" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="15.75">
       <c r="A974" s="9"/>
@@ -11365,7 +11353,7 @@
       <c r="F974" s="7"/>
       <c r="G974" s="15"/>
       <c r="H974" s="7"/>
-      <c r="I974" s="18"/>
+      <c r="I974" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="15.75">
       <c r="A975" s="9"/>
@@ -11376,7 +11364,7 @@
       <c r="F975" s="7"/>
       <c r="G975" s="15"/>
       <c r="H975" s="7"/>
-      <c r="I975" s="18"/>
+      <c r="I975" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="15.75">
       <c r="A976" s="9"/>
@@ -11387,7 +11375,7 @@
       <c r="F976" s="7"/>
       <c r="G976" s="15"/>
       <c r="H976" s="7"/>
-      <c r="I976" s="18"/>
+      <c r="I976" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="15.75">
       <c r="A977" s="9"/>
@@ -11398,7 +11386,7 @@
       <c r="F977" s="7"/>
       <c r="G977" s="15"/>
       <c r="H977" s="7"/>
-      <c r="I977" s="18"/>
+      <c r="I977" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="15.75">
       <c r="A978" s="9"/>
@@ -11409,7 +11397,7 @@
       <c r="F978" s="7"/>
       <c r="G978" s="15"/>
       <c r="H978" s="7"/>
-      <c r="I978" s="18"/>
+      <c r="I978" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="15.75">
       <c r="A979" s="9"/>
@@ -11420,7 +11408,7 @@
       <c r="F979" s="7"/>
       <c r="G979" s="15"/>
       <c r="H979" s="7"/>
-      <c r="I979" s="18"/>
+      <c r="I979" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="15.75">
       <c r="A980" s="9"/>
@@ -11431,7 +11419,7 @@
       <c r="F980" s="7"/>
       <c r="G980" s="15"/>
       <c r="H980" s="7"/>
-      <c r="I980" s="18"/>
+      <c r="I980" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="15.75">
       <c r="A981" s="9"/>
@@ -11442,7 +11430,7 @@
       <c r="F981" s="7"/>
       <c r="G981" s="15"/>
       <c r="H981" s="7"/>
-      <c r="I981" s="18"/>
+      <c r="I981" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="15.75">
       <c r="A982" s="9"/>
@@ -11453,7 +11441,7 @@
       <c r="F982" s="7"/>
       <c r="G982" s="15"/>
       <c r="H982" s="7"/>
-      <c r="I982" s="18"/>
+      <c r="I982" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="15.75">
       <c r="A983" s="9"/>
@@ -11464,7 +11452,7 @@
       <c r="F983" s="7"/>
       <c r="G983" s="15"/>
       <c r="H983" s="7"/>
-      <c r="I983" s="18"/>
+      <c r="I983" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="15.75">
       <c r="A984" s="9"/>
@@ -11475,7 +11463,7 @@
       <c r="F984" s="7"/>
       <c r="G984" s="15"/>
       <c r="H984" s="7"/>
-      <c r="I984" s="18"/>
+      <c r="I984" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="15.75">
       <c r="A985" s="9"/>
@@ -11486,7 +11474,7 @@
       <c r="F985" s="7"/>
       <c r="G985" s="15"/>
       <c r="H985" s="7"/>
-      <c r="I985" s="18"/>
+      <c r="I985" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="15.75">
       <c r="A986" s="9"/>
@@ -11497,7 +11485,7 @@
       <c r="F986" s="7"/>
       <c r="G986" s="15"/>
       <c r="H986" s="7"/>
-      <c r="I986" s="18"/>
+      <c r="I986" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="15.75">
       <c r="A987" s="9"/>
@@ -11508,7 +11496,7 @@
       <c r="F987" s="7"/>
       <c r="G987" s="15"/>
       <c r="H987" s="7"/>
-      <c r="I987" s="18"/>
+      <c r="I987" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="15.75">
       <c r="A988" s="9"/>
@@ -11519,7 +11507,7 @@
       <c r="F988" s="7"/>
       <c r="G988" s="15"/>
       <c r="H988" s="7"/>
-      <c r="I988" s="18"/>
+      <c r="I988" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="15.75">
       <c r="A989" s="9"/>
@@ -11530,7 +11518,7 @@
       <c r="F989" s="7"/>
       <c r="G989" s="15"/>
       <c r="H989" s="7"/>
-      <c r="I989" s="18"/>
+      <c r="I989" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="15.75">
       <c r="A990" s="9"/>
@@ -11541,7 +11529,7 @@
       <c r="F990" s="7"/>
       <c r="G990" s="15"/>
       <c r="H990" s="7"/>
-      <c r="I990" s="18"/>
+      <c r="I990" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="15.75">
       <c r="A991" s="9"/>
@@ -11552,7 +11540,7 @@
       <c r="F991" s="7"/>
       <c r="G991" s="15"/>
       <c r="H991" s="7"/>
-      <c r="I991" s="18"/>
+      <c r="I991" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="15.75">
       <c r="A992" s="9"/>
@@ -11563,7 +11551,7 @@
       <c r="F992" s="7"/>
       <c r="G992" s="15"/>
       <c r="H992" s="7"/>
-      <c r="I992" s="18"/>
+      <c r="I992" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="15.75">
       <c r="A993" s="9"/>
@@ -11574,7 +11562,7 @@
       <c r="F993" s="7"/>
       <c r="G993" s="15"/>
       <c r="H993" s="7"/>
-      <c r="I993" s="18"/>
+      <c r="I993" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="15.75">
       <c r="A994" s="9"/>
@@ -11585,7 +11573,7 @@
       <c r="F994" s="7"/>
       <c r="G994" s="15"/>
       <c r="H994" s="7"/>
-      <c r="I994" s="18"/>
+      <c r="I994" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="15.75">
       <c r="A995" s="9"/>
@@ -11596,7 +11584,7 @@
       <c r="F995" s="7"/>
       <c r="G995" s="15"/>
       <c r="H995" s="7"/>
-      <c r="I995" s="18"/>
+      <c r="I995" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="15.75">
       <c r="A996" s="9"/>
@@ -11607,7 +11595,7 @@
       <c r="F996" s="7"/>
       <c r="G996" s="15"/>
       <c r="H996" s="7"/>
-      <c r="I996" s="18"/>
+      <c r="I996" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="15.75">
       <c r="A997" s="9"/>
@@ -11618,7 +11606,7 @@
       <c r="F997" s="7"/>
       <c r="G997" s="15"/>
       <c r="H997" s="7"/>
-      <c r="I997" s="18"/>
+      <c r="I997" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="15.75">
       <c r="A998" s="9"/>
@@ -11629,7 +11617,7 @@
       <c r="F998" s="7"/>
       <c r="G998" s="15"/>
       <c r="H998" s="7"/>
-      <c r="I998" s="18"/>
+      <c r="I998" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="15.75">
       <c r="A999" s="9"/>
@@ -11640,7 +11628,7 @@
       <c r="F999" s="7"/>
       <c r="G999" s="15"/>
       <c r="H999" s="7"/>
-      <c r="I999" s="18"/>
+      <c r="I999" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="15.75">
       <c r="A1000" s="9"/>
@@ -11651,7 +11639,7 @@
       <c r="F1000" s="7"/>
       <c r="G1000" s="15"/>
       <c r="H1000" s="7"/>
-      <c r="I1000" s="18"/>
+      <c r="I1000" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11710,10 +11698,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="7">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="7">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
